--- a/experiment_results/2140P187.xlsx
+++ b/experiment_results/2140P187.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1322"/>
+  <dimension ref="A1:I1352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,7 +590,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -696,7 +696,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Eco-Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Eco-Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Hiking', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1146,7 +1146,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Hiking', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -2271,7 +2271,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -2571,7 +2571,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Hiking', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3771,7 +3771,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Adventure Sports']</t>
+          <t>Category: ['Adventure Sports', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -4296,7 +4296,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -4896,7 +4896,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -4971,7 +4971,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -5046,7 +5046,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Historical Tours', 'Eco-Tours']</t>
+          <t>Category: ['Hiking', 'Eco-Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -5196,7 +5196,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -5346,7 +5346,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -5646,7 +5646,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B344" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -5946,7 +5946,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Entertainment']</t>
+          <t>Category: ['Entertainment', 'City Tours']</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -6171,7 +6171,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B379" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6396,7 +6396,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
@@ -6471,7 +6471,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B399" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -6921,7 +6921,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7071,7 +7071,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B439" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -7446,7 +7446,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B464" t="inlineStr"/>
@@ -7746,7 +7746,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B484" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -8121,7 +8121,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B509" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Historical Tours', 'City Tours']</t>
+          <t>Category: ['Hiking', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8346,7 +8346,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Historical Tours', 'Wildlife Tours']</t>
+          <t>Category: ['Hiking', 'Wildlife Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B524" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B529" t="inlineStr"/>
@@ -8571,7 +8571,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B539" t="inlineStr"/>
@@ -8646,7 +8646,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B544" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -8946,7 +8946,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -9021,7 +9021,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B569" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9321,7 +9321,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -9396,7 +9396,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Dining Experiences', 'Cultural Cruises']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -9546,7 +9546,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -9621,7 +9621,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -9696,7 +9696,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B614" t="inlineStr"/>
@@ -9771,7 +9771,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B619" t="inlineStr"/>
@@ -9846,7 +9846,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -9996,7 +9996,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Eco-Tours']</t>
+          <t>Category: ['Scenic Tours', 'Eco-Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -10146,7 +10146,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B644" t="inlineStr"/>
@@ -10221,7 +10221,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10596,7 +10596,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B674" t="inlineStr"/>
@@ -10671,7 +10671,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B679" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Museums']</t>
+          <t>Category: ['Scenic Tours', 'Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B689" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Water Sports']</t>
+          <t>Category: ['Water Sports', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11196,7 +11196,7 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B714" t="inlineStr"/>
@@ -11271,7 +11271,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B719" t="inlineStr"/>
@@ -11346,7 +11346,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B724" t="inlineStr"/>
@@ -11421,7 +11421,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B729" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B744" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -11871,7 +11871,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -11946,7 +11946,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B764" t="inlineStr"/>
@@ -12246,7 +12246,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B784" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12546,7 +12546,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B804" t="inlineStr"/>
@@ -12621,7 +12621,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Eco-Tours']</t>
+          <t>Category: ['Eco-Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12771,7 +12771,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12846,7 +12846,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -12996,7 +12996,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13071,7 +13071,7 @@
     <row r="839">
       <c r="A839" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B839" t="inlineStr"/>
@@ -13296,7 +13296,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13446,7 +13446,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B864" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13596,7 +13596,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Eco-Tours']</t>
+          <t>Category: ['Eco-Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -13671,7 +13671,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'City Tours']</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -13746,7 +13746,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -14046,7 +14046,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B904" t="inlineStr"/>
@@ -14496,7 +14496,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14571,7 +14571,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14646,7 +14646,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14842,7 +14842,7 @@
     <row r="957">
       <c r="A957" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 16168P9</t>
+          <t>PRODUCTCODE: 9866P29</t>
         </is>
       </c>
       <c r="B957" t="inlineStr"/>
@@ -14857,7 +14857,7 @@
     <row r="958">
       <c r="A958" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is a national Park and place of pilgrimage from millions of people around the world. Join your tour guide in an air-conditioned private vehicle in Barcelona for a drive up the mountain. Enjoy the view and hear about Montserrat’s Basilica and Monastery, home of the Black Madonna.</t>
+          <t>Summarized description: Girona is one of the most beautiful cities in the world. The city is known as the birthplace of the Catalan language. It is located in the province of Girona, near the city centre.</t>
         </is>
       </c>
       <c r="B958" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>Title: Montserrat Monastery Half Day Experience from Barcelona</t>
+          <t>Title: Girona &amp; Costa Brava Small-Group Tour with Pickup from Barcelona</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -14887,7 +14887,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>TotalReviews: 2689</t>
+          <t>TotalReviews: 3984</t>
         </is>
       </c>
       <c r="B960" t="inlineStr"/>
@@ -14917,7 +14917,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6874P107</t>
+          <t>PRODUCTCODE: 6874P164</t>
         </is>
       </c>
       <c r="B962" t="inlineStr"/>
@@ -14932,7 +14932,7 @@
     <row r="963">
       <c r="A963" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is an ideal trip to spend a fun day in nature, just a few kilometers away from Barcelona. Take home exclusive memories in this amazing day in the countryside.</t>
+          <t>Summarized description: Experience Barcelona’s emblematic surroundings on a full day trip through 3 iconic sites. Be amazed by one of the Catalan wonders with a visit to mystic Montserrat. Enjoy the breeze and admire the crystal blue waters while walking through an iconic and charming Mediterranean fishing village of the Costa Brava.</t>
         </is>
       </c>
       <c r="B963" t="inlineStr"/>
@@ -14947,7 +14947,7 @@
     <row r="964">
       <c r="A964" t="inlineStr">
         <is>
-          <t>Title: Montserrat Monastery Visit and Lunch at Farmhouse from Barcelona</t>
+          <t>Title: Montserrat, Girona &amp; Costa Brava Guided Day Trip from Barcelona</t>
         </is>
       </c>
       <c r="B964" t="inlineStr"/>
@@ -14962,7 +14962,7 @@
     <row r="965">
       <c r="A965" t="inlineStr">
         <is>
-          <t>TotalReviews: 1887</t>
+          <t>TotalReviews: 1385</t>
         </is>
       </c>
       <c r="B965" t="inlineStr"/>
@@ -14977,7 +14977,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Scenic Tours']</t>
+          <t>Category: ['Culinary Tours', 'Hiking', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B966" t="inlineStr"/>
@@ -14992,7 +14992,7 @@
     <row r="967">
       <c r="A967" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6874P164</t>
+          <t>PRODUCTCODE: 120041P7</t>
         </is>
       </c>
       <c r="B967" t="inlineStr"/>
@@ -15007,7 +15007,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>Summarized description: Experience Barcelona’s emblematic surroundings on a full day trip through 3 iconic sites. Be amazed by one of the Catalan wonders with a visit to mystic Montserrat. Enjoy the breeze and admire the crystal blue waters while walking through an iconic and charming Mediterranean fishing village of the Costa Brava.</t>
+          <t>Summarized description: Girona, Peratallada and Calella de Palafrugell are just a few of the towns and villages in the Empordà region.</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -15022,7 +15022,7 @@
     <row r="969">
       <c r="A969" t="inlineStr">
         <is>
-          <t>Title: Montserrat, Girona &amp; Costa Brava Guided Day Trip from Barcelona</t>
+          <t>Title: Small Group Girona and Costa Brava Day Trip From Barcelona</t>
         </is>
       </c>
       <c r="B969" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
     <row r="970">
       <c r="A970" t="inlineStr">
         <is>
-          <t>TotalReviews: 1385</t>
+          <t>TotalReviews: 237</t>
         </is>
       </c>
       <c r="B970" t="inlineStr"/>
@@ -15052,7 +15052,7 @@
     <row r="971">
       <c r="A971" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Scenic Tours']</t>
         </is>
       </c>
       <c r="B971" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P48</t>
+          <t>PRODUCTCODE: 6874P161</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: Girona, Figueres and the Dalí Museum make up the 10hour tour. Visit Girona's Cathedral, the Old Town and the Jewish Quarter on your way to the museum.</t>
+          <t>Summarized description: Discover the old walls, the Eiffel Bridge and the best Game of Thrones shooting locations. Stroll around the Jewish quarter, one of the best-preserved in the world and visit the Arab baths.</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Title: From Barcelona: Private Girona and Figueres with Dali Museum Tour</t>
+          <t>Title: Girona Guided Tour with High speed Train from Barcelona</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>TotalReviews: 81</t>
+          <t>TotalReviews: 52</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 127264P9</t>
+          <t>PRODUCTCODE: 3142GIRONA_P</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: Girona and Costa Brava tour from Barcelona is a private tour that takes you to see the most important sights in Girona, including the cathedral and city walls. Escape the crowds of Barcelona and explore another Catalonian city.</t>
+          <t>Summarized description: Travelling in a luxury car, you will visit the city of Girona in northeastern Catalonia. You’ll stop at Santuari dels Angels to take pictures from a stunning viewpoint on your way to the town of Pals.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Girona and Costa Brava Private Tour with Pick-up from Barcelona </t>
+          <t>Title: Girona and Costa Brava Private Day Trip from Barcelona</t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>TotalReviews: 80</t>
+          <t>TotalReviews: 39</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6874P161</t>
+          <t>PRODUCTCODE: 14014P2</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the old walls, the Eiffel Bridge and the best Game of Thrones shooting locations. Stroll around the Jewish quarter, one of the best-preserved in the world and visit the Arab baths.</t>
+          <t>Summarized description: Hiking trip to Montserrat. Hike to one of the most famous and iconic peaks of the mountain range. Energy snack, lunch and water are included.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Girona Guided Tour with High speed Train from Barcelona</t>
+          <t>Title: Montserrat Land of Shrines - One Day Small Group Hiking Tour from Barcelona</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 52</t>
+          <t>TotalReviews: 36</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Hiking']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3142GIRONA_P</t>
+          <t>PRODUCTCODE: 9866P50</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Summarized description: Travelling in a luxury car, you will visit the city of Girona in northeastern Catalonia. You’ll stop at Santuari dels Angels to take pictures from a stunning viewpoint on your way to the town of Pals.</t>
+          <t>Summarized description: Dive into Catalan traditions by visiting the mythical mountain of Montserrat. Dive into the culture of the cava in a local cellar.</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>Title: Girona and Costa Brava Private Day Trip from Barcelona</t>
+          <t>Title: Private Montserrat and Cava Winery Tour with Hotel Pick Up from Barcelona</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>TotalReviews: 39</t>
+          <t>TotalReviews: 32</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P50</t>
+          <t>PRODUCTCODE: 24380P146</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Summarized description: Dive into Catalan traditions by visiting the mythical mountain of Montserrat. Dive into the culture of the cava in a local cellar.</t>
+          <t>Summarized description: Discover Montserrat during a private tour with a driver. See the mountain, the symbol of Christianity in Catalonia. Taste delicious local snacks.</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>Title: Private Montserrat and Cava Winery Tour with Hotel Pick Up from Barcelona</t>
+          <t>Title: Private Day Trip to Montserrat with a Local from Barcelona</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>TotalReviews: 32</t>
+          <t>TotalReviews: 30</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P146</t>
+          <t>PRODUCTCODE: 14014P1</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Montserrat during a private tour with a driver. See the mountain, the symbol of Christianity in Catalonia. Taste delicious local snacks.</t>
+          <t>Summarized description: 6.5-hour tour to Montserrat from Barcelona. Explore theBasilica ofMontserrat, take the glass-top St. Joan funicular to the middle part of the mountain range. Hike past authentic "hermitages" (retreats)</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Private Day Trip to Montserrat with a Local from Barcelona</t>
+          <t>Title: Historical Montserrat Half-Day Hiking Tour from Barcelona</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>TotalReviews: 30</t>
+          <t>TotalReviews: 20</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Hiking', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7548P4</t>
+          <t>PRODUCTCODE: 3142GAUDI_P</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: 6.5-hour tour of Montserrat and Codorniu from Barcelona. Take an exciting train ride, tour the mountain area and taste cava (Spanish sparkling wine)</t>
+          <t>Summarized description: Montserrat is one of Barcelona's most iconic attractions. The modernist architecture of Antoni Gaudí is part of the Montserrat experience.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: The Montserrat and Codorniu Wine Cellars Tour in Barcelona</t>
+          <t>Title: Private Montserrat, Gaudi and Modernism Day Trip from Barcelona</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 28</t>
+          <t>TotalReviews: 20</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 14014P1</t>
+          <t>PRODUCTCODE: 6899MONTCAVES</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: 6.5-hour tour to Montserrat from Barcelona. Explore theBasilica ofMontserrat, take the glass-top St. Joan funicular to the middle part of the mountain range. Hike past authentic "hermitages" (retreats)</t>
+          <t>Summarized description: 8-hour tour from Barcelona to Montserrat Abbey with an expert guide. Learn about the monastery and explore the stalagmites inside the mountain.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: Historical Montserrat Half-Day Hiking Tour from Barcelona</t>
+          <t>Title: Montserrat Abbey and Caves Private Tour from Barcelona</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>TotalReviews: 20</t>
+          <t>TotalReviews: 19</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6899MONTCAVES</t>
+          <t>PRODUCTCODE: 25359P18</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: 8-hour tour from Barcelona to Montserrat Abbey with an expert guide. Learn about the monastery and explore the stalagmites inside the mountain.</t>
+          <t>Summarized description: Montserrat is a small island off the coast of Catalonia. Visitors can tour a monastery and a family-run cava winery. Enjoy a farm-to-table lunch and see the bottling process firsthand.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Montserrat Abbey and Caves Private Tour from Barcelona</t>
+          <t>Title: Montserrat and Cava Winery Full-Day Trip from Barcelona</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P453</t>
+          <t>PRODUCTCODE: 8648P16</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the beautiful medieval town of Girona, a town full of amazing views and fascinating history. Stroll through its narrow streets and explore local hotspots while you enjoy the charming atmosphere of this historical town.</t>
+          <t>Summarized description: Girona Figueres from Barcelona is an unmissable experience. The Dalí Museum is one of the most fascinating museums in the world.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Private Medieval Day Trip to Girona with a Local</t>
+          <t>Title: Day trip to Girona and Figueres with Dali Museum included from Barcelona</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 56823P22</t>
+          <t>PRODUCTCODE: 24380P453</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: Many of Game of Thrones key moments have been shot in Girona. Take a tour of the historic town to see some of the most famous sights in Spain.</t>
+          <t>Summarized description: Visit the beautiful medieval town of Girona, a town full of amazing views and fascinating history. Stroll through its narrow streets and explore local hotspots while you enjoy the charming atmosphere of this historical town.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: Girona Express with Game of Thrones Locations from Barcelona</t>
+          <t>Title: Private Medieval Day Trip to Girona with a Local</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8648P17</t>
+          <t>PRODUCTCODE: 56823P22</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: Girona is one of the oldest and most fascinating cities of Catalonia. You will have a free time to enjoy on your own this visit to Girona.</t>
+          <t>Summarized description: Many of Game of Thrones key moments have been shot in Girona. Take a tour of the historic town to see some of the most famous sights in Spain.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Day Trip to Girona with Walking Tour from Barcelona</t>
+          <t>Title: Girona Express with Game of Thrones Locations from Barcelona</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 10</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 16168P25</t>
+          <t>PRODUCTCODE: 8648P17</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is a place of pilgrimage from millions of people around the world. Enjoy the views and 45 minutes guided tour about Montserrat’s Basilica and Monastery.</t>
+          <t>Summarized description: Girona is one of the oldest and most fascinating cities of Catalonia. You will have a free time to enjoy on your own this visit to Girona.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Half-Day Private Tour of Montserrat from Barcelona</t>
+          <t>Title: Day Trip to Girona with Walking Tour from Barcelona</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P49</t>
+          <t>PRODUCTCODE: 8648P20</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Dive in the Catalan culture myths in a classic visit to the Magic Mountain of Montserrat. Spend one morning in the most mysterious and magical site of Catalonia to a unique natural monument.</t>
+          <t>Summarized description: Visit Montserrat is a unique wonder in Catalonia and in the world. Sant Joan Funicular Railway offers a unique experience with the best panoramic bird’s-eye views of the mountain and the Monastery.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: Half Day Montserrat Private Tour From Barcelona</t>
+          <t>Title: Half Day Tour to Montserrat with Cog-Wheel from Barcelona</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 161628P6</t>
+          <t>PRODUCTCODE: 16168P25</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Girona is one of the main filming locations for "Game of Thrones" Take a tour with a local guide-driver picking you up from your hotel in Barcelona. Enjoy the scenic route to Girona mountain range.</t>
+          <t>Summarized description: Montserrat is a place of pilgrimage from millions of people around the world. Enjoy the views and 45 minutes guided tour about Montserrat’s Basilica and Monastery.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: Private Day Trip From Barcelona to Girona</t>
+          <t>Title: Half-Day Private Tour of Montserrat from Barcelona</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8648P21</t>
+          <t>PRODUCTCODE: 9866P49</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Girona and Figueres are two jewels of Catalan heritage. Explore the old Roman settlement of Girona on a walking tour of the historic centre. Stroll through the best-preserved Jewish quarter in Europe.</t>
+          <t>Summarized description: Dive in the Catalan culture myths in a classic visit to the Magic Mountain of Montserrat. Spend one morning in the most mysterious and magical site of Catalonia to a unique natural monument.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Day trip to Girona and Figueres by bus from Barcelona</t>
+          <t>Title: Half Day Montserrat Private Tour From Barcelona</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P35</t>
+          <t>PRODUCTCODE: 161628P6</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Stroll through the historic streets of Girona, visit the charming village of Pals, and explore the Costa Brava. Discover the monumental city of Gerona on this amazing tour. Feel transported to the medieval ages while strolling around its Jewish quarter.</t>
+          <t>Summarized description: Girona is one of the main filming locations for "Game of Thrones" Take a tour with a local guide-driver picking you up from your hotel in Barcelona. Enjoy the scenic route to Girona mountain range.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: From Barcelona : Girona and Costa Brava Combo Tour (With Hotel Pickup) </t>
+          <t>Title: Private Day Trip From Barcelona to Girona</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P45</t>
+          <t>PRODUCTCODE: 8648P21</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the beauty of Catalonia in this amazing 1-day tour to Girona and the Costa Brava. Explore 2,000 years of history with your knowledgeable local guide. Step into the Catalonian town of Gerona.</t>
+          <t>Summarized description: Girona and Figueres are two jewels of Catalan heritage. Explore the old Roman settlement of Girona on a walking tour of the historic centre. Stroll through the best-preserved Jewish quarter in Europe.</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: From Barcelona : Girona and Costa Brava Day Trip (VIP Small Group)</t>
+          <t>Title: Day trip to Girona and Figueres by bus from Barcelona</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 112780P20</t>
+          <t>PRODUCTCODE: 239937P35</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is a unique mountain formation, which has no analogs in the whole world. Spoil yourself with a luxury Private day trip from Barcelona to Montserrat.</t>
+          <t>Summarized description: Stroll through the historic streets of Girona, visit the charming village of Pals, and explore the Costa Brava. Discover the monumental city of Gerona on this amazing tour. Feel transported to the medieval ages while strolling around its Jewish quarter.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>Title: Montserrat Private Day Trip with Pick Up from Barcelona</t>
+          <t xml:space="preserve">Title: From Barcelona : Girona and Costa Brava Combo Tour (With Hotel Pickup) </t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 126139P6</t>
+          <t>PRODUCTCODE: 239937P45</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is one of the most iconic places in Catalonia. Enjoy the comfort of our transportation and the personalized attention of our expert guides. An excursion not to be missed!</t>
+          <t>Summarized description: Explore the beauty of Catalonia in this amazing 1-day tour to Girona and the Costa Brava. Explore 2,000 years of history with your knowledgeable local guide. Step into the Catalonian town of Gerona.</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: Private Tour from Barcelona to Montserrat (with guide)</t>
+          <t>Title: From Barcelona : Girona and Costa Brava Day Trip (VIP Small Group)</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 419333P3</t>
+          <t>PRODUCTCODE: 112780P20</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: You can visit Montserrat, one of the most beautiful places in the world. It is home to one of Europe's oldest and most beautiful monasteries.</t>
+          <t>Summarized description: Montserrat is a unique mountain formation, which has no analogs in the whole world. Spoil yourself with a luxury Private day trip from Barcelona to Montserrat.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Montserrat Private Tour from Barcelona with Pick-up</t>
+          <t>Title: Montserrat Private Day Trip with Pick Up from Barcelona</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90894P56</t>
+          <t>PRODUCTCODE: 126139P6</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: World-famous for its rocky geography, Montserrat beautiful scenery was declared National Park in 1987 to protect its natural and cultural wealth. Famous for its peculiar morphology, its name comes from the Catalan words Mont (mountain) and Serrat (serrated)</t>
+          <t>Summarized description: Montserrat is one of the most iconic places in Catalonia. Enjoy the comfort of our transportation and the personalized attention of our expert guides. An excursion not to be missed!</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: Enjoy Montserrat Morning Tour - Barcelona</t>
+          <t>Title: Private Tour from Barcelona to Montserrat (with guide)</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 244199P39</t>
+          <t>PRODUCTCODE: 10123P20</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: Catalonia’s most emblematic mountain is just a few kilometers from Barcelona. Board the Railway Sant Joan to see the fascinating flora and fauna of the city. Take a soft walk through Montserrat Natural Park with the best professional guide.</t>
+          <t>Summarized description: The Benedict sanctuary of Montserrat, founded in 1025, is the mystical setting for the Virgin of Mont Serrat, the patron saint of Catalonia. In the afternoon, see the MontSerrat Mountains that rise majestically more than 4,000 feet above sea level.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: From Barcelona : Montserrat Monastery &amp; Natural Park Hike Half Day Tour</t>
+          <t>Title: Barcelona Highlights and Montserrat with Cogwheel Train Guided Day Tour</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Wildlife Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6899P7</t>
+          <t>PRODUCTCODE: 14218P11</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is home to the world-famous Magic Mountain. The Salnitre's Caverns are an underground galleries that traverse the mountain. Montserrat Abbey is the historical Sanctuary towering on top of the rocky fingers.</t>
+          <t>Summarized description: Private walking tour in Girona. Discover the Old Town and learn about some of the myths and legends related to the city. Stroll down la Rambla. Will you recognize the construction by Eiffel near the Onyar Houses?</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: Montserrat Abbey and the Salnitre's Caverns: Small Group Tour from Barcelona</t>
+          <t>Title: Private trip to the medieval city of Girona from Barcelona</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 17377P11</t>
+          <t>PRODUCTCODE: 419333P3</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Montserrat mountain, one of the most spectacular natural parks and spiritual spots in Catalonia. Head to a local restaurant to have a delicious three course meal. Then round out your day with a visit to a neighboring biodynamic winery.</t>
+          <t>Summarized description: You can visit Montserrat, one of the most beautiful places in the world. It is home to one of Europe's oldest and most beautiful monasteries.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: Full Day Guided Tour to Montserrat and Organic Winery from Barcelona</t>
+          <t>Title: Montserrat Private Tour from Barcelona with Pick-up</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17362,7 +17362,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 22869P143</t>
+          <t>PRODUCTCODE: 90894P56</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: The Montserrat Monastery is one of the most beautiful monasteries in the world. It was built in the 12th century and is located in the heart of Barcelona. The monastery was built on the site of a former castle.</t>
+          <t>Summarized description: World-famous for its rocky geography, Montserrat beautiful scenery was declared National Park in 1987 to protect its natural and cultural wealth. Famous for its peculiar morphology, its name comes from the Catalan words Mont (mountain) and Serrat (serrated)</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: Shore Excursion to Montserrat from Barcelona Harbour</t>
+          <t>Title: Enjoy Montserrat Morning Tour - Barcelona</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17437,7 +17437,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8647P115</t>
+          <t>PRODUCTCODE: 8647P223</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: You will be picked up in a private vehicle from your hotel and after a 1-hour drive approximately you will have reached Montserrat. You will visit the Moreneta, one of the two catalonian patron saints, together with Sant Jordi. Lunch is to be paid by you.</t>
+          <t>Summarized description: This 8-hour tour of Barcelona will cover the best and most important landmarks and main attractions of the city. Visit all locations at your time and pace. In the afternoon, complete your experience on a brief tour of Montserrat.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: Full Day Private Tour of Montserrat and Winery from Barcelona with pick up</t>
+          <t>Title: Private Full Day City Tour of Barcelona and Monastery of Montserrat w/ pick up</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5728P15</t>
+          <t>PRODUCTCODE: 244199P39</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is one of the most impressive mountains of Catalonia. Walk between the spectacular flora, impressive mountain formations while having amazing views. Learn everything about popular legends and great miracles of Montserrat.</t>
+          <t>Summarized description: Catalonia’s most emblematic mountain is just a few kilometers from Barcelona. Board the Railway Sant Joan to see the fascinating flora and fauna of the city. Take a soft walk through Montserrat Natural Park with the best professional guide.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: Private Montserrat Monastery and Natural Park Tour from Barcelona</t>
+          <t>Title: From Barcelona : Montserrat Monastery &amp; Natural Park Hike Half Day Tour</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17587,7 +17587,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wildlife Tours']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 394433P2</t>
+          <t>PRODUCTCODE: 100247P5</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: We will see the Abbey and the Black Virgin for free and without other tourists. We will visit an audiovisual and the Montserrat Museum, with works by Dalí, Picasso, Miró, etc.</t>
+          <t>Summarized description: Girona is a medieval town just a short train ride from Barcelona. Best known for its inclusion in Game of Thrones, it is home to the largest gothic nave for a cathedral in the world.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: Private tour to Montserrat from Barcelona</t>
+          <t>Title: Girona Day Trip</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24338P54</t>
+          <t>PRODUCTCODE: 6899P7</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat means "serrated mountain," which explains the particular shape of the rock formation. The mountain is home to the monastery dedicated to Our Lady of Montserrat, the favorite saint of the region.</t>
+          <t>Summarized description: Montserrat is home to the world-famous Magic Mountain. The Salnitre's Caverns are an underground galleries that traverse the mountain. Montserrat Abbey is the historical Sanctuary towering on top of the rocky fingers.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Title: Montserrat Day Trip from Barcelona</t>
+          <t>Title: Montserrat Abbey and the Salnitre's Caverns: Small Group Tour from Barcelona</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 207305P237</t>
+          <t>PRODUCTCODE: 17377P11</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is part of the pre-coastal range in the area, and is conveniently close to Barcelona. It is one of the best experiences to immerse yourself into the rich Spanish culture.</t>
+          <t>Summarized description: Explore Montserrat mountain, one of the most spectacular natural parks and spiritual spots in Catalonia. Head to a local restaurant to have a delicious three course meal. Then round out your day with a visit to a neighboring biodynamic winery.</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Title: Private Day Trip to Montserrat from Barcelona with a local</t>
+          <t>Title: Full Day Guided Tour to Montserrat and Organic Winery from Barcelona</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11498P133</t>
+          <t>PRODUCTCODE: 22869P143</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the church of Santa Maria de Montserrat where you see ‘La Moreneta’ and hear the children’s choir. Take a hike to an amazing viewpoint in the valley and try fabulous products at the street market.</t>
+          <t>Summarized description: The Montserrat Monastery is one of the most beautiful monasteries in the world. It was built in the 12th century and is located in the heart of Barcelona. The monastery was built on the site of a former castle.</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Title: Full-Day Tour from Barcelona to Montserrat with Private Guide - w/ Cable Car</t>
+          <t>Title: Shore Excursion to Montserrat from Barcelona Harbour</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17887,7 +17887,7 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P17</t>
+          <t>PRODUCTCODE: 8647P115</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: Ride the Saint Joan Funicular railway for panoramic views of the Pyrenees. Visit the medieval Benedictine monastery on Montserrat Mountain.</t>
+          <t>Summarized description: You will be picked up in a private vehicle from your hotel and after a 1-hour drive approximately you will have reached Montserrat. You will visit the Moreneta, one of the two catalonian patron saints, together with Sant Jordi. Lunch is to be paid by you.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>Title: Barcelona: Montserrat Tour with Cog Wheel Ticket</t>
+          <t>Title: Full Day Private Tour of Montserrat and Winery from Barcelona with pick up</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17962,7 +17962,7 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 121995P8</t>
+          <t>PRODUCTCODE: 5728P15</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: 8-hour tour includes visits to Montserrat abbey and Sagrada Familia Cathedral in Barcelona. Booking is essential to ensure the safety of your passengers.</t>
+          <t>Summarized description: Montserrat is one of the most impressive mountains of Catalonia. Walk between the spectacular flora, impressive mountain formations while having amazing views. Learn everything about popular legends and great miracles of Montserrat.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Title: Barcelona &amp; Montserrat Luxury Private Tour</t>
+          <t>Title: Private Montserrat Monastery and Natural Park Tour from Barcelona</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18037,7 +18037,7 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Hiking', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P15</t>
+          <t>PRODUCTCODE: 394433P2</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the wine making process on a tour of the castle vineyards and treasures room. Taste delicious Spanish wines and tapas at the 10th-century Oller del Mas castle.</t>
+          <t>Summarized description: We will see the Abbey and the Black Virgin for free and without other tourists. We will visit an audiovisual and the Montserrat Museum, with works by Dalí, Picasso, Miró, etc.</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Title: The Marvelous Montserrat Tour,(Tapas and Wine Half-Day Tour) from Barcelona</t>
+          <t>Title: Private tour to Montserrat from Barcelona</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18112,7 +18112,7 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Dining Experiences']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 88115P506</t>
+          <t>PRODUCTCODE: 24338P54</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Summarized description: Girona was used as the filming locations for King’s Landing and Braavos in Game of Thrones. Visit the awe-inspiring Cathedral and explore El Call, one of the best preserved Jewish Quarters in the world.</t>
+          <t>Summarized description: Montserrat means "serrated mountain," which explains the particular shape of the rock formation. The mountain is home to the monastery dedicated to Our Lady of Montserrat, the favorite saint of the region.</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Girona Guided Day Tour from Barcelona Game of Thrones City </t>
+          <t>Title: Montserrat Day Trip from Barcelona</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18187,7 +18187,7 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 264683P64</t>
+          <t>PRODUCTCODE: 207305P237</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is the most emblematic mountain of Catalonia. It is crowned by the Benedictine Monastery. The monastery was founded in the 10th century and is still in operation.</t>
+          <t>Summarized description: Montserrat is part of the pre-coastal range in the area, and is conveniently close to Barcelona. It is one of the best experiences to immerse yourself into the rich Spanish culture.</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Title: Montserrat Trekking Tour: Visit Monastery and Natural Park</t>
+          <t>Title: Private Day Trip to Montserrat from Barcelona with a local</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18262,7 +18262,7 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 22869P149</t>
+          <t>PRODUCTCODE: 11498P133</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Summarized description: The Santa Maria of Montserrat Abbey is one of Catalonia's most famous sites. The abbey was built in the 12th century and is located in the Catalan town of Monserrat.</t>
+          <t>Summarized description: Visit the church of Santa Maria de Montserrat where you see ‘La Moreneta’ and hear the children’s choir. Take a hike to an amazing viewpoint in the valley and try fabulous products at the street market.</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>Title: Morning Access to Montserrat Monastery from Barcelona - Group option</t>
+          <t>Title: Full-Day Tour from Barcelona to Montserrat with Private Guide - w/ Cable Car</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18352,7 +18352,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P49</t>
+          <t>PRODUCTCODE: 90219P17</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the wonders of one of the most fascinating cities in Catalonia from Barcelona. Walkthrough Girona’s winding medieval streets and its Jewish quarter. It has also been the filming location for some scenes in the 6th season of HBO's Game of Thrones.</t>
+          <t>Summarized description: Ride the Saint Joan Funicular railway for panoramic views of the Pyrenees. Visit the medieval Benedictine monastery on Montserrat Mountain.</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Montserrat &amp; Girona Especial : Game of Thrones Shooting Spot Tour </t>
+          <t>Title: Barcelona: Montserrat Tour with Cog Wheel Ticket</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18442,7 +18442,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P18</t>
+          <t>PRODUCTCODE: 121995P8</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Summarized description: Full-day trip to Girona and Montserrat Abbey from Barcelona. Enjoy the convenience of round-trip transportation from central Barcelona. Marvel at the distinctive shape of the MontSerrat Mountains.</t>
+          <t>Summarized description: 8-hour tour includes visits to Montserrat abbey and Sagrada Familia Cathedral in Barcelona. Booking is essential to ensure the safety of your passengers.</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr"/>
@@ -18472,7 +18472,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>Title: Premium Tour: Girona and Costa Brava Tour from Barcelona</t>
+          <t>Title: Barcelona &amp; Montserrat Luxury Private Tour</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 196771P19</t>
+          <t>PRODUCTCODE: 90219P15</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr"/>
@@ -18532,7 +18532,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is Catalonia’s most emblematic mountain which is topped by a Benedictine Monastery. Enjoy a train ride through Catalan landscape. Stop at a breathtaking viewpoint. Visit a local farmers market.</t>
+          <t>Summarized description: Learn about the wine making process on a tour of the castle vineyards and treasures room. Taste delicious Spanish wines and tapas at the 10th-century Oller del Mas castle.</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr"/>
@@ -18547,7 +18547,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: From Barcelona :Magical Montserrat Private Day Tour </t>
+          <t>Title: The Marvelous Montserrat Tour,(Tapas and Wine Half-Day Tour) from Barcelona</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18592,7 +18592,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P44</t>
+          <t>PRODUCTCODE: 88115P506</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr"/>
@@ -18607,7 +18607,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Summarized description: Cast your eyes over the streets of Barcelona from the top of Montjuic Hill. Walk, climb or be carried 4,000 feet to the breathtaking views from Monserrat Mountain. Find your inner calm at the famous Monastery of Montserrat.</t>
+          <t>Summarized description: Girona was used as the filming locations for King’s Landing and Braavos in Game of Thrones. Visit the awe-inspiring Cathedral and explore El Call, one of the best preserved Jewish Quarters in the world.</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr"/>
@@ -18622,7 +18622,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>Title: Premium Private Barcelona &amp; Montserrat Tour with Pick-up &amp; Drop-off</t>
+          <t xml:space="preserve">Title: Girona Guided Day Tour from Barcelona Game of Thrones City </t>
         </is>
       </c>
       <c r="B1209" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 139289P184</t>
+          <t>PRODUCTCODE: 264683P64</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is named for its cliff-shaped silhouette that resembles a serrated blade. It is a unique place with a monastery on top of the mountain. The Benedictine monastery has been the patron saint of Catalonia.</t>
+          <t>Summarized description: Montserrat is the most emblematic mountain of Catalonia. It is crowned by the Benedictine Monastery. The monastery was founded in the 10th century and is still in operation.</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>Title: Montserrat: Guided Tour from Barcelona</t>
+          <t>Title: Montserrat Trekking Tour: Visit Monastery and Natural Park</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18727,7 +18727,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr"/>
@@ -18742,7 +18742,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 350808P2696</t>
+          <t>PRODUCTCODE: 22869P149</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr"/>
@@ -18757,7 +18757,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Summarized description: Private Excursion tailored exclusively for you! Embark on a serene journey through the picturesque landscapes of Spain. Discover the awe-inspiring allure of Passeig de Gracia and capture iconic moments at landmarks.</t>
+          <t>Summarized description: The Santa Maria of Montserrat Abbey is one of Catalonia's most famous sites. The abbey was built in the 12th century and is located in the Catalan town of Monserrat.</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>Title: Private Tour of Montserrat from Barcelona</t>
+          <t>Title: Morning Access to Montserrat Monastery from Barcelona - Group option</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr"/>
@@ -18802,7 +18802,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr"/>
@@ -18817,7 +18817,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 244199P34</t>
+          <t>PRODUCTCODE: 18282P10</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Summarized description: Take a trip to the picturesque Monastery, and see one of Europe's oldest children's chores, the Black Madonna. Explore the Holy Cave of Montserrat, and meet a guide who will tell you about rooted cultural myths.</t>
+          <t>Summarized description: Enjoy a private, ten-hour tour of Girona with an English-speaking guide. Travel in luxury by an air-conditioned, Mercedes van. Visit surrounding medieval towns of Pals and Peratallada.</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr"/>
@@ -18847,7 +18847,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>Title: Montserrat : Morning or Afternoon Half-Day Trip with Pickup From Barcelona</t>
+          <t>Title: Girona City and County Guided Private Day Trip From Barcelona</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr"/>
@@ -18877,7 +18877,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr"/>
@@ -18892,7 +18892,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 406570P36</t>
+          <t>PRODUCTCODE: 239937P49</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is a multi-peaked mountain range near Barcelona, in Catalonia. It is well known as the site of the Benedictine abbey, Santa Maria de Montserrat. The Benedictine Santa Maria monastery is over 1,000 years old.</t>
+          <t>Summarized description: Discover the wonders of one of the most fascinating cities in Catalonia from Barcelona. Walkthrough Girona’s winding medieval streets and its Jewish quarter. It has also been the filming location for some scenes in the 6th season of HBO's Game of Thrones.</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>Title: Private Morning tour Montserrat Monastery from Barcelona</t>
+          <t xml:space="preserve">Title: Montserrat &amp; Girona Especial : Game of Thrones Shooting Spot Tour </t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -18967,7 +18967,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 247293P9</t>
+          <t>PRODUCTCODE: 196771P19</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Summarized description: This trip includes a guided walking tour to Girona. Free admission for infants under 3 years old. Discount tickets for children 4-12 years old (requires passport)</t>
+          <t>Summarized description: Montserrat is Catalonia’s most emblematic mountain which is topped by a Benedictine Monastery. Enjoy a train ride through Catalan landscape. Stop at a breathtaking viewpoint. Visit a local farmers market.</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>Title: Girona Half Day Guided Tour from Barcelona</t>
+          <t xml:space="preserve">Title: From Barcelona :Magical Montserrat Private Day Tour </t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr"/>
@@ -19042,7 +19042,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 26586P9</t>
+          <t>PRODUCTCODE: 7676P14</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr"/>
@@ -19057,7 +19057,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Summarized description: Girona and Costa Brava are some of Spain's most unique small towns. Discover the area's history and traditions from a driver and guide. Roundtrip transportation from Barcelona is provided.</t>
+          <t>Summarized description: Guided tour to Montserrat and a sailing adventure on Barcelona's coast. Tour includes visit to the Royal Basilica of Montser rat and the Black Madonna of Verge Moreneta.</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>Title: Girona and Costa Brava Day Tour with Driver Guide</t>
+          <t xml:space="preserve">Title: Montserrat Small Group Tour &amp; Sailing Experience from Barcelona </t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -19102,7 +19102,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Water Sports', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr"/>
@@ -19117,7 +19117,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 196771P78</t>
+          <t>PRODUCTCODE: 90219P44</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the beauty of Catalonia on a 1-day tour to Girona and the Costa Brava. Visit the impressive Arab Baths and take a dip in the inviting Mediterranean waters.</t>
+          <t>Summarized description: Cast your eyes over the streets of Barcelona from the top of Montjuic Hill. Walk, climb or be carried 4,000 feet to the breathtaking views from Monserrat Mountain. Find your inner calm at the famous Monastery of Montserrat.</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr"/>
@@ -19147,7 +19147,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>Title: Girona and Costa Brava Exclusive : From Barcelona (Small Group)</t>
+          <t>Title: Premium Private Barcelona &amp; Montserrat Tour with Pick-up &amp; Drop-off</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr"/>
@@ -19177,7 +19177,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Eco-Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr"/>
@@ -19192,7 +19192,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239137P5</t>
+          <t>PRODUCTCODE: 139289P184</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr"/>
@@ -19207,7 +19207,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Summarized description: Escape Barcelona's city life and enjoy a private day trip to Montserrat. Visit the local farmers ' market, find out about the monastery stories and enjoy the magical mountain atmosphere.</t>
+          <t>Summarized description: Montserrat is named for its cliff-shaped silhouette that resembles a serrated blade. It is a unique place with a monastery on top of the mountain. The Benedictine monastery has been the patron saint of Catalonia.</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>Title: From Barcelona :Magical Montserrat Private Day Tour</t>
+          <t>Title: Montserrat: Guided Tour from Barcelona</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P88</t>
+          <t>PRODUCTCODE: 350808P2696</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the basilica where the Virgin Santa Maria of Montserrat, Patron Saint of Catalonia, is located. Enjoy astonishing views of the natural park near Barcelona. Admire the famous 'Black Madonna' in the monastery basilica.</t>
+          <t>Summarized description: Private Excursion tailored exclusively for you! Embark on a serene journey through the picturesque landscapes of Spain. Discover the awe-inspiring allure of Passeig de Gracia and capture iconic moments at landmarks.</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title:  Montserrat Mountains Half - Day Private Tour - From Barcelona </t>
+          <t>Title: Private Tour of Montserrat from Barcelona</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr"/>
@@ -19342,7 +19342,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6899P11</t>
+          <t>PRODUCTCODE: 244199P34</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the natural splendor of Spain’s captivating countryside and the magnificent Montserrat Abbey on a private full-day shore excursion. Accompanied by an accomplished private guide, explore two iconic destinations.</t>
+          <t>Summarized description: Take a trip to the picturesque Monastery, and see one of Europe's oldest children's chores, the Black Madonna. Explore the Holy Cave of Montserrat, and meet a guide who will tell you about rooted cultural myths.</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>Title: Shore Excursion: Montserrat Abbey and Salnitre Caverns from Barcelona</t>
+          <t>Title: Montserrat : Morning or Afternoon Half-Day Trip with Pickup From Barcelona</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>
@@ -19417,7 +19417,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 332541P596</t>
+          <t>PRODUCTCODE: 406570P36</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr"/>
@@ -19432,7 +19432,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is one of the most popular destinations for a day trip from Barcelona. Travel from Barcelona in a private car with a licensed guide. Enjoy an unforgettable wine tasting at a local winery.</t>
+          <t>Summarized description: Montserrat is a multi-peaked mountain range near Barcelona, in Catalonia. It is well known as the site of the Benedictine abbey, Santa Maria de Montserrat. The Benedictine Santa Maria monastery is over 1,000 years old.</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr"/>
@@ -19447,7 +19447,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>Title: Montserrat Wine Tasting Tour from Barcelona Day Trip by Car</t>
+          <t>Title: Private Morning tour Montserrat Monastery from Barcelona</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr"/>
@@ -19477,7 +19477,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5716P6</t>
+          <t>PRODUCTCODE: 11498P225</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr"/>
@@ -19507,7 +19507,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>Summarized description: Tour the Montserrat Monastery and a boutique winery. Tour the gorgeous vineyards and head to the wine cellar to learn about wine production. Taste three exquisite wines and a local tapas lunch.</t>
+          <t>Summarized description: One-day Montserrat Tour with a multi-course lunch and gourmet wine tasting should definitely be among your options. Get a marvelous countryside trip from Barcelona and revel in stunning views of Catalan wineries and historical landmarks dating back to 11th century.</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>Title: Montserrat Half-Day Tour with Tapas and Gourmet Wines from Barcelona - Group</t>
+          <t>Title: Full-Day Montserrat Tour from Barcelona with Wine &amp; Catalan Meal</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr"/>
@@ -19552,7 +19552,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr"/>
@@ -19567,7 +19567,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 145071P100</t>
+          <t>PRODUCTCODE: 419333P17</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr"/>
@@ -19582,7 +19582,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>Summarized description: Transport by comfortable air-conditioned minivan. Illuminating commentary from your expert guide. Cordoniu winery's vast cellars and wine tasting. Montserrat Monastery's basilica.</t>
+          <t>Summarized description: Montserrat is one of the most beautiful places in the world. It is home to the famous Montserrat Abbey, built in the 12th century. It's also the site of the world's oldest choir.</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr"/>
@@ -19597,7 +19597,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>Title: Montserrat and Cava Trail Day Trip from Barcelona</t>
+          <t>Title: Private Tour from Barcelona to Monserrat</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr"/>
@@ -19627,7 +19627,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr"/>
@@ -19642,7 +19642,7 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 207305P229</t>
+          <t>PRODUCTCODE: 239937P7</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Summarized description: Girona is one of the best places in Spain to immerse yourself into the rich Spanish culture. The ancient town of Girona has a stunning cathedral, Benedectine monastery, Arab baths, and a Jewish museum.</t>
+          <t>Summarized description: Take in the mountain views, visit the famous monastery and head to a local farmhouse for a delicious dinner. Enjoy a fully-immersive experience with a guided visit to the Monastery of Montserrat.</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr"/>
@@ -19672,7 +19672,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>Title: Private Day Trip to Girona from Barcelona with a local</t>
+          <t>Title: Barcelona Premium Tour : Montserrat Visit with Lunch</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr"/>
@@ -19702,7 +19702,7 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr"/>
@@ -19717,7 +19717,7 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P16</t>
+          <t>PRODUCTCODE: 239137P5</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr"/>
@@ -19732,7 +19732,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is Catalonia’s most emblematic mountain. Topped by a Benedictine Monastery, it is an ideal half-day trip to spend a day in nature.</t>
+          <t>Summarized description: Escape Barcelona's city life and enjoy a private day trip to Montserrat. Visit the local farmers ' market, find out about the monastery stories and enjoy the magical mountain atmosphere.</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr"/>
@@ -19747,7 +19747,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>Title: Barcelona: Montserrat Monastery &amp; Natural Park Hike</t>
+          <t>Title: From Barcelona :Magical Montserrat Private Day Tour</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr"/>
@@ -19777,7 +19777,7 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 303267P2</t>
+          <t>PRODUCTCODE: 239937P88</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr"/>
@@ -19807,7 +19807,7 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>Summarized description: We will travel to Montserrat to see and taste some of the best wines in the world. We will also visit the famous Black Madonna, where we will hear the story of how she came to be.</t>
+          <t>Summarized description: Visit the basilica where the Virgin Santa Maria of Montserrat, Patron Saint of Catalonia, is located. Enjoy astonishing views of the natural park near Barcelona. Admire the famous 'Black Madonna' in the monastery basilica.</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>Title: Full-day tour to Montserrat mountain and a visit to a winery from Barcelona</t>
+          <t xml:space="preserve">Title:  Montserrat Mountains Half - Day Private Tour - From Barcelona </t>
         </is>
       </c>
       <c r="B1289" t="inlineStr"/>
@@ -19852,7 +19852,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr"/>
@@ -19867,7 +19867,7 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 26586P15</t>
+          <t>PRODUCTCODE: 6899P11</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr"/>
@@ -19882,7 +19882,7 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>Summarized description: Spin through Barcelona by air-conditioned minivan with a private driver-guide. Admire Art Nouveau buildings such as La Pedrera and Casa Batlló and the Gothic Quarter. Visit the Benedictine Santa Maria de Montserrat Abbey.</t>
+          <t>Summarized description: Discover the natural splendor of Spain’s captivating countryside and the magnificent Montserrat Abbey on a private full-day shore excursion. Accompanied by an accomplished private guide, explore two iconic destinations.</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr"/>
@@ -19897,7 +19897,7 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>Title: Barcelona And Montserrat Full Day Tour</t>
+          <t>Title: Shore Excursion: Montserrat Abbey and Salnitre Caverns from Barcelona</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr"/>
@@ -19927,7 +19927,7 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr"/>
@@ -19942,7 +19942,7 @@
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 369086P1</t>
+          <t>PRODUCTCODE: 332541P596</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr"/>
@@ -19957,7 +19957,7 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is one of Catalonia's most famous mountain ranges. Visit the Benedictine Abbey and the sanctuary of the Virgin of Montserrat. Return to Barcelona with the same minibus.</t>
+          <t>Summarized description: Montserrat is one of the most popular destinations for a day trip from Barcelona. Travel from Barcelona in a private car with a licensed guide. Enjoy an unforgettable wine tasting at a local winery.</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr"/>
@@ -19972,7 +19972,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>Title: Half-Day Private Tour Visiting Montserrat in Barcelona</t>
+          <t>Title: Montserrat Wine Tasting Tour from Barcelona Day Trip by Car</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr"/>
@@ -20002,7 +20002,7 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Culinary Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr"/>
@@ -20017,7 +20017,7 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 320547P140</t>
+          <t>PRODUCTCODE: 5716P6</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr"/>
@@ -20032,7 +20032,7 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>Summarized description: We take you for a private sightseeing tour exclusively for you and your family. Montserrat is an impressive mountain range with an important mountaintop monastery around 30km as the crow flies.</t>
+          <t>Summarized description: Tour the Montserrat Monastery and a boutique winery. Tour the gorgeous vineyards and head to the wine cellar to learn about wine production. Taste three exquisite wines and a local tapas lunch.</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr"/>
@@ -20047,7 +20047,7 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>Title: Private 9 Hour Barcelona Sightseeing &amp; Montserrat Tour</t>
+          <t>Title: Montserrat Half-Day Tour with Tapas and Gourmet Wines from Barcelona - Group</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr"/>
@@ -20077,7 +20077,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr"/>
@@ -20092,7 +20092,7 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 424606P4</t>
+          <t>PRODUCTCODE: 145071P100</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr"/>
@@ -20107,7 +20107,7 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>Summarized description: The Catalan people say the magical mountain of Montserrat and they say this for some reasons. This is an experience about spirituality, religiosity, nature, music, history, friendship!</t>
+          <t>Summarized description: Transport by comfortable air-conditioned minivan. Illuminating commentary from your expert guide. Cordoniu winery's vast cellars and wine tasting. Montserrat Monastery's basilica.</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr"/>
@@ -20122,7 +20122,7 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>Title: Guided Montserrat Mountain Tour from Barcelona by Train</t>
+          <t>Title: Montserrat and Cava Trail Day Trip from Barcelona</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr"/>
@@ -20167,7 +20167,7 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 255730P230</t>
+          <t>PRODUCTCODE: 207305P229</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr"/>
@@ -20182,7 +20182,7 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>Summarized description: The Santa Maria Montserrat Monastery was built in the 11th century on the site of a Hermitage established in 888 A.D. With its imposing sand-coloured facade, it looks like it was dramatically carved out of the mountain - as though the monastery and mountain were one. Visit the museum bringing together the work of some of the most famous Spanish painters including El Greco, Picasso, and Dalí.</t>
+          <t>Summarized description: Girona is one of the best places in Spain to immerse yourself into the rich Spanish culture. The ancient town of Girona has a stunning cathedral, Benedectine monastery, Arab baths, and a Jewish museum.</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr"/>
@@ -20197,7 +20197,7 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>Title: Visit Montserrat: Private Day Trip from Barcelona</t>
+          <t>Title: Private Day Trip to Girona from Barcelona with a local</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr"/>
@@ -20227,7 +20227,7 @@
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr"/>
@@ -20242,7 +20242,7 @@
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2904BCNMONTHIKE</t>
+          <t>PRODUCTCODE: 32771P7</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr"/>
@@ -20257,7 +20257,7 @@
     <row r="1318">
       <c r="A1318" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is one of the most emblematic sights of Catalonia. Visit the world famous Montserrat Monastery and Basilica. Numbers are limited to a maximum of 8 people on this small group hiking tour.</t>
+          <t>Summarized description: Private tour includes a visit around Girona and the winery of Perelada. You will be able to customize your own route with your personal guide. There you will have the chance to admire a privileged landscape.</t>
         </is>
       </c>
       <c r="B1318" t="inlineStr"/>
@@ -20272,7 +20272,7 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>Title: Small-Group Montserrat Hiking Tour from Barcelona</t>
+          <t>Title: Girona and Wineries of Perelada Private Tour from Barcelona</t>
         </is>
       </c>
       <c r="B1319" t="inlineStr"/>
@@ -20302,7 +20302,7 @@
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Historical Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'City Tours']</t>
         </is>
       </c>
       <c r="B1321" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
     <row r="1322">
       <c r="A1322" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>PRODUCTCODE: 24780P22</t>
         </is>
       </c>
       <c r="B1322" t="inlineStr"/>
@@ -20329,6 +20329,456 @@
       <c r="H1322" t="inlineStr"/>
       <c r="I1322" t="inlineStr"/>
     </row>
+    <row r="1323">
+      <c r="A1323" t="inlineStr">
+        <is>
+          <t>Summarized description: Discover Girona, its Cathedral and narrow medieval streets, as well as Figueres, birthplace of the painter Salvador Dalí. Enjoy a private visit from a comfortable and luxurious high-end Mercedes vehicle.</t>
+        </is>
+      </c>
+      <c r="B1323" t="inlineStr"/>
+      <c r="C1323" t="inlineStr"/>
+      <c r="D1323" t="inlineStr"/>
+      <c r="E1323" t="inlineStr"/>
+      <c r="F1323" t="inlineStr"/>
+      <c r="G1323" t="inlineStr"/>
+      <c r="H1323" t="inlineStr"/>
+      <c r="I1323" t="inlineStr"/>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="inlineStr">
+        <is>
+          <t>Title: Full Day in Girona and Figueres from Barcelona</t>
+        </is>
+      </c>
+      <c r="B1324" t="inlineStr"/>
+      <c r="C1324" t="inlineStr"/>
+      <c r="D1324" t="inlineStr"/>
+      <c r="E1324" t="inlineStr"/>
+      <c r="F1324" t="inlineStr"/>
+      <c r="G1324" t="inlineStr"/>
+      <c r="H1324" t="inlineStr"/>
+      <c r="I1324" t="inlineStr"/>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1325" t="inlineStr"/>
+      <c r="C1325" t="inlineStr"/>
+      <c r="D1325" t="inlineStr"/>
+      <c r="E1325" t="inlineStr"/>
+      <c r="F1325" t="inlineStr"/>
+      <c r="G1325" t="inlineStr"/>
+      <c r="H1325" t="inlineStr"/>
+      <c r="I1325" t="inlineStr"/>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="inlineStr">
+        <is>
+          <t>Category: ['Museums', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1326" t="inlineStr"/>
+      <c r="C1326" t="inlineStr"/>
+      <c r="D1326" t="inlineStr"/>
+      <c r="E1326" t="inlineStr"/>
+      <c r="F1326" t="inlineStr"/>
+      <c r="G1326" t="inlineStr"/>
+      <c r="H1326" t="inlineStr"/>
+      <c r="I1326" t="inlineStr"/>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 26586P15</t>
+        </is>
+      </c>
+      <c r="B1327" t="inlineStr"/>
+      <c r="C1327" t="inlineStr"/>
+      <c r="D1327" t="inlineStr"/>
+      <c r="E1327" t="inlineStr"/>
+      <c r="F1327" t="inlineStr"/>
+      <c r="G1327" t="inlineStr"/>
+      <c r="H1327" t="inlineStr"/>
+      <c r="I1327" t="inlineStr"/>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="inlineStr">
+        <is>
+          <t>Summarized description: Spin through Barcelona by air-conditioned minivan with a private driver-guide. Admire Art Nouveau buildings such as La Pedrera and Casa Batlló and the Gothic Quarter. Visit the Benedictine Santa Maria de Montserrat Abbey.</t>
+        </is>
+      </c>
+      <c r="B1328" t="inlineStr"/>
+      <c r="C1328" t="inlineStr"/>
+      <c r="D1328" t="inlineStr"/>
+      <c r="E1328" t="inlineStr"/>
+      <c r="F1328" t="inlineStr"/>
+      <c r="G1328" t="inlineStr"/>
+      <c r="H1328" t="inlineStr"/>
+      <c r="I1328" t="inlineStr"/>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="inlineStr">
+        <is>
+          <t>Title: Barcelona And Montserrat Full Day Tour</t>
+        </is>
+      </c>
+      <c r="B1329" t="inlineStr"/>
+      <c r="C1329" t="inlineStr"/>
+      <c r="D1329" t="inlineStr"/>
+      <c r="E1329" t="inlineStr"/>
+      <c r="F1329" t="inlineStr"/>
+      <c r="G1329" t="inlineStr"/>
+      <c r="H1329" t="inlineStr"/>
+      <c r="I1329" t="inlineStr"/>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1330" t="inlineStr"/>
+      <c r="C1330" t="inlineStr"/>
+      <c r="D1330" t="inlineStr"/>
+      <c r="E1330" t="inlineStr"/>
+      <c r="F1330" t="inlineStr"/>
+      <c r="G1330" t="inlineStr"/>
+      <c r="H1330" t="inlineStr"/>
+      <c r="I1330" t="inlineStr"/>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1331" t="inlineStr"/>
+      <c r="C1331" t="inlineStr"/>
+      <c r="D1331" t="inlineStr"/>
+      <c r="E1331" t="inlineStr"/>
+      <c r="F1331" t="inlineStr"/>
+      <c r="G1331" t="inlineStr"/>
+      <c r="H1331" t="inlineStr"/>
+      <c r="I1331" t="inlineStr"/>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 369086P1</t>
+        </is>
+      </c>
+      <c r="B1332" t="inlineStr"/>
+      <c r="C1332" t="inlineStr"/>
+      <c r="D1332" t="inlineStr"/>
+      <c r="E1332" t="inlineStr"/>
+      <c r="F1332" t="inlineStr"/>
+      <c r="G1332" t="inlineStr"/>
+      <c r="H1332" t="inlineStr"/>
+      <c r="I1332" t="inlineStr"/>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="inlineStr">
+        <is>
+          <t>Summarized description: Montserrat is one of Catalonia's most famous mountain ranges. Visit the Benedictine Abbey and the sanctuary of the Virgin of Montserrat. Return to Barcelona with the same minibus.</t>
+        </is>
+      </c>
+      <c r="B1333" t="inlineStr"/>
+      <c r="C1333" t="inlineStr"/>
+      <c r="D1333" t="inlineStr"/>
+      <c r="E1333" t="inlineStr"/>
+      <c r="F1333" t="inlineStr"/>
+      <c r="G1333" t="inlineStr"/>
+      <c r="H1333" t="inlineStr"/>
+      <c r="I1333" t="inlineStr"/>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
+          <t>Title: Half-Day Private Tour Visiting Montserrat in Barcelona</t>
+        </is>
+      </c>
+      <c r="B1334" t="inlineStr"/>
+      <c r="C1334" t="inlineStr"/>
+      <c r="D1334" t="inlineStr"/>
+      <c r="E1334" t="inlineStr"/>
+      <c r="F1334" t="inlineStr"/>
+      <c r="G1334" t="inlineStr"/>
+      <c r="H1334" t="inlineStr"/>
+      <c r="I1334" t="inlineStr"/>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1335" t="inlineStr"/>
+      <c r="C1335" t="inlineStr"/>
+      <c r="D1335" t="inlineStr"/>
+      <c r="E1335" t="inlineStr"/>
+      <c r="F1335" t="inlineStr"/>
+      <c r="G1335" t="inlineStr"/>
+      <c r="H1335" t="inlineStr"/>
+      <c r="I1335" t="inlineStr"/>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
+        <is>
+          <t>Category: ['Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1336" t="inlineStr"/>
+      <c r="C1336" t="inlineStr"/>
+      <c r="D1336" t="inlineStr"/>
+      <c r="E1336" t="inlineStr"/>
+      <c r="F1336" t="inlineStr"/>
+      <c r="G1336" t="inlineStr"/>
+      <c r="H1336" t="inlineStr"/>
+      <c r="I1336" t="inlineStr"/>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 320547P140</t>
+        </is>
+      </c>
+      <c r="B1337" t="inlineStr"/>
+      <c r="C1337" t="inlineStr"/>
+      <c r="D1337" t="inlineStr"/>
+      <c r="E1337" t="inlineStr"/>
+      <c r="F1337" t="inlineStr"/>
+      <c r="G1337" t="inlineStr"/>
+      <c r="H1337" t="inlineStr"/>
+      <c r="I1337" t="inlineStr"/>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="inlineStr">
+        <is>
+          <t>Summarized description: We take you for a private sightseeing tour exclusively for you and your family. Montserrat is an impressive mountain range with an important mountaintop monastery around 30km as the crow flies.</t>
+        </is>
+      </c>
+      <c r="B1338" t="inlineStr"/>
+      <c r="C1338" t="inlineStr"/>
+      <c r="D1338" t="inlineStr"/>
+      <c r="E1338" t="inlineStr"/>
+      <c r="F1338" t="inlineStr"/>
+      <c r="G1338" t="inlineStr"/>
+      <c r="H1338" t="inlineStr"/>
+      <c r="I1338" t="inlineStr"/>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
+        <is>
+          <t>Title: Private 9 Hour Barcelona Sightseeing &amp; Montserrat Tour</t>
+        </is>
+      </c>
+      <c r="B1339" t="inlineStr"/>
+      <c r="C1339" t="inlineStr"/>
+      <c r="D1339" t="inlineStr"/>
+      <c r="E1339" t="inlineStr"/>
+      <c r="F1339" t="inlineStr"/>
+      <c r="G1339" t="inlineStr"/>
+      <c r="H1339" t="inlineStr"/>
+      <c r="I1339" t="inlineStr"/>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1340" t="inlineStr"/>
+      <c r="C1340" t="inlineStr"/>
+      <c r="D1340" t="inlineStr"/>
+      <c r="E1340" t="inlineStr"/>
+      <c r="F1340" t="inlineStr"/>
+      <c r="G1340" t="inlineStr"/>
+      <c r="H1340" t="inlineStr"/>
+      <c r="I1340" t="inlineStr"/>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1341" t="inlineStr"/>
+      <c r="C1341" t="inlineStr"/>
+      <c r="D1341" t="inlineStr"/>
+      <c r="E1341" t="inlineStr"/>
+      <c r="F1341" t="inlineStr"/>
+      <c r="G1341" t="inlineStr"/>
+      <c r="H1341" t="inlineStr"/>
+      <c r="I1341" t="inlineStr"/>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 424606P4</t>
+        </is>
+      </c>
+      <c r="B1342" t="inlineStr"/>
+      <c r="C1342" t="inlineStr"/>
+      <c r="D1342" t="inlineStr"/>
+      <c r="E1342" t="inlineStr"/>
+      <c r="F1342" t="inlineStr"/>
+      <c r="G1342" t="inlineStr"/>
+      <c r="H1342" t="inlineStr"/>
+      <c r="I1342" t="inlineStr"/>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="inlineStr">
+        <is>
+          <t>Summarized description: The Catalan people say the magical mountain of Montserrat and they say this for some reasons. This is an experience about spirituality, religiosity, nature, music, history, friendship!</t>
+        </is>
+      </c>
+      <c r="B1343" t="inlineStr"/>
+      <c r="C1343" t="inlineStr"/>
+      <c r="D1343" t="inlineStr"/>
+      <c r="E1343" t="inlineStr"/>
+      <c r="F1343" t="inlineStr"/>
+      <c r="G1343" t="inlineStr"/>
+      <c r="H1343" t="inlineStr"/>
+      <c r="I1343" t="inlineStr"/>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="inlineStr">
+        <is>
+          <t>Title: Guided Montserrat Mountain Tour from Barcelona by Train</t>
+        </is>
+      </c>
+      <c r="B1344" t="inlineStr"/>
+      <c r="C1344" t="inlineStr"/>
+      <c r="D1344" t="inlineStr"/>
+      <c r="E1344" t="inlineStr"/>
+      <c r="F1344" t="inlineStr"/>
+      <c r="G1344" t="inlineStr"/>
+      <c r="H1344" t="inlineStr"/>
+      <c r="I1344" t="inlineStr"/>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1345" t="inlineStr"/>
+      <c r="C1345" t="inlineStr"/>
+      <c r="D1345" t="inlineStr"/>
+      <c r="E1345" t="inlineStr"/>
+      <c r="F1345" t="inlineStr"/>
+      <c r="G1345" t="inlineStr"/>
+      <c r="H1345" t="inlineStr"/>
+      <c r="I1345" t="inlineStr"/>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="inlineStr">
+        <is>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1346" t="inlineStr"/>
+      <c r="C1346" t="inlineStr"/>
+      <c r="D1346" t="inlineStr"/>
+      <c r="E1346" t="inlineStr"/>
+      <c r="F1346" t="inlineStr"/>
+      <c r="G1346" t="inlineStr"/>
+      <c r="H1346" t="inlineStr"/>
+      <c r="I1346" t="inlineStr"/>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 255730P230</t>
+        </is>
+      </c>
+      <c r="B1347" t="inlineStr"/>
+      <c r="C1347" t="inlineStr"/>
+      <c r="D1347" t="inlineStr"/>
+      <c r="E1347" t="inlineStr"/>
+      <c r="F1347" t="inlineStr"/>
+      <c r="G1347" t="inlineStr"/>
+      <c r="H1347" t="inlineStr"/>
+      <c r="I1347" t="inlineStr"/>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="inlineStr">
+        <is>
+          <t>Summarized description: The Santa Maria Montserrat Monastery was built in the 11th century on the site of a Hermitage established in 888 A.D. With its imposing sand-coloured facade, it looks like it was dramatically carved out of the mountain - as though the monastery and mountain were one. Visit the museum bringing together the work of some of the most famous Spanish painters including El Greco, Picasso, and Dalí.</t>
+        </is>
+      </c>
+      <c r="B1348" t="inlineStr"/>
+      <c r="C1348" t="inlineStr"/>
+      <c r="D1348" t="inlineStr"/>
+      <c r="E1348" t="inlineStr"/>
+      <c r="F1348" t="inlineStr"/>
+      <c r="G1348" t="inlineStr"/>
+      <c r="H1348" t="inlineStr"/>
+      <c r="I1348" t="inlineStr"/>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="inlineStr">
+        <is>
+          <t>Title: Visit Montserrat: Private Day Trip from Barcelona</t>
+        </is>
+      </c>
+      <c r="B1349" t="inlineStr"/>
+      <c r="C1349" t="inlineStr"/>
+      <c r="D1349" t="inlineStr"/>
+      <c r="E1349" t="inlineStr"/>
+      <c r="F1349" t="inlineStr"/>
+      <c r="G1349" t="inlineStr"/>
+      <c r="H1349" t="inlineStr"/>
+      <c r="I1349" t="inlineStr"/>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1350" t="inlineStr"/>
+      <c r="C1350" t="inlineStr"/>
+      <c r="D1350" t="inlineStr"/>
+      <c r="E1350" t="inlineStr"/>
+      <c r="F1350" t="inlineStr"/>
+      <c r="G1350" t="inlineStr"/>
+      <c r="H1350" t="inlineStr"/>
+      <c r="I1350" t="inlineStr"/>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="inlineStr">
+        <is>
+          <t>Category: ['Museums', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1351" t="inlineStr"/>
+      <c r="C1351" t="inlineStr"/>
+      <c r="D1351" t="inlineStr"/>
+      <c r="E1351" t="inlineStr"/>
+      <c r="F1351" t="inlineStr"/>
+      <c r="G1351" t="inlineStr"/>
+      <c r="H1351" t="inlineStr"/>
+      <c r="I1351" t="inlineStr"/>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="B1352" t="inlineStr"/>
+      <c r="C1352" t="inlineStr"/>
+      <c r="D1352" t="inlineStr"/>
+      <c r="E1352" t="inlineStr"/>
+      <c r="F1352" t="inlineStr"/>
+      <c r="G1352" t="inlineStr"/>
+      <c r="H1352" t="inlineStr"/>
+      <c r="I1352" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/2140P187.xlsx
+++ b/experiment_results/2140P187.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1352"/>
+  <dimension ref="A1:I1317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -590,7 +590,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -696,7 +696,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Eco-Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -921,7 +921,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
@@ -1071,7 +1071,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Historical Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1146,7 +1146,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Hiking', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B74" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B79" t="inlineStr"/>
@@ -1821,7 +1821,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B89" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -2046,7 +2046,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B104" t="inlineStr"/>
@@ -2121,7 +2121,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B109" t="inlineStr"/>
@@ -2271,7 +2271,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
@@ -2346,7 +2346,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
@@ -2496,7 +2496,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B134" t="inlineStr"/>
@@ -2571,7 +2571,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Historical Tours', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B139" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B144" t="inlineStr"/>
@@ -2796,7 +2796,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B154" t="inlineStr"/>
@@ -2946,7 +2946,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B164" t="inlineStr"/>
@@ -3096,7 +3096,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B174" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B179" t="inlineStr"/>
@@ -3321,7 +3321,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -3396,7 +3396,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B194" t="inlineStr"/>
@@ -3471,7 +3471,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B199" t="inlineStr"/>
@@ -3621,7 +3621,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B209" t="inlineStr"/>
@@ -3771,7 +3771,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Category: ['Adventure Sports', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Adventure Sports']</t>
         </is>
       </c>
       <c r="B219" t="inlineStr"/>
@@ -3846,7 +3846,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B224" t="inlineStr"/>
@@ -4071,7 +4071,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
@@ -4146,7 +4146,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
@@ -4221,7 +4221,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B249" t="inlineStr"/>
@@ -4296,7 +4296,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B254" t="inlineStr"/>
@@ -4746,7 +4746,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B284" t="inlineStr"/>
@@ -4896,7 +4896,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B294" t="inlineStr"/>
@@ -4971,7 +4971,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B299" t="inlineStr"/>
@@ -5046,7 +5046,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Eco-Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Hiking', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -5121,7 +5121,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
@@ -5196,7 +5196,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B314" t="inlineStr"/>
@@ -5271,7 +5271,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Scenic Tours']</t>
+          <t>Category: ['Scenic Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B319" t="inlineStr"/>
@@ -5346,7 +5346,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B324" t="inlineStr"/>
@@ -5421,7 +5421,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B329" t="inlineStr"/>
@@ -5646,7 +5646,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B344" t="inlineStr"/>
@@ -5796,7 +5796,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Scenic Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings', 'Hiking']</t>
         </is>
       </c>
       <c r="B354" t="inlineStr"/>
@@ -5871,7 +5871,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B359" t="inlineStr"/>
@@ -5946,7 +5946,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Category: ['Entertainment', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B364" t="inlineStr"/>
@@ -6096,7 +6096,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B374" t="inlineStr"/>
@@ -6246,7 +6246,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B384" t="inlineStr"/>
@@ -6396,7 +6396,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B394" t="inlineStr"/>
@@ -6471,7 +6471,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B399" t="inlineStr"/>
@@ -6546,7 +6546,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B404" t="inlineStr"/>
@@ -6696,7 +6696,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B414" t="inlineStr"/>
@@ -6921,7 +6921,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B429" t="inlineStr"/>
@@ -6996,7 +6996,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B434" t="inlineStr"/>
@@ -7071,7 +7071,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B439" t="inlineStr"/>
@@ -7146,7 +7146,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B444" t="inlineStr"/>
@@ -7221,7 +7221,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B449" t="inlineStr"/>
@@ -7371,7 +7371,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B459" t="inlineStr"/>
@@ -7446,7 +7446,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B464" t="inlineStr"/>
@@ -7671,7 +7671,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B479" t="inlineStr"/>
@@ -7746,7 +7746,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B484" t="inlineStr"/>
@@ -7821,7 +7821,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B489" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B494" t="inlineStr"/>
@@ -7971,7 +7971,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B499" t="inlineStr"/>
@@ -8196,7 +8196,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B514" t="inlineStr"/>
@@ -8271,7 +8271,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B519" t="inlineStr"/>
@@ -8346,7 +8346,7 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Wildlife Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wildlife Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B524" t="inlineStr"/>
@@ -8421,7 +8421,7 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B529" t="inlineStr"/>
@@ -8571,7 +8571,7 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B539" t="inlineStr"/>
@@ -8646,7 +8646,7 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B544" t="inlineStr"/>
@@ -8721,7 +8721,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B549" t="inlineStr"/>
@@ -8946,7 +8946,7 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B564" t="inlineStr"/>
@@ -9021,7 +9021,7 @@
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B569" t="inlineStr"/>
@@ -9246,7 +9246,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B584" t="inlineStr"/>
@@ -9321,7 +9321,7 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B589" t="inlineStr"/>
@@ -9396,7 +9396,7 @@
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Cruises', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Cultural Cruises', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B594" t="inlineStr"/>
@@ -9471,7 +9471,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B599" t="inlineStr"/>
@@ -9546,7 +9546,7 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B604" t="inlineStr"/>
@@ -9621,7 +9621,7 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B609" t="inlineStr"/>
@@ -9696,7 +9696,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B614" t="inlineStr"/>
@@ -9771,7 +9771,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B619" t="inlineStr"/>
@@ -9846,7 +9846,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B624" t="inlineStr"/>
@@ -9996,7 +9996,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Eco-Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B634" t="inlineStr"/>
@@ -10071,7 +10071,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B639" t="inlineStr"/>
@@ -10146,7 +10146,7 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B644" t="inlineStr"/>
@@ -10221,7 +10221,7 @@
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B649" t="inlineStr"/>
@@ -10296,7 +10296,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B654" t="inlineStr"/>
@@ -10371,7 +10371,7 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B659" t="inlineStr"/>
@@ -10521,7 +10521,7 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B669" t="inlineStr"/>
@@ -10596,7 +10596,7 @@
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B674" t="inlineStr"/>
@@ -10671,7 +10671,7 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B679" t="inlineStr"/>
@@ -10746,7 +10746,7 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>Category: ['Transportation &amp; Travel Services', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Transportation &amp; Travel Services']</t>
         </is>
       </c>
       <c r="B684" t="inlineStr"/>
@@ -10821,7 +10821,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Museums', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B689" t="inlineStr"/>
@@ -10896,7 +10896,7 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B694" t="inlineStr"/>
@@ -10971,7 +10971,7 @@
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B699" t="inlineStr"/>
@@ -11046,7 +11046,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B704" t="inlineStr"/>
@@ -11121,7 +11121,7 @@
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Water Sports']</t>
         </is>
       </c>
       <c r="B709" t="inlineStr"/>
@@ -11271,7 +11271,7 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B719" t="inlineStr"/>
@@ -11346,7 +11346,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B724" t="inlineStr"/>
@@ -11421,7 +11421,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B729" t="inlineStr"/>
@@ -11646,7 +11646,7 @@
     <row r="744">
       <c r="A744" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B744" t="inlineStr"/>
@@ -11721,7 +11721,7 @@
     <row r="749">
       <c r="A749" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B749" t="inlineStr"/>
@@ -11796,7 +11796,7 @@
     <row r="754">
       <c r="A754" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B754" t="inlineStr"/>
@@ -11871,7 +11871,7 @@
     <row r="759">
       <c r="A759" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B759" t="inlineStr"/>
@@ -11946,7 +11946,7 @@
     <row r="764">
       <c r="A764" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B764" t="inlineStr"/>
@@ -12246,7 +12246,7 @@
     <row r="784">
       <c r="A784" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B784" t="inlineStr"/>
@@ -12321,7 +12321,7 @@
     <row r="789">
       <c r="A789" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B789" t="inlineStr"/>
@@ -12396,7 +12396,7 @@
     <row r="794">
       <c r="A794" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B794" t="inlineStr"/>
@@ -12546,7 +12546,7 @@
     <row r="804">
       <c r="A804" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B804" t="inlineStr"/>
@@ -12621,7 +12621,7 @@
     <row r="809">
       <c r="A809" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B809" t="inlineStr"/>
@@ -12696,7 +12696,7 @@
     <row r="814">
       <c r="A814" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B814" t="inlineStr"/>
@@ -12771,7 +12771,7 @@
     <row r="819">
       <c r="A819" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B819" t="inlineStr"/>
@@ -12846,7 +12846,7 @@
     <row r="824">
       <c r="A824" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B824" t="inlineStr"/>
@@ -12921,7 +12921,7 @@
     <row r="829">
       <c r="A829" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B829" t="inlineStr"/>
@@ -12996,7 +12996,7 @@
     <row r="834">
       <c r="A834" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B834" t="inlineStr"/>
@@ -13146,7 +13146,7 @@
     <row r="844">
       <c r="A844" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B844" t="inlineStr"/>
@@ -13296,7 +13296,7 @@
     <row r="854">
       <c r="A854" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B854" t="inlineStr"/>
@@ -13371,7 +13371,7 @@
     <row r="859">
       <c r="A859" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B859" t="inlineStr"/>
@@ -13446,7 +13446,7 @@
     <row r="864">
       <c r="A864" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B864" t="inlineStr"/>
@@ -13521,7 +13521,7 @@
     <row r="869">
       <c r="A869" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B869" t="inlineStr"/>
@@ -13596,7 +13596,7 @@
     <row r="874">
       <c r="A874" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B874" t="inlineStr"/>
@@ -13671,7 +13671,7 @@
     <row r="879">
       <c r="A879" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B879" t="inlineStr"/>
@@ -13746,7 +13746,7 @@
     <row r="884">
       <c r="A884" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B884" t="inlineStr"/>
@@ -13896,7 +13896,7 @@
     <row r="894">
       <c r="A894" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B894" t="inlineStr"/>
@@ -14046,7 +14046,7 @@
     <row r="904">
       <c r="A904" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B904" t="inlineStr"/>
@@ -14121,7 +14121,7 @@
     <row r="909">
       <c r="A909" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B909" t="inlineStr"/>
@@ -14496,7 +14496,7 @@
     <row r="934">
       <c r="A934" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B934" t="inlineStr"/>
@@ -14571,7 +14571,7 @@
     <row r="939">
       <c r="A939" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B939" t="inlineStr"/>
@@ -14646,7 +14646,7 @@
     <row r="944">
       <c r="A944" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B944" t="inlineStr"/>
@@ -14721,7 +14721,7 @@
     <row r="949">
       <c r="A949" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B949" t="inlineStr"/>
@@ -14977,7 +14977,7 @@
     <row r="966">
       <c r="A966" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Hiking', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B966" t="inlineStr"/>
@@ -15127,7 +15127,7 @@
     <row r="976">
       <c r="A976" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B976" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
     <row r="981">
       <c r="A981" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B981" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15352,7 +15352,7 @@
     <row r="991">
       <c r="A991" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B991" t="inlineStr"/>
@@ -15427,7 +15427,7 @@
     <row r="996">
       <c r="A996" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B996" t="inlineStr"/>
@@ -15502,7 +15502,7 @@
     <row r="1001">
       <c r="A1001" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B1001" t="inlineStr"/>
@@ -15517,7 +15517,7 @@
     <row r="1002">
       <c r="A1002" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6874P161</t>
+          <t>PRODUCTCODE: 6874P159</t>
         </is>
       </c>
       <c r="B1002" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
     <row r="1003">
       <c r="A1003" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the old walls, the Eiffel Bridge and the best Game of Thrones shooting locations. Stroll around the Jewish quarter, one of the best-preserved in the world and visit the Arab baths.</t>
+          <t>Summarized description: Experience Barcelona’s holy mountain, Montserrat, on a half day tour. Learn about the cornerstone of the Catalan culture, history, nature and spirituality. Enjoy an exclusive guided tour in the basilica.</t>
         </is>
       </c>
       <c r="B1003" t="inlineStr"/>
@@ -15547,7 +15547,7 @@
     <row r="1004">
       <c r="A1004" t="inlineStr">
         <is>
-          <t>Title: Girona Guided Tour with High speed Train from Barcelona</t>
+          <t>Title: Montserrat Monastery Visit &amp; Local tasting from Barcelona</t>
         </is>
       </c>
       <c r="B1004" t="inlineStr"/>
@@ -15562,7 +15562,7 @@
     <row r="1005">
       <c r="A1005" t="inlineStr">
         <is>
-          <t>TotalReviews: 52</t>
+          <t>TotalReviews: 58</t>
         </is>
       </c>
       <c r="B1005" t="inlineStr"/>
@@ -15577,7 +15577,7 @@
     <row r="1006">
       <c r="A1006" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1006" t="inlineStr"/>
@@ -15592,7 +15592,7 @@
     <row r="1007">
       <c r="A1007" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3142GIRONA_P</t>
+          <t>PRODUCTCODE: 7071P6</t>
         </is>
       </c>
       <c r="B1007" t="inlineStr"/>
@@ -15607,7 +15607,7 @@
     <row r="1008">
       <c r="A1008" t="inlineStr">
         <is>
-          <t>Summarized description: Travelling in a luxury car, you will visit the city of Girona in northeastern Catalonia. You’ll stop at Santuari dels Angels to take pictures from a stunning viewpoint on your way to the town of Pals.</t>
+          <t>Summarized description: Explore the amazing monastery of Montserrat on this day trip from Barcelona. Marvel at its panoramic views, scenic walks and the Escolania boy’s choir accompanied by your local guide.</t>
         </is>
       </c>
       <c r="B1008" t="inlineStr"/>
@@ -15622,7 +15622,7 @@
     <row r="1009">
       <c r="A1009" t="inlineStr">
         <is>
-          <t>Title: Girona and Costa Brava Private Day Trip from Barcelona</t>
+          <t xml:space="preserve">Title: Montserrat Day Trip with Lunch and Wine Tasting from Barcelona </t>
         </is>
       </c>
       <c r="B1009" t="inlineStr"/>
@@ -15637,7 +15637,7 @@
     <row r="1010">
       <c r="A1010" t="inlineStr">
         <is>
-          <t>TotalReviews: 39</t>
+          <t>TotalReviews: 49</t>
         </is>
       </c>
       <c r="B1010" t="inlineStr"/>
@@ -15652,7 +15652,7 @@
     <row r="1011">
       <c r="A1011" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1011" t="inlineStr"/>
@@ -15667,7 +15667,7 @@
     <row r="1012">
       <c r="A1012" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 14014P2</t>
+          <t>PRODUCTCODE: 14218P6</t>
         </is>
       </c>
       <c r="B1012" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Summarized description: Hiking trip to Montserrat. Hike to one of the most famous and iconic peaks of the mountain range. Energy snack, lunch and water are included.</t>
+          <t>Summarized description: 7-hour private tour of Montserrat with lunch included. Enjoy a typical breakfast, visit the Santa María de Mont Serrat Abbey and see the Virgin of MontSerrat. After the experience an optional bonus of some hiking in this amazing mountain is also included.</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>Title: Montserrat Land of Shrines - One Day Small Group Hiking Tour from Barcelona</t>
+          <t>Title: Montserrat 7-hour Private Tour from Barcelona with Lunch</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>TotalReviews: 36</t>
+          <t>TotalReviews: 46</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Category: ['Hiking']</t>
+          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 14014P1</t>
+          <t>PRODUCTCODE: 3142GAUDI_P</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Summarized description: 6.5-hour tour to Montserrat from Barcelona. Explore theBasilica ofMontserrat, take the glass-top St. Joan funicular to the middle part of the mountain range. Hike past authentic "hermitages" (retreats)</t>
+          <t>Summarized description: Montserrat is one of Barcelona's most iconic attractions. The modernist architecture of Antoni Gaudí is part of the Montserrat experience.</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>Title: Historical Montserrat Half-Day Hiking Tour from Barcelona</t>
+          <t>Title: Private Montserrat, Gaudi and Modernism Day Trip from Barcelona</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3142GAUDI_P</t>
+          <t>PRODUCTCODE: 8648P16</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is one of Barcelona's most iconic attractions. The modernist architecture of Antoni Gaudí is part of the Montserrat experience.</t>
+          <t>Summarized description: Girona Figueres from Barcelona is an unmissable experience. The Dalí Museum is one of the most fascinating museums in the world.</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>Title: Private Montserrat, Gaudi and Modernism Day Trip from Barcelona</t>
+          <t>Title: Day trip to Girona and Figueres with Dali Museum included from Barcelona</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>TotalReviews: 20</t>
+          <t>TotalReviews: 10</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6899MONTCAVES</t>
+          <t>PRODUCTCODE: 24380P453</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Summarized description: 8-hour tour from Barcelona to Montserrat Abbey with an expert guide. Learn about the monastery and explore the stalagmites inside the mountain.</t>
+          <t>Summarized description: Visit the beautiful medieval town of Girona, a town full of amazing views and fascinating history. Stroll through its narrow streets and explore local hotspots while you enjoy the charming atmosphere of this historical town.</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>Title: Montserrat Abbey and Caves Private Tour from Barcelona</t>
+          <t>Title: Private Medieval Day Trip to Girona with a Local</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>TotalReviews: 10</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 25359P18</t>
+          <t>PRODUCTCODE: 56823P22</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is a small island off the coast of Catalonia. Visitors can tour a monastery and a family-run cava winery. Enjoy a farm-to-table lunch and see the bottling process firsthand.</t>
+          <t>Summarized description: Many of Game of Thrones key moments have been shot in Girona. Take a tour of the historic town to see some of the most famous sights in Spain.</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>Title: Montserrat and Cava Winery Full-Day Trip from Barcelona</t>
+          <t>Title: Girona Express with Game of Thrones Locations from Barcelona</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 10</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8648P16</t>
+          <t>PRODUCTCODE: 8648P17</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Summarized description: Girona Figueres from Barcelona is an unmissable experience. The Dalí Museum is one of the most fascinating museums in the world.</t>
+          <t>Summarized description: Girona is one of the oldest and most fascinating cities of Catalonia. You will have a free time to enjoy on your own this visit to Girona.</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>Title: Day trip to Girona and Figueres with Dali Museum included from Barcelona</t>
+          <t>Title: Day Trip to Girona with Walking Tour from Barcelona</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>TotalReviews: 10</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24380P453</t>
+          <t>PRODUCTCODE: 16168P25</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the beautiful medieval town of Girona, a town full of amazing views and fascinating history. Stroll through its narrow streets and explore local hotspots while you enjoy the charming atmosphere of this historical town.</t>
+          <t>Summarized description: Montserrat is a place of pilgrimage from millions of people around the world. Enjoy the views and 45 minutes guided tour about Montserrat’s Basilica and Monastery.</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>Title: Private Medieval Day Trip to Girona with a Local</t>
+          <t>Title: Half-Day Private Tour of Montserrat from Barcelona</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>TotalReviews: 10</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 56823P22</t>
+          <t>PRODUCTCODE: 9866P49</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Summarized description: Many of Game of Thrones key moments have been shot in Girona. Take a tour of the historic town to see some of the most famous sights in Spain.</t>
+          <t>Summarized description: Dive in the Catalan culture myths in a classic visit to the Magic Mountain of Montserrat. Spend one morning in the most mysterious and magical site of Catalonia to a unique natural monument.</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>Title: Girona Express with Game of Thrones Locations from Barcelona</t>
+          <t>Title: Half Day Montserrat Private Tour From Barcelona</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>TotalReviews: 10</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8648P17</t>
+          <t>PRODUCTCODE: 161628P6</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Summarized description: Girona is one of the oldest and most fascinating cities of Catalonia. You will have a free time to enjoy on your own this visit to Girona.</t>
+          <t>Summarized description: Girona is one of the main filming locations for "Game of Thrones" Take a tour with a local guide-driver picking you up from your hotel in Barcelona. Enjoy the scenic route to Girona mountain range.</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>Title: Day Trip to Girona with Walking Tour from Barcelona</t>
+          <t>Title: Private Day Trip From Barcelona to Girona</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8648P20</t>
+          <t>PRODUCTCODE: 8648P21</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Summarized description: Visit Montserrat is a unique wonder in Catalonia and in the world. Sant Joan Funicular Railway offers a unique experience with the best panoramic bird’s-eye views of the mountain and the Monastery.</t>
+          <t>Summarized description: Girona and Figueres are two jewels of Catalan heritage. Explore the old Roman settlement of Girona on a walking tour of the historic centre. Stroll through the best-preserved Jewish quarter in Europe.</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>Title: Half Day Tour to Montserrat with Cog-Wheel from Barcelona</t>
+          <t>Title: Day trip to Girona and Figueres by bus from Barcelona</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 16168P25</t>
+          <t>PRODUCTCODE: 239937P35</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is a place of pilgrimage from millions of people around the world. Enjoy the views and 45 minutes guided tour about Montserrat’s Basilica and Monastery.</t>
+          <t>Summarized description: Stroll through the historic streets of Girona, visit the charming village of Pals, and explore the Costa Brava. Discover the monumental city of Gerona on this amazing tour. Feel transported to the medieval ages while strolling around its Jewish quarter.</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>Title: Half-Day Private Tour of Montserrat from Barcelona</t>
+          <t xml:space="preserve">Title: From Barcelona : Girona and Costa Brava Combo Tour (With Hotel Pickup) </t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P49</t>
+          <t>PRODUCTCODE: 239937P45</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Summarized description: Dive in the Catalan culture myths in a classic visit to the Magic Mountain of Montserrat. Spend one morning in the most mysterious and magical site of Catalonia to a unique natural monument.</t>
+          <t>Summarized description: Explore the beauty of Catalonia in this amazing 1-day tour to Girona and the Costa Brava. Explore 2,000 years of history with your knowledgeable local guide. Step into the Catalonian town of Gerona.</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>Title: Half Day Montserrat Private Tour From Barcelona</t>
+          <t>Title: From Barcelona : Girona and Costa Brava Day Trip (VIP Small Group)</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 161628P6</t>
+          <t>PRODUCTCODE: 112780P20</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Summarized description: Girona is one of the main filming locations for "Game of Thrones" Take a tour with a local guide-driver picking you up from your hotel in Barcelona. Enjoy the scenic route to Girona mountain range.</t>
+          <t>Summarized description: Montserrat is a unique mountain formation, which has no analogs in the whole world. Spoil yourself with a luxury Private day trip from Barcelona to Montserrat.</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>Title: Private Day Trip From Barcelona to Girona</t>
+          <t>Title: Montserrat Private Day Trip with Pick Up from Barcelona</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8648P21</t>
+          <t>PRODUCTCODE: 126139P6</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Summarized description: Girona and Figueres are two jewels of Catalan heritage. Explore the old Roman settlement of Girona on a walking tour of the historic centre. Stroll through the best-preserved Jewish quarter in Europe.</t>
+          <t>Summarized description: Montserrat is one of the most iconic places in Catalonia. Enjoy the comfort of our transportation and the personalized attention of our expert guides. An excursion not to be missed!</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>Title: Day trip to Girona and Figueres by bus from Barcelona</t>
+          <t>Title: Private Tour from Barcelona to Montserrat (with guide)</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P35</t>
+          <t>PRODUCTCODE: 10123P20</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Summarized description: Stroll through the historic streets of Girona, visit the charming village of Pals, and explore the Costa Brava. Discover the monumental city of Gerona on this amazing tour. Feel transported to the medieval ages while strolling around its Jewish quarter.</t>
+          <t>Summarized description: The Benedict sanctuary of Montserrat, founded in 1025, is the mystical setting for the Virgin of Mont Serrat, the patron saint of Catalonia. In the afternoon, see the MontSerrat Mountains that rise majestically more than 4,000 feet above sea level.</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: From Barcelona : Girona and Costa Brava Combo Tour (With Hotel Pickup) </t>
+          <t>Title: Barcelona Highlights and Montserrat with Cogwheel Train Guided Day Tour</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P45</t>
+          <t>PRODUCTCODE: 14218P11</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Summarized description: Explore the beauty of Catalonia in this amazing 1-day tour to Girona and the Costa Brava. Explore 2,000 years of history with your knowledgeable local guide. Step into the Catalonian town of Gerona.</t>
+          <t>Summarized description: Private walking tour in Girona. Discover the Old Town and learn about some of the myths and legends related to the city. Stroll down la Rambla. Will you recognize the construction by Eiffel near the Onyar Houses?</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>Title: From Barcelona : Girona and Costa Brava Day Trip (VIP Small Group)</t>
+          <t>Title: Private trip to the medieval city of Girona from Barcelona</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 112780P20</t>
+          <t>PRODUCTCODE: 419333P3</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is a unique mountain formation, which has no analogs in the whole world. Spoil yourself with a luxury Private day trip from Barcelona to Montserrat.</t>
+          <t>Summarized description: You can visit Montserrat, one of the most beautiful places in the world. It is home to one of Europe's oldest and most beautiful monasteries.</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>Title: Montserrat Private Day Trip with Pick Up from Barcelona</t>
+          <t>Title: Montserrat Private Tour from Barcelona with Pick-up</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 126139P6</t>
+          <t>PRODUCTCODE: 90894P56</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is one of the most iconic places in Catalonia. Enjoy the comfort of our transportation and the personalized attention of our expert guides. An excursion not to be missed!</t>
+          <t>Summarized description: World-famous for its rocky geography, Montserrat beautiful scenery was declared National Park in 1987 to protect its natural and cultural wealth. Famous for its peculiar morphology, its name comes from the Catalan words Mont (mountain) and Serrat (serrated)</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>Title: Private Tour from Barcelona to Montserrat (with guide)</t>
+          <t>Title: Enjoy Montserrat Morning Tour - Barcelona</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 10123P20</t>
+          <t>PRODUCTCODE: 8647P223</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Summarized description: The Benedict sanctuary of Montserrat, founded in 1025, is the mystical setting for the Virgin of Mont Serrat, the patron saint of Catalonia. In the afternoon, see the MontSerrat Mountains that rise majestically more than 4,000 feet above sea level.</t>
+          <t>Summarized description: This 8-hour tour of Barcelona will cover the best and most important landmarks and main attractions of the city. Visit all locations at your time and pace. In the afternoon, complete your experience on a brief tour of Montserrat.</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>Title: Barcelona Highlights and Montserrat with Cogwheel Train Guided Day Tour</t>
+          <t>Title: Private Full Day City Tour of Barcelona and Monastery of Montserrat w/ pick up</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 14218P11</t>
+          <t>PRODUCTCODE: 244199P39</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Summarized description: Private walking tour in Girona. Discover the Old Town and learn about some of the myths and legends related to the city. Stroll down la Rambla. Will you recognize the construction by Eiffel near the Onyar Houses?</t>
+          <t>Summarized description: Catalonia’s most emblematic mountain is just a few kilometers from Barcelona. Board the Railway Sant Joan to see the fascinating flora and fauna of the city. Take a soft walk through Montserrat Natural Park with the best professional guide.</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>Title: Private trip to the medieval city of Girona from Barcelona</t>
+          <t>Title: From Barcelona : Montserrat Monastery &amp; Natural Park Hike Half Day Tour</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Wildlife Tours']</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 419333P3</t>
+          <t>PRODUCTCODE: 100247P5</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Summarized description: You can visit Montserrat, one of the most beautiful places in the world. It is home to one of Europe's oldest and most beautiful monasteries.</t>
+          <t>Summarized description: Girona is a medieval town just a short train ride from Barcelona. Best known for its inclusion in Game of Thrones, it is home to the largest gothic nave for a cathedral in the world.</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>Title: Montserrat Private Tour from Barcelona with Pick-up</t>
+          <t>Title: Girona Day Trip</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17362,7 +17362,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90894P56</t>
+          <t>PRODUCTCODE: 6899P7</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Summarized description: World-famous for its rocky geography, Montserrat beautiful scenery was declared National Park in 1987 to protect its natural and cultural wealth. Famous for its peculiar morphology, its name comes from the Catalan words Mont (mountain) and Serrat (serrated)</t>
+          <t>Summarized description: Montserrat is home to the world-famous Magic Mountain. The Salnitre's Caverns are an underground galleries that traverse the mountain. Montserrat Abbey is the historical Sanctuary towering on top of the rocky fingers.</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>Title: Enjoy Montserrat Morning Tour - Barcelona</t>
+          <t>Title: Montserrat Abbey and the Salnitre's Caverns: Small Group Tour from Barcelona</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17437,7 +17437,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8647P223</t>
+          <t>PRODUCTCODE: 17377P11</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Summarized description: This 8-hour tour of Barcelona will cover the best and most important landmarks and main attractions of the city. Visit all locations at your time and pace. In the afternoon, complete your experience on a brief tour of Montserrat.</t>
+          <t>Summarized description: Explore Montserrat mountain, one of the most spectacular natural parks and spiritual spots in Catalonia. Head to a local restaurant to have a delicious three course meal. Then round out your day with a visit to a neighboring biodynamic winery.</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>Title: Private Full Day City Tour of Barcelona and Monastery of Montserrat w/ pick up</t>
+          <t>Title: Full Day Guided Tour to Montserrat and Organic Winery from Barcelona</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 244199P39</t>
+          <t>PRODUCTCODE: 22869P143</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Summarized description: Catalonia’s most emblematic mountain is just a few kilometers from Barcelona. Board the Railway Sant Joan to see the fascinating flora and fauna of the city. Take a soft walk through Montserrat Natural Park with the best professional guide.</t>
+          <t>Summarized description: The Montserrat Monastery is one of the most beautiful monasteries in the world. It was built in the 12th century and is located in the heart of Barcelona. The monastery was built on the site of a former castle.</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>Title: From Barcelona : Montserrat Monastery &amp; Natural Park Hike Half Day Tour</t>
+          <t>Title: Shore Excursion to Montserrat from Barcelona Harbour</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17587,7 +17587,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Wildlife Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 100247P5</t>
+          <t>PRODUCTCODE: 8647P115</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Summarized description: Girona is a medieval town just a short train ride from Barcelona. Best known for its inclusion in Game of Thrones, it is home to the largest gothic nave for a cathedral in the world.</t>
+          <t>Summarized description: You will be picked up in a private vehicle from your hotel and after a 1-hour drive approximately you will have reached Montserrat. You will visit the Moreneta, one of the two catalonian patron saints, together with Sant Jordi. Lunch is to be paid by you.</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>Title: Girona Day Trip</t>
+          <t>Title: Full Day Private Tour of Montserrat and Winery from Barcelona with pick up</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6899P7</t>
+          <t>PRODUCTCODE: 5728P15</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is home to the world-famous Magic Mountain. The Salnitre's Caverns are an underground galleries that traverse the mountain. Montserrat Abbey is the historical Sanctuary towering on top of the rocky fingers.</t>
+          <t>Summarized description: Montserrat is one of the most impressive mountains of Catalonia. Walk between the spectacular flora, impressive mountain formations while having amazing views. Learn everything about popular legends and great miracles of Montserrat.</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>Title: Montserrat Abbey and the Salnitre's Caverns: Small Group Tour from Barcelona</t>
+          <t>Title: Private Montserrat Monastery and Natural Park Tour from Barcelona</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Hiking']</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 17377P11</t>
+          <t>PRODUCTCODE: 394433P2</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Montserrat mountain, one of the most spectacular natural parks and spiritual spots in Catalonia. Head to a local restaurant to have a delicious three course meal. Then round out your day with a visit to a neighboring biodynamic winery.</t>
+          <t>Summarized description: We will see the Abbey and the Black Virgin for free and without other tourists. We will visit an audiovisual and the Montserrat Museum, with works by Dalí, Picasso, Miró, etc.</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>Title: Full Day Guided Tour to Montserrat and Organic Winery from Barcelona</t>
+          <t>Title: Private tour to Montserrat from Barcelona</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 22869P143</t>
+          <t>PRODUCTCODE: 24338P54</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Summarized description: The Montserrat Monastery is one of the most beautiful monasteries in the world. It was built in the 12th century and is located in the heart of Barcelona. The monastery was built on the site of a former castle.</t>
+          <t>Summarized description: Montserrat means "serrated mountain," which explains the particular shape of the rock formation. The mountain is home to the monastery dedicated to Our Lady of Montserrat, the favorite saint of the region.</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>Title: Shore Excursion to Montserrat from Barcelona Harbour</t>
+          <t>Title: Montserrat Day Trip from Barcelona</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8647P115</t>
+          <t>PRODUCTCODE: 207305P237</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Summarized description: You will be picked up in a private vehicle from your hotel and after a 1-hour drive approximately you will have reached Montserrat. You will visit the Moreneta, one of the two catalonian patron saints, together with Sant Jordi. Lunch is to be paid by you.</t>
+          <t>Summarized description: Montserrat is part of the pre-coastal range in the area, and is conveniently close to Barcelona. It is one of the best experiences to immerse yourself into the rich Spanish culture.</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>Title: Full Day Private Tour of Montserrat and Winery from Barcelona with pick up</t>
+          <t>Title: Private Day Trip to Montserrat from Barcelona with a local</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5728P15</t>
+          <t>PRODUCTCODE: 11498P133</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is one of the most impressive mountains of Catalonia. Walk between the spectacular flora, impressive mountain formations while having amazing views. Learn everything about popular legends and great miracles of Montserrat.</t>
+          <t>Summarized description: Visit the church of Santa Maria de Montserrat where you see ‘La Moreneta’ and hear the children’s choir. Take a hike to an amazing viewpoint in the valley and try fabulous products at the street market.</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>Title: Private Montserrat Monastery and Natural Park Tour from Barcelona</t>
+          <t>Title: Full-Day Tour from Barcelona to Montserrat with Private Guide - w/ Cable Car</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18037,7 +18037,7 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 394433P2</t>
+          <t>PRODUCTCODE: 90219P17</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Summarized description: We will see the Abbey and the Black Virgin for free and without other tourists. We will visit an audiovisual and the Montserrat Museum, with works by Dalí, Picasso, Miró, etc.</t>
+          <t>Summarized description: Ride the Saint Joan Funicular railway for panoramic views of the Pyrenees. Visit the medieval Benedictine monastery on Montserrat Mountain.</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>Title: Private tour to Montserrat from Barcelona</t>
+          <t>Title: Barcelona: Montserrat Tour with Cog Wheel Ticket</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18112,7 +18112,7 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24338P54</t>
+          <t>PRODUCTCODE: 121995P8</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat means "serrated mountain," which explains the particular shape of the rock formation. The mountain is home to the monastery dedicated to Our Lady of Montserrat, the favorite saint of the region.</t>
+          <t>Summarized description: 8-hour tour includes visits to Montserrat abbey and Sagrada Familia Cathedral in Barcelona. Booking is essential to ensure the safety of your passengers.</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>Title: Montserrat Day Trip from Barcelona</t>
+          <t>Title: Barcelona &amp; Montserrat Luxury Private Tour</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18187,7 +18187,7 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18217,7 +18217,7 @@
     <row r="1182">
       <c r="A1182" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 207305P237</t>
+          <t>PRODUCTCODE: 90219P15</t>
         </is>
       </c>
       <c r="B1182" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is part of the pre-coastal range in the area, and is conveniently close to Barcelona. It is one of the best experiences to immerse yourself into the rich Spanish culture.</t>
+          <t>Summarized description: Learn about the wine making process on a tour of the castle vineyards and treasures room. Taste delicious Spanish wines and tapas at the 10th-century Oller del Mas castle.</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>Title: Private Day Trip to Montserrat from Barcelona with a local</t>
+          <t>Title: The Marvelous Montserrat Tour,(Tapas and Wine Half-Day Tour) from Barcelona</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18262,7 +18262,7 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 0</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings', 'Dining Experiences']</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11498P133</t>
+          <t>PRODUCTCODE: 88115P506</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the church of Santa Maria de Montserrat where you see ‘La Moreneta’ and hear the children’s choir. Take a hike to an amazing viewpoint in the valley and try fabulous products at the street market.</t>
+          <t>Summarized description: Girona was used as the filming locations for King’s Landing and Braavos in Game of Thrones. Visit the awe-inspiring Cathedral and explore El Call, one of the best preserved Jewish Quarters in the world.</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>Title: Full-Day Tour from Barcelona to Montserrat with Private Guide - w/ Cable Car</t>
+          <t xml:space="preserve">Title: Girona Guided Day Tour from Barcelona Game of Thrones City </t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18352,7 +18352,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P17</t>
+          <t>PRODUCTCODE: 264683P64</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Summarized description: Ride the Saint Joan Funicular railway for panoramic views of the Pyrenees. Visit the medieval Benedictine monastery on Montserrat Mountain.</t>
+          <t>Summarized description: Montserrat is the most emblematic mountain of Catalonia. It is crowned by the Benedictine Monastery. The monastery was founded in the 10th century and is still in operation.</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>Title: Barcelona: Montserrat Tour with Cog Wheel Ticket</t>
+          <t>Title: Montserrat Trekking Tour: Visit Monastery and Natural Park</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18442,7 +18442,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 121995P8</t>
+          <t>PRODUCTCODE: 22869P149</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Summarized description: 8-hour tour includes visits to Montserrat abbey and Sagrada Familia Cathedral in Barcelona. Booking is essential to ensure the safety of your passengers.</t>
+          <t>Summarized description: The Santa Maria of Montserrat Abbey is one of Catalonia's most famous sites. The abbey was built in the 12th century and is located in the Catalan town of Monserrat.</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr"/>
@@ -18472,7 +18472,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>Title: Barcelona &amp; Montserrat Luxury Private Tour</t>
+          <t>Title: Morning Access to Montserrat Monastery from Barcelona - Group option</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P15</t>
+          <t>PRODUCTCODE: 18282P10</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr"/>
@@ -18532,7 +18532,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the wine making process on a tour of the castle vineyards and treasures room. Taste delicious Spanish wines and tapas at the 10th-century Oller del Mas castle.</t>
+          <t>Summarized description: Enjoy a private, ten-hour tour of Girona with an English-speaking guide. Travel in luxury by an air-conditioned, Mercedes van. Visit surrounding medieval towns of Pals and Peratallada.</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr"/>
@@ -18547,7 +18547,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>Title: The Marvelous Montserrat Tour,(Tapas and Wine Half-Day Tour) from Barcelona</t>
+          <t>Title: Girona City and County Guided Private Day Trip From Barcelona</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Dining Experiences', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18592,7 +18592,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 88115P506</t>
+          <t>PRODUCTCODE: 239937P49</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr"/>
@@ -18607,7 +18607,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Summarized description: Girona was used as the filming locations for King’s Landing and Braavos in Game of Thrones. Visit the awe-inspiring Cathedral and explore El Call, one of the best preserved Jewish Quarters in the world.</t>
+          <t>Summarized description: Discover the wonders of one of the most fascinating cities in Catalonia from Barcelona. Walkthrough Girona’s winding medieval streets and its Jewish quarter. It has also been the filming location for some scenes in the 6th season of HBO's Game of Thrones.</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr"/>
@@ -18622,7 +18622,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Girona Guided Day Tour from Barcelona Game of Thrones City </t>
+          <t xml:space="preserve">Title: Montserrat &amp; Girona Especial : Game of Thrones Shooting Spot Tour </t>
         </is>
       </c>
       <c r="B1209" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 264683P64</t>
+          <t>PRODUCTCODE: 90219P18</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is the most emblematic mountain of Catalonia. It is crowned by the Benedictine Monastery. The monastery was founded in the 10th century and is still in operation.</t>
+          <t>Summarized description: Full-day trip to Girona and Montserrat Abbey from Barcelona. Enjoy the convenience of round-trip transportation from central Barcelona. Marvel at the distinctive shape of the MontSerrat Mountains.</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>Title: Montserrat Trekking Tour: Visit Monastery and Natural Park</t>
+          <t>Title: Premium Tour: Girona and Costa Brava Tour from Barcelona</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18727,7 +18727,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr"/>
@@ -18742,7 +18742,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 22869P149</t>
+          <t>PRODUCTCODE: 196771P19</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr"/>
@@ -18757,7 +18757,7 @@
     <row r="1218">
       <c r="A1218" t="inlineStr">
         <is>
-          <t>Summarized description: The Santa Maria of Montserrat Abbey is one of Catalonia's most famous sites. The abbey was built in the 12th century and is located in the Catalan town of Monserrat.</t>
+          <t>Summarized description: Montserrat is Catalonia’s most emblematic mountain which is topped by a Benedictine Monastery. Enjoy a train ride through Catalan landscape. Stop at a breathtaking viewpoint. Visit a local farmers market.</t>
         </is>
       </c>
       <c r="B1218" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>Title: Morning Access to Montserrat Monastery from Barcelona - Group option</t>
+          <t xml:space="preserve">Title: From Barcelona :Magical Montserrat Private Day Tour </t>
         </is>
       </c>
       <c r="B1219" t="inlineStr"/>
@@ -18802,7 +18802,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr"/>
@@ -18817,7 +18817,7 @@
     <row r="1222">
       <c r="A1222" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 18282P10</t>
+          <t>PRODUCTCODE: 90219P44</t>
         </is>
       </c>
       <c r="B1222" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Summarized description: Enjoy a private, ten-hour tour of Girona with an English-speaking guide. Travel in luxury by an air-conditioned, Mercedes van. Visit surrounding medieval towns of Pals and Peratallada.</t>
+          <t>Summarized description: Cast your eyes over the streets of Barcelona from the top of Montjuic Hill. Walk, climb or be carried 4,000 feet to the breathtaking views from Monserrat Mountain. Find your inner calm at the famous Monastery of Montserrat.</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr"/>
@@ -18847,7 +18847,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>Title: Girona City and County Guided Private Day Trip From Barcelona</t>
+          <t>Title: Premium Private Barcelona &amp; Montserrat Tour with Pick-up &amp; Drop-off</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr"/>
@@ -18877,7 +18877,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr"/>
@@ -18892,7 +18892,7 @@
     <row r="1227">
       <c r="A1227" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P49</t>
+          <t>PRODUCTCODE: 139289P184</t>
         </is>
       </c>
       <c r="B1227" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the wonders of one of the most fascinating cities in Catalonia from Barcelona. Walkthrough Girona’s winding medieval streets and its Jewish quarter. It has also been the filming location for some scenes in the 6th season of HBO's Game of Thrones.</t>
+          <t>Summarized description: Montserrat is named for its cliff-shaped silhouette that resembles a serrated blade. It is a unique place with a monastery on top of the mountain. The Benedictine monastery has been the patron saint of Catalonia.</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Montserrat &amp; Girona Especial : Game of Thrones Shooting Spot Tour </t>
+          <t>Title: Montserrat: Guided Tour from Barcelona</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -18967,7 +18967,7 @@
     <row r="1232">
       <c r="A1232" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 196771P19</t>
+          <t>PRODUCTCODE: 350808P2696</t>
         </is>
       </c>
       <c r="B1232" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is Catalonia’s most emblematic mountain which is topped by a Benedictine Monastery. Enjoy a train ride through Catalan landscape. Stop at a breathtaking viewpoint. Visit a local farmers market.</t>
+          <t>Summarized description: Private Excursion tailored exclusively for you! Embark on a serene journey through the picturesque landscapes of Spain. Discover the awe-inspiring allure of Passeig de Gracia and capture iconic moments at landmarks.</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: From Barcelona :Magical Montserrat Private Day Tour </t>
+          <t>Title: Private Tour of Montserrat from Barcelona</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr"/>
@@ -19042,7 +19042,7 @@
     <row r="1237">
       <c r="A1237" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 7676P14</t>
+          <t>PRODUCTCODE: 244199P34</t>
         </is>
       </c>
       <c r="B1237" t="inlineStr"/>
@@ -19057,7 +19057,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Summarized description: Guided tour to Montserrat and a sailing adventure on Barcelona's coast. Tour includes visit to the Royal Basilica of Montser rat and the Black Madonna of Verge Moreneta.</t>
+          <t>Summarized description: Take a trip to the picturesque Monastery, and see one of Europe's oldest children's chores, the Black Madonna. Explore the Holy Cave of Montserrat, and meet a guide who will tell you about rooted cultural myths.</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Montserrat Small Group Tour &amp; Sailing Experience from Barcelona </t>
+          <t>Title: Montserrat : Morning or Afternoon Half-Day Trip with Pickup From Barcelona</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -19102,7 +19102,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>Category: ['Water Sports', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1241" t="inlineStr"/>
@@ -19117,7 +19117,7 @@
     <row r="1242">
       <c r="A1242" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P44</t>
+          <t>PRODUCTCODE: 406570P36</t>
         </is>
       </c>
       <c r="B1242" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Summarized description: Cast your eyes over the streets of Barcelona from the top of Montjuic Hill. Walk, climb or be carried 4,000 feet to the breathtaking views from Monserrat Mountain. Find your inner calm at the famous Monastery of Montserrat.</t>
+          <t>Summarized description: Montserrat is a multi-peaked mountain range near Barcelona, in Catalonia. It is well known as the site of the Benedictine abbey, Santa Maria de Montserrat. The Benedictine Santa Maria monastery is over 1,000 years old.</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr"/>
@@ -19147,7 +19147,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>Title: Premium Private Barcelona &amp; Montserrat Tour with Pick-up &amp; Drop-off</t>
+          <t>Title: Private Morning tour Montserrat Monastery from Barcelona</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr"/>
@@ -19177,7 +19177,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr"/>
@@ -19192,7 +19192,7 @@
     <row r="1247">
       <c r="A1247" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 139289P184</t>
+          <t>PRODUCTCODE: 247293P9</t>
         </is>
       </c>
       <c r="B1247" t="inlineStr"/>
@@ -19207,7 +19207,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is named for its cliff-shaped silhouette that resembles a serrated blade. It is a unique place with a monastery on top of the mountain. The Benedictine monastery has been the patron saint of Catalonia.</t>
+          <t>Summarized description: This trip includes a guided walking tour to Girona. Free admission for infants under 3 years old. Discount tickets for children 4-12 years old (requires passport)</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>Title: Montserrat: Guided Tour from Barcelona</t>
+          <t>Title: Girona Half Day Guided Tour from Barcelona</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19267,7 +19267,7 @@
     <row r="1252">
       <c r="A1252" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 350808P2696</t>
+          <t>PRODUCTCODE: 26586P9</t>
         </is>
       </c>
       <c r="B1252" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Summarized description: Private Excursion tailored exclusively for you! Embark on a serene journey through the picturesque landscapes of Spain. Discover the awe-inspiring allure of Passeig de Gracia and capture iconic moments at landmarks.</t>
+          <t>Summarized description: Girona and Costa Brava are some of Spain's most unique small towns. Discover the area's history and traditions from a driver and guide. Roundtrip transportation from Barcelona is provided.</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>Title: Private Tour of Montserrat from Barcelona</t>
+          <t>Title: Girona and Costa Brava Day Tour with Driver Guide</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'City Tours', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr"/>
@@ -19342,7 +19342,7 @@
     <row r="1257">
       <c r="A1257" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 244199P34</t>
+          <t>PRODUCTCODE: 196771P78</t>
         </is>
       </c>
       <c r="B1257" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Summarized description: Take a trip to the picturesque Monastery, and see one of Europe's oldest children's chores, the Black Madonna. Explore the Holy Cave of Montserrat, and meet a guide who will tell you about rooted cultural myths.</t>
+          <t>Summarized description: Discover the beauty of Catalonia on a 1-day tour to Girona and the Costa Brava. Visit the impressive Arab Baths and take a dip in the inviting Mediterranean waters.</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>Title: Montserrat : Morning or Afternoon Half-Day Trip with Pickup From Barcelona</t>
+          <t>Title: Girona and Costa Brava Exclusive : From Barcelona (Small Group)</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>
@@ -19417,7 +19417,7 @@
     <row r="1262">
       <c r="A1262" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 406570P36</t>
+          <t>PRODUCTCODE: 22869P160</t>
         </is>
       </c>
       <c r="B1262" t="inlineStr"/>
@@ -19432,7 +19432,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is a multi-peaked mountain range near Barcelona, in Catalonia. It is well known as the site of the Benedictine abbey, Santa Maria de Montserrat. The Benedictine Santa Maria monastery is over 1,000 years old.</t>
+          <t>Summarized description: Girona is an ancient Roman city built on the Via Augusta itself. Sitges is a coastal town where you can walk along its promenade.</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr"/>
@@ -19447,7 +19447,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>Title: Private Morning tour Montserrat Monastery from Barcelona</t>
+          <t>Title: Private tour to Girona and Sitges from Barcelona</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr"/>
@@ -19477,7 +19477,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B1266" t="inlineStr"/>
@@ -19492,7 +19492,7 @@
     <row r="1267">
       <c r="A1267" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11498P225</t>
+          <t>PRODUCTCODE: 340534P2</t>
         </is>
       </c>
       <c r="B1267" t="inlineStr"/>
@@ -19507,7 +19507,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>Summarized description: One-day Montserrat Tour with a multi-course lunch and gourmet wine tasting should definitely be among your options. Get a marvelous countryside trip from Barcelona and revel in stunning views of Catalan wineries and historical landmarks dating back to 11th century.</t>
+          <t>Summarized description: Girona and the Costa Brava are two of Spain's most scenic regions. Take in the Mediterranean Sea from viewpoints along the way. Hotel pickup and drop-off are included.</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>Title: Full-Day Montserrat Tour from Barcelona with Wine &amp; Catalan Meal</t>
+          <t>Title: Girona and Costa Brava Private Tour with Pickup from Barcelona</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr"/>
@@ -19552,7 +19552,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr"/>
@@ -19567,7 +19567,7 @@
     <row r="1272">
       <c r="A1272" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 419333P17</t>
+          <t>PRODUCTCODE: 239343P5</t>
         </is>
       </c>
       <c r="B1272" t="inlineStr"/>
@@ -19582,7 +19582,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is one of the most beautiful places in the world. It is home to the famous Montserrat Abbey, built in the 12th century. It's also the site of the world's oldest choir.</t>
+          <t>Summarized description: Small-group or private 8-hour tour departing from Barcelona. Discover history from the Roman and medieval eras as you go back in time. See Europe's best-preserved Jewish Ghetto.</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr"/>
@@ -19597,7 +19597,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>Title: Private Tour from Barcelona to Monserrat</t>
+          <t>Title: From Barcelona Girona and Costa Brava Small Group Tour</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr"/>
@@ -19642,7 +19642,7 @@
     <row r="1277">
       <c r="A1277" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P7</t>
+          <t>PRODUCTCODE: 207305P229</t>
         </is>
       </c>
       <c r="B1277" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Summarized description: Take in the mountain views, visit the famous monastery and head to a local farmhouse for a delicious dinner. Enjoy a fully-immersive experience with a guided visit to the Monastery of Montserrat.</t>
+          <t>Summarized description: Girona is one of the best places in Spain to immerse yourself into the rich Spanish culture. The ancient town of Girona has a stunning cathedral, Benedectine monastery, Arab baths, and a Jewish museum.</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr"/>
@@ -19672,7 +19672,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>Title: Barcelona Premium Tour : Montserrat Visit with Lunch</t>
+          <t>Title: Private Day Trip to Girona from Barcelona with a local</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr"/>
@@ -19702,7 +19702,7 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr"/>
@@ -19717,7 +19717,7 @@
     <row r="1282">
       <c r="A1282" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239137P5</t>
+          <t>PRODUCTCODE: 32771P7</t>
         </is>
       </c>
       <c r="B1282" t="inlineStr"/>
@@ -19732,7 +19732,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>Summarized description: Escape Barcelona's city life and enjoy a private day trip to Montserrat. Visit the local farmers ' market, find out about the monastery stories and enjoy the magical mountain atmosphere.</t>
+          <t>Summarized description: Private tour includes a visit around Girona and the winery of Perelada. You will be able to customize your own route with your personal guide. There you will have the chance to admire a privileged landscape.</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr"/>
@@ -19747,7 +19747,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>Title: From Barcelona :Magical Montserrat Private Day Tour</t>
+          <t>Title: Girona and Wineries of Perelada Private Tour from Barcelona</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr"/>
@@ -19777,7 +19777,7 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr"/>
@@ -19792,7 +19792,7 @@
     <row r="1287">
       <c r="A1287" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P88</t>
+          <t>PRODUCTCODE: 24780P22</t>
         </is>
       </c>
       <c r="B1287" t="inlineStr"/>
@@ -19807,7 +19807,7 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the basilica where the Virgin Santa Maria of Montserrat, Patron Saint of Catalonia, is located. Enjoy astonishing views of the natural park near Barcelona. Admire the famous 'Black Madonna' in the monastery basilica.</t>
+          <t>Summarized description: Discover Girona, its Cathedral and narrow medieval streets, as well as Figueres, birthplace of the painter Salvador Dalí. Enjoy a private visit from a comfortable and luxurious high-end Mercedes vehicle.</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title:  Montserrat Mountains Half - Day Private Tour - From Barcelona </t>
+          <t>Title: Full Day in Girona and Figueres from Barcelona</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr"/>
@@ -19852,7 +19852,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr"/>
@@ -19867,7 +19867,7 @@
     <row r="1292">
       <c r="A1292" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6899P11</t>
+          <t>PRODUCTCODE: 26586P15</t>
         </is>
       </c>
       <c r="B1292" t="inlineStr"/>
@@ -19882,7 +19882,7 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the natural splendor of Spain’s captivating countryside and the magnificent Montserrat Abbey on a private full-day shore excursion. Accompanied by an accomplished private guide, explore two iconic destinations.</t>
+          <t>Summarized description: Spin through Barcelona by air-conditioned minivan with a private driver-guide. Admire Art Nouveau buildings such as La Pedrera and Casa Batlló and the Gothic Quarter. Visit the Benedictine Santa Maria de Montserrat Abbey.</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr"/>
@@ -19897,7 +19897,7 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>Title: Shore Excursion: Montserrat Abbey and Salnitre Caverns from Barcelona</t>
+          <t>Title: Barcelona And Montserrat Full Day Tour</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr"/>
@@ -19927,7 +19927,7 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr"/>
@@ -19942,7 +19942,7 @@
     <row r="1297">
       <c r="A1297" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 332541P596</t>
+          <t>PRODUCTCODE: 369086P1</t>
         </is>
       </c>
       <c r="B1297" t="inlineStr"/>
@@ -19957,7 +19957,7 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is one of the most popular destinations for a day trip from Barcelona. Travel from Barcelona in a private car with a licensed guide. Enjoy an unforgettable wine tasting at a local winery.</t>
+          <t>Summarized description: Montserrat is one of Catalonia's most famous mountain ranges. Visit the Benedictine Abbey and the sanctuary of the Virgin of Montserrat. Return to Barcelona with the same minibus.</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr"/>
@@ -19972,7 +19972,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>Title: Montserrat Wine Tasting Tour from Barcelona Day Trip by Car</t>
+          <t>Title: Half-Day Private Tour Visiting Montserrat in Barcelona</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr"/>
@@ -20002,7 +20002,7 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr"/>
@@ -20017,7 +20017,7 @@
     <row r="1302">
       <c r="A1302" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5716P6</t>
+          <t>PRODUCTCODE: 320547P140</t>
         </is>
       </c>
       <c r="B1302" t="inlineStr"/>
@@ -20032,7 +20032,7 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>Summarized description: Tour the Montserrat Monastery and a boutique winery. Tour the gorgeous vineyards and head to the wine cellar to learn about wine production. Taste three exquisite wines and a local tapas lunch.</t>
+          <t>Summarized description: We take you for a private sightseeing tour exclusively for you and your family. Montserrat is an impressive mountain range with an important mountaintop monastery around 30km as the crow flies.</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr"/>
@@ -20047,7 +20047,7 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>Title: Montserrat Half-Day Tour with Tapas and Gourmet Wines from Barcelona - Group</t>
+          <t>Title: Private 9 Hour Barcelona Sightseeing &amp; Montserrat Tour</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr"/>
@@ -20077,7 +20077,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Culinary Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr"/>
@@ -20092,7 +20092,7 @@
     <row r="1307">
       <c r="A1307" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 145071P100</t>
+          <t>PRODUCTCODE: 424606P4</t>
         </is>
       </c>
       <c r="B1307" t="inlineStr"/>
@@ -20107,7 +20107,7 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>Summarized description: Transport by comfortable air-conditioned minivan. Illuminating commentary from your expert guide. Cordoniu winery's vast cellars and wine tasting. Montserrat Monastery's basilica.</t>
+          <t>Summarized description: The Catalan people say the magical mountain of Montserrat and they say this for some reasons. This is an experience about spirituality, religiosity, nature, music, history, friendship!</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr"/>
@@ -20122,7 +20122,7 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>Title: Montserrat and Cava Trail Day Trip from Barcelona</t>
+          <t>Title: Guided Montserrat Mountain Tour from Barcelona by Train</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+          <t>Category: ['Scenic Tours', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr"/>
@@ -20167,7 +20167,7 @@
     <row r="1312">
       <c r="A1312" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 207305P229</t>
+          <t>PRODUCTCODE: 255730P230</t>
         </is>
       </c>
       <c r="B1312" t="inlineStr"/>
@@ -20182,7 +20182,7 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>Summarized description: Girona is one of the best places in Spain to immerse yourself into the rich Spanish culture. The ancient town of Girona has a stunning cathedral, Benedectine monastery, Arab baths, and a Jewish museum.</t>
+          <t>Summarized description: The Santa Maria Montserrat Monastery was built in the 11th century on the site of a Hermitage established in 888 A.D. With its imposing sand-coloured facade, it looks like it was dramatically carved out of the mountain - as though the monastery and mountain were one. Visit the museum bringing together the work of some of the most famous Spanish painters including El Greco, Picasso, and Dalí.</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr"/>
@@ -20197,7 +20197,7 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>Title: Private Day Trip to Girona from Barcelona with a local</t>
+          <t>Title: Visit Montserrat: Private Day Trip from Barcelona</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr"/>
@@ -20227,7 +20227,7 @@
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Museums']</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr"/>
@@ -20242,7 +20242,7 @@
     <row r="1317">
       <c r="A1317" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 32771P7</t>
+          <t>*****</t>
         </is>
       </c>
       <c r="B1317" t="inlineStr"/>
@@ -20254,531 +20254,6 @@
       <c r="H1317" t="inlineStr"/>
       <c r="I1317" t="inlineStr"/>
     </row>
-    <row r="1318">
-      <c r="A1318" t="inlineStr">
-        <is>
-          <t>Summarized description: Private tour includes a visit around Girona and the winery of Perelada. You will be able to customize your own route with your personal guide. There you will have the chance to admire a privileged landscape.</t>
-        </is>
-      </c>
-      <c r="B1318" t="inlineStr"/>
-      <c r="C1318" t="inlineStr"/>
-      <c r="D1318" t="inlineStr"/>
-      <c r="E1318" t="inlineStr"/>
-      <c r="F1318" t="inlineStr"/>
-      <c r="G1318" t="inlineStr"/>
-      <c r="H1318" t="inlineStr"/>
-      <c r="I1318" t="inlineStr"/>
-    </row>
-    <row r="1319">
-      <c r="A1319" t="inlineStr">
-        <is>
-          <t>Title: Girona and Wineries of Perelada Private Tour from Barcelona</t>
-        </is>
-      </c>
-      <c r="B1319" t="inlineStr"/>
-      <c r="C1319" t="inlineStr"/>
-      <c r="D1319" t="inlineStr"/>
-      <c r="E1319" t="inlineStr"/>
-      <c r="F1319" t="inlineStr"/>
-      <c r="G1319" t="inlineStr"/>
-      <c r="H1319" t="inlineStr"/>
-      <c r="I1319" t="inlineStr"/>
-    </row>
-    <row r="1320">
-      <c r="A1320" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1320" t="inlineStr"/>
-      <c r="C1320" t="inlineStr"/>
-      <c r="D1320" t="inlineStr"/>
-      <c r="E1320" t="inlineStr"/>
-      <c r="F1320" t="inlineStr"/>
-      <c r="G1320" t="inlineStr"/>
-      <c r="H1320" t="inlineStr"/>
-      <c r="I1320" t="inlineStr"/>
-    </row>
-    <row r="1321">
-      <c r="A1321" t="inlineStr">
-        <is>
-          <t>Category: ['Wine and Beverage Tastings', 'City Tours']</t>
-        </is>
-      </c>
-      <c r="B1321" t="inlineStr"/>
-      <c r="C1321" t="inlineStr"/>
-      <c r="D1321" t="inlineStr"/>
-      <c r="E1321" t="inlineStr"/>
-      <c r="F1321" t="inlineStr"/>
-      <c r="G1321" t="inlineStr"/>
-      <c r="H1321" t="inlineStr"/>
-      <c r="I1321" t="inlineStr"/>
-    </row>
-    <row r="1322">
-      <c r="A1322" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 24780P22</t>
-        </is>
-      </c>
-      <c r="B1322" t="inlineStr"/>
-      <c r="C1322" t="inlineStr"/>
-      <c r="D1322" t="inlineStr"/>
-      <c r="E1322" t="inlineStr"/>
-      <c r="F1322" t="inlineStr"/>
-      <c r="G1322" t="inlineStr"/>
-      <c r="H1322" t="inlineStr"/>
-      <c r="I1322" t="inlineStr"/>
-    </row>
-    <row r="1323">
-      <c r="A1323" t="inlineStr">
-        <is>
-          <t>Summarized description: Discover Girona, its Cathedral and narrow medieval streets, as well as Figueres, birthplace of the painter Salvador Dalí. Enjoy a private visit from a comfortable and luxurious high-end Mercedes vehicle.</t>
-        </is>
-      </c>
-      <c r="B1323" t="inlineStr"/>
-      <c r="C1323" t="inlineStr"/>
-      <c r="D1323" t="inlineStr"/>
-      <c r="E1323" t="inlineStr"/>
-      <c r="F1323" t="inlineStr"/>
-      <c r="G1323" t="inlineStr"/>
-      <c r="H1323" t="inlineStr"/>
-      <c r="I1323" t="inlineStr"/>
-    </row>
-    <row r="1324">
-      <c r="A1324" t="inlineStr">
-        <is>
-          <t>Title: Full Day in Girona and Figueres from Barcelona</t>
-        </is>
-      </c>
-      <c r="B1324" t="inlineStr"/>
-      <c r="C1324" t="inlineStr"/>
-      <c r="D1324" t="inlineStr"/>
-      <c r="E1324" t="inlineStr"/>
-      <c r="F1324" t="inlineStr"/>
-      <c r="G1324" t="inlineStr"/>
-      <c r="H1324" t="inlineStr"/>
-      <c r="I1324" t="inlineStr"/>
-    </row>
-    <row r="1325">
-      <c r="A1325" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1325" t="inlineStr"/>
-      <c r="C1325" t="inlineStr"/>
-      <c r="D1325" t="inlineStr"/>
-      <c r="E1325" t="inlineStr"/>
-      <c r="F1325" t="inlineStr"/>
-      <c r="G1325" t="inlineStr"/>
-      <c r="H1325" t="inlineStr"/>
-      <c r="I1325" t="inlineStr"/>
-    </row>
-    <row r="1326">
-      <c r="A1326" t="inlineStr">
-        <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1326" t="inlineStr"/>
-      <c r="C1326" t="inlineStr"/>
-      <c r="D1326" t="inlineStr"/>
-      <c r="E1326" t="inlineStr"/>
-      <c r="F1326" t="inlineStr"/>
-      <c r="G1326" t="inlineStr"/>
-      <c r="H1326" t="inlineStr"/>
-      <c r="I1326" t="inlineStr"/>
-    </row>
-    <row r="1327">
-      <c r="A1327" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 26586P15</t>
-        </is>
-      </c>
-      <c r="B1327" t="inlineStr"/>
-      <c r="C1327" t="inlineStr"/>
-      <c r="D1327" t="inlineStr"/>
-      <c r="E1327" t="inlineStr"/>
-      <c r="F1327" t="inlineStr"/>
-      <c r="G1327" t="inlineStr"/>
-      <c r="H1327" t="inlineStr"/>
-      <c r="I1327" t="inlineStr"/>
-    </row>
-    <row r="1328">
-      <c r="A1328" t="inlineStr">
-        <is>
-          <t>Summarized description: Spin through Barcelona by air-conditioned minivan with a private driver-guide. Admire Art Nouveau buildings such as La Pedrera and Casa Batlló and the Gothic Quarter. Visit the Benedictine Santa Maria de Montserrat Abbey.</t>
-        </is>
-      </c>
-      <c r="B1328" t="inlineStr"/>
-      <c r="C1328" t="inlineStr"/>
-      <c r="D1328" t="inlineStr"/>
-      <c r="E1328" t="inlineStr"/>
-      <c r="F1328" t="inlineStr"/>
-      <c r="G1328" t="inlineStr"/>
-      <c r="H1328" t="inlineStr"/>
-      <c r="I1328" t="inlineStr"/>
-    </row>
-    <row r="1329">
-      <c r="A1329" t="inlineStr">
-        <is>
-          <t>Title: Barcelona And Montserrat Full Day Tour</t>
-        </is>
-      </c>
-      <c r="B1329" t="inlineStr"/>
-      <c r="C1329" t="inlineStr"/>
-      <c r="D1329" t="inlineStr"/>
-      <c r="E1329" t="inlineStr"/>
-      <c r="F1329" t="inlineStr"/>
-      <c r="G1329" t="inlineStr"/>
-      <c r="H1329" t="inlineStr"/>
-      <c r="I1329" t="inlineStr"/>
-    </row>
-    <row r="1330">
-      <c r="A1330" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1330" t="inlineStr"/>
-      <c r="C1330" t="inlineStr"/>
-      <c r="D1330" t="inlineStr"/>
-      <c r="E1330" t="inlineStr"/>
-      <c r="F1330" t="inlineStr"/>
-      <c r="G1330" t="inlineStr"/>
-      <c r="H1330" t="inlineStr"/>
-      <c r="I1330" t="inlineStr"/>
-    </row>
-    <row r="1331">
-      <c r="A1331" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1331" t="inlineStr"/>
-      <c r="C1331" t="inlineStr"/>
-      <c r="D1331" t="inlineStr"/>
-      <c r="E1331" t="inlineStr"/>
-      <c r="F1331" t="inlineStr"/>
-      <c r="G1331" t="inlineStr"/>
-      <c r="H1331" t="inlineStr"/>
-      <c r="I1331" t="inlineStr"/>
-    </row>
-    <row r="1332">
-      <c r="A1332" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 369086P1</t>
-        </is>
-      </c>
-      <c r="B1332" t="inlineStr"/>
-      <c r="C1332" t="inlineStr"/>
-      <c r="D1332" t="inlineStr"/>
-      <c r="E1332" t="inlineStr"/>
-      <c r="F1332" t="inlineStr"/>
-      <c r="G1332" t="inlineStr"/>
-      <c r="H1332" t="inlineStr"/>
-      <c r="I1332" t="inlineStr"/>
-    </row>
-    <row r="1333">
-      <c r="A1333" t="inlineStr">
-        <is>
-          <t>Summarized description: Montserrat is one of Catalonia's most famous mountain ranges. Visit the Benedictine Abbey and the sanctuary of the Virgin of Montserrat. Return to Barcelona with the same minibus.</t>
-        </is>
-      </c>
-      <c r="B1333" t="inlineStr"/>
-      <c r="C1333" t="inlineStr"/>
-      <c r="D1333" t="inlineStr"/>
-      <c r="E1333" t="inlineStr"/>
-      <c r="F1333" t="inlineStr"/>
-      <c r="G1333" t="inlineStr"/>
-      <c r="H1333" t="inlineStr"/>
-      <c r="I1333" t="inlineStr"/>
-    </row>
-    <row r="1334">
-      <c r="A1334" t="inlineStr">
-        <is>
-          <t>Title: Half-Day Private Tour Visiting Montserrat in Barcelona</t>
-        </is>
-      </c>
-      <c r="B1334" t="inlineStr"/>
-      <c r="C1334" t="inlineStr"/>
-      <c r="D1334" t="inlineStr"/>
-      <c r="E1334" t="inlineStr"/>
-      <c r="F1334" t="inlineStr"/>
-      <c r="G1334" t="inlineStr"/>
-      <c r="H1334" t="inlineStr"/>
-      <c r="I1334" t="inlineStr"/>
-    </row>
-    <row r="1335">
-      <c r="A1335" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1335" t="inlineStr"/>
-      <c r="C1335" t="inlineStr"/>
-      <c r="D1335" t="inlineStr"/>
-      <c r="E1335" t="inlineStr"/>
-      <c r="F1335" t="inlineStr"/>
-      <c r="G1335" t="inlineStr"/>
-      <c r="H1335" t="inlineStr"/>
-      <c r="I1335" t="inlineStr"/>
-    </row>
-    <row r="1336">
-      <c r="A1336" t="inlineStr">
-        <is>
-          <t>Category: ['Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1336" t="inlineStr"/>
-      <c r="C1336" t="inlineStr"/>
-      <c r="D1336" t="inlineStr"/>
-      <c r="E1336" t="inlineStr"/>
-      <c r="F1336" t="inlineStr"/>
-      <c r="G1336" t="inlineStr"/>
-      <c r="H1336" t="inlineStr"/>
-      <c r="I1336" t="inlineStr"/>
-    </row>
-    <row r="1337">
-      <c r="A1337" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 320547P140</t>
-        </is>
-      </c>
-      <c r="B1337" t="inlineStr"/>
-      <c r="C1337" t="inlineStr"/>
-      <c r="D1337" t="inlineStr"/>
-      <c r="E1337" t="inlineStr"/>
-      <c r="F1337" t="inlineStr"/>
-      <c r="G1337" t="inlineStr"/>
-      <c r="H1337" t="inlineStr"/>
-      <c r="I1337" t="inlineStr"/>
-    </row>
-    <row r="1338">
-      <c r="A1338" t="inlineStr">
-        <is>
-          <t>Summarized description: We take you for a private sightseeing tour exclusively for you and your family. Montserrat is an impressive mountain range with an important mountaintop monastery around 30km as the crow flies.</t>
-        </is>
-      </c>
-      <c r="B1338" t="inlineStr"/>
-      <c r="C1338" t="inlineStr"/>
-      <c r="D1338" t="inlineStr"/>
-      <c r="E1338" t="inlineStr"/>
-      <c r="F1338" t="inlineStr"/>
-      <c r="G1338" t="inlineStr"/>
-      <c r="H1338" t="inlineStr"/>
-      <c r="I1338" t="inlineStr"/>
-    </row>
-    <row r="1339">
-      <c r="A1339" t="inlineStr">
-        <is>
-          <t>Title: Private 9 Hour Barcelona Sightseeing &amp; Montserrat Tour</t>
-        </is>
-      </c>
-      <c r="B1339" t="inlineStr"/>
-      <c r="C1339" t="inlineStr"/>
-      <c r="D1339" t="inlineStr"/>
-      <c r="E1339" t="inlineStr"/>
-      <c r="F1339" t="inlineStr"/>
-      <c r="G1339" t="inlineStr"/>
-      <c r="H1339" t="inlineStr"/>
-      <c r="I1339" t="inlineStr"/>
-    </row>
-    <row r="1340">
-      <c r="A1340" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1340" t="inlineStr"/>
-      <c r="C1340" t="inlineStr"/>
-      <c r="D1340" t="inlineStr"/>
-      <c r="E1340" t="inlineStr"/>
-      <c r="F1340" t="inlineStr"/>
-      <c r="G1340" t="inlineStr"/>
-      <c r="H1340" t="inlineStr"/>
-      <c r="I1340" t="inlineStr"/>
-    </row>
-    <row r="1341">
-      <c r="A1341" t="inlineStr">
-        <is>
-          <t>Category: ['City Tours', 'Cultural Tours']</t>
-        </is>
-      </c>
-      <c r="B1341" t="inlineStr"/>
-      <c r="C1341" t="inlineStr"/>
-      <c r="D1341" t="inlineStr"/>
-      <c r="E1341" t="inlineStr"/>
-      <c r="F1341" t="inlineStr"/>
-      <c r="G1341" t="inlineStr"/>
-      <c r="H1341" t="inlineStr"/>
-      <c r="I1341" t="inlineStr"/>
-    </row>
-    <row r="1342">
-      <c r="A1342" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 424606P4</t>
-        </is>
-      </c>
-      <c r="B1342" t="inlineStr"/>
-      <c r="C1342" t="inlineStr"/>
-      <c r="D1342" t="inlineStr"/>
-      <c r="E1342" t="inlineStr"/>
-      <c r="F1342" t="inlineStr"/>
-      <c r="G1342" t="inlineStr"/>
-      <c r="H1342" t="inlineStr"/>
-      <c r="I1342" t="inlineStr"/>
-    </row>
-    <row r="1343">
-      <c r="A1343" t="inlineStr">
-        <is>
-          <t>Summarized description: The Catalan people say the magical mountain of Montserrat and they say this for some reasons. This is an experience about spirituality, religiosity, nature, music, history, friendship!</t>
-        </is>
-      </c>
-      <c r="B1343" t="inlineStr"/>
-      <c r="C1343" t="inlineStr"/>
-      <c r="D1343" t="inlineStr"/>
-      <c r="E1343" t="inlineStr"/>
-      <c r="F1343" t="inlineStr"/>
-      <c r="G1343" t="inlineStr"/>
-      <c r="H1343" t="inlineStr"/>
-      <c r="I1343" t="inlineStr"/>
-    </row>
-    <row r="1344">
-      <c r="A1344" t="inlineStr">
-        <is>
-          <t>Title: Guided Montserrat Mountain Tour from Barcelona by Train</t>
-        </is>
-      </c>
-      <c r="B1344" t="inlineStr"/>
-      <c r="C1344" t="inlineStr"/>
-      <c r="D1344" t="inlineStr"/>
-      <c r="E1344" t="inlineStr"/>
-      <c r="F1344" t="inlineStr"/>
-      <c r="G1344" t="inlineStr"/>
-      <c r="H1344" t="inlineStr"/>
-      <c r="I1344" t="inlineStr"/>
-    </row>
-    <row r="1345">
-      <c r="A1345" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1345" t="inlineStr"/>
-      <c r="C1345" t="inlineStr"/>
-      <c r="D1345" t="inlineStr"/>
-      <c r="E1345" t="inlineStr"/>
-      <c r="F1345" t="inlineStr"/>
-      <c r="G1345" t="inlineStr"/>
-      <c r="H1345" t="inlineStr"/>
-      <c r="I1345" t="inlineStr"/>
-    </row>
-    <row r="1346">
-      <c r="A1346" t="inlineStr">
-        <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1346" t="inlineStr"/>
-      <c r="C1346" t="inlineStr"/>
-      <c r="D1346" t="inlineStr"/>
-      <c r="E1346" t="inlineStr"/>
-      <c r="F1346" t="inlineStr"/>
-      <c r="G1346" t="inlineStr"/>
-      <c r="H1346" t="inlineStr"/>
-      <c r="I1346" t="inlineStr"/>
-    </row>
-    <row r="1347">
-      <c r="A1347" t="inlineStr">
-        <is>
-          <t>PRODUCTCODE: 255730P230</t>
-        </is>
-      </c>
-      <c r="B1347" t="inlineStr"/>
-      <c r="C1347" t="inlineStr"/>
-      <c r="D1347" t="inlineStr"/>
-      <c r="E1347" t="inlineStr"/>
-      <c r="F1347" t="inlineStr"/>
-      <c r="G1347" t="inlineStr"/>
-      <c r="H1347" t="inlineStr"/>
-      <c r="I1347" t="inlineStr"/>
-    </row>
-    <row r="1348">
-      <c r="A1348" t="inlineStr">
-        <is>
-          <t>Summarized description: The Santa Maria Montserrat Monastery was built in the 11th century on the site of a Hermitage established in 888 A.D. With its imposing sand-coloured facade, it looks like it was dramatically carved out of the mountain - as though the monastery and mountain were one. Visit the museum bringing together the work of some of the most famous Spanish painters including El Greco, Picasso, and Dalí.</t>
-        </is>
-      </c>
-      <c r="B1348" t="inlineStr"/>
-      <c r="C1348" t="inlineStr"/>
-      <c r="D1348" t="inlineStr"/>
-      <c r="E1348" t="inlineStr"/>
-      <c r="F1348" t="inlineStr"/>
-      <c r="G1348" t="inlineStr"/>
-      <c r="H1348" t="inlineStr"/>
-      <c r="I1348" t="inlineStr"/>
-    </row>
-    <row r="1349">
-      <c r="A1349" t="inlineStr">
-        <is>
-          <t>Title: Visit Montserrat: Private Day Trip from Barcelona</t>
-        </is>
-      </c>
-      <c r="B1349" t="inlineStr"/>
-      <c r="C1349" t="inlineStr"/>
-      <c r="D1349" t="inlineStr"/>
-      <c r="E1349" t="inlineStr"/>
-      <c r="F1349" t="inlineStr"/>
-      <c r="G1349" t="inlineStr"/>
-      <c r="H1349" t="inlineStr"/>
-      <c r="I1349" t="inlineStr"/>
-    </row>
-    <row r="1350">
-      <c r="A1350" t="inlineStr">
-        <is>
-          <t>TotalReviews: 0</t>
-        </is>
-      </c>
-      <c r="B1350" t="inlineStr"/>
-      <c r="C1350" t="inlineStr"/>
-      <c r="D1350" t="inlineStr"/>
-      <c r="E1350" t="inlineStr"/>
-      <c r="F1350" t="inlineStr"/>
-      <c r="G1350" t="inlineStr"/>
-      <c r="H1350" t="inlineStr"/>
-      <c r="I1350" t="inlineStr"/>
-    </row>
-    <row r="1351">
-      <c r="A1351" t="inlineStr">
-        <is>
-          <t>Category: ['Museums', 'Historical Tours']</t>
-        </is>
-      </c>
-      <c r="B1351" t="inlineStr"/>
-      <c r="C1351" t="inlineStr"/>
-      <c r="D1351" t="inlineStr"/>
-      <c r="E1351" t="inlineStr"/>
-      <c r="F1351" t="inlineStr"/>
-      <c r="G1351" t="inlineStr"/>
-      <c r="H1351" t="inlineStr"/>
-      <c r="I1351" t="inlineStr"/>
-    </row>
-    <row r="1352">
-      <c r="A1352" t="inlineStr">
-        <is>
-          <t>*****</t>
-        </is>
-      </c>
-      <c r="B1352" t="inlineStr"/>
-      <c r="C1352" t="inlineStr"/>
-      <c r="D1352" t="inlineStr"/>
-      <c r="E1352" t="inlineStr"/>
-      <c r="F1352" t="inlineStr"/>
-      <c r="G1352" t="inlineStr"/>
-      <c r="H1352" t="inlineStr"/>
-      <c r="I1352" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/experiment_results/2140P187.xlsx
+++ b/experiment_results/2140P187.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1339"/>
+  <dimension ref="A1:I1384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,7 +651,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings', 'Eco-Tours']</t>
+          <t>Category: ['Eco-Tours', 'Wine and Beverage Tastings', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -1026,7 +1026,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Hiking', 'Scenic Tours']</t>
+          <t>Category: ['Hiking', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
@@ -1101,7 +1101,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Hiking', 'Culinary Tours']</t>
+          <t>Category: ['Hiking', 'Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
@@ -1251,7 +1251,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1551,7 +1551,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B71" t="inlineStr"/>
@@ -1626,7 +1626,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B76" t="inlineStr"/>
@@ -1851,7 +1851,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
@@ -2226,7 +2226,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B116" t="inlineStr"/>
@@ -2301,7 +2301,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B121" t="inlineStr"/>
@@ -2451,7 +2451,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B131" t="inlineStr"/>
@@ -2526,7 +2526,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Hiking', 'Scenic Tours']</t>
+          <t>Category: ['Hiking', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B136" t="inlineStr"/>
@@ -2601,7 +2601,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B141" t="inlineStr"/>
@@ -2751,7 +2751,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B151" t="inlineStr"/>
@@ -2901,7 +2901,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B161" t="inlineStr"/>
@@ -3051,7 +3051,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B171" t="inlineStr"/>
@@ -3351,7 +3351,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B191" t="inlineStr"/>
@@ -3426,7 +3426,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B196" t="inlineStr"/>
@@ -3576,7 +3576,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B206" t="inlineStr"/>
@@ -4026,7 +4026,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B236" t="inlineStr"/>
@@ -4101,7 +4101,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B241" t="inlineStr"/>
@@ -4176,7 +4176,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B246" t="inlineStr"/>
@@ -4251,7 +4251,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B251" t="inlineStr"/>
@@ -4401,7 +4401,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B261" t="inlineStr"/>
@@ -4476,7 +4476,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B266" t="inlineStr"/>
@@ -4701,7 +4701,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B281" t="inlineStr"/>
@@ -4926,7 +4926,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B296" t="inlineStr"/>
@@ -5001,7 +5001,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Hiking', 'Historical Tours']</t>
+          <t>Category: ['Hiking', 'Eco-Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B301" t="inlineStr"/>
@@ -5076,7 +5076,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B306" t="inlineStr"/>
@@ -5151,7 +5151,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B311" t="inlineStr"/>
@@ -5301,7 +5301,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B321" t="inlineStr"/>
@@ -5376,7 +5376,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B326" t="inlineStr"/>
@@ -5526,7 +5526,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B336" t="inlineStr"/>
@@ -5601,7 +5601,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B341" t="inlineStr"/>
@@ -5751,7 +5751,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Scenic Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Hiking', 'Wine and Beverage Tastings', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B351" t="inlineStr"/>
@@ -5826,7 +5826,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B356" t="inlineStr"/>
@@ -5976,7 +5976,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B366" t="inlineStr"/>
@@ -6051,7 +6051,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B371" t="inlineStr"/>
@@ -6126,7 +6126,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B376" t="inlineStr"/>
@@ -6201,7 +6201,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B381" t="inlineStr"/>
@@ -6276,7 +6276,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B386" t="inlineStr"/>
@@ -6351,7 +6351,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B391" t="inlineStr"/>
@@ -6426,7 +6426,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B396" t="inlineStr"/>
@@ -6501,7 +6501,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B401" t="inlineStr"/>
@@ -6576,7 +6576,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B406" t="inlineStr"/>
@@ -6651,7 +6651,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B411" t="inlineStr"/>
@@ -6876,7 +6876,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B426" t="inlineStr"/>
@@ -6951,7 +6951,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B431" t="inlineStr"/>
@@ -7101,7 +7101,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B441" t="inlineStr"/>
@@ -7176,7 +7176,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B446" t="inlineStr"/>
@@ -7326,7 +7326,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B456" t="inlineStr"/>
@@ -7401,7 +7401,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B461" t="inlineStr"/>
@@ -7626,7 +7626,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B476" t="inlineStr"/>
@@ -7701,7 +7701,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B481" t="inlineStr"/>
@@ -7776,7 +7776,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B486" t="inlineStr"/>
@@ -7851,7 +7851,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B491" t="inlineStr"/>
@@ -7926,7 +7926,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B496" t="inlineStr"/>
@@ -8151,7 +8151,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B511" t="inlineStr"/>
@@ -8226,7 +8226,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Historical Tours', 'City Tours']</t>
         </is>
       </c>
       <c r="B516" t="inlineStr"/>
@@ -8301,7 +8301,7 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Category: ['Wildlife Tours', 'Historical Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Wildlife Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B521" t="inlineStr"/>
@@ -8376,7 +8376,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B526" t="inlineStr"/>
@@ -8526,7 +8526,7 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B536" t="inlineStr"/>
@@ -8601,7 +8601,7 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B541" t="inlineStr"/>
@@ -8676,7 +8676,7 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B546" t="inlineStr"/>
@@ -8901,7 +8901,7 @@
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B561" t="inlineStr"/>
@@ -8976,7 +8976,7 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B566" t="inlineStr"/>
@@ -9201,7 +9201,7 @@
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B581" t="inlineStr"/>
@@ -9276,7 +9276,7 @@
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B586" t="inlineStr"/>
@@ -9351,7 +9351,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Cultural Cruises', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Cruises', 'Dining Experiences', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B591" t="inlineStr"/>
@@ -9426,7 +9426,7 @@
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>Category: ['Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B596" t="inlineStr"/>
@@ -9501,7 +9501,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B601" t="inlineStr"/>
@@ -9576,7 +9576,7 @@
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B606" t="inlineStr"/>
@@ -9651,7 +9651,7 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B611" t="inlineStr"/>
@@ -9726,7 +9726,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B616" t="inlineStr"/>
@@ -9801,7 +9801,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B621" t="inlineStr"/>
@@ -9951,7 +9951,7 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Eco-Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B631" t="inlineStr"/>
@@ -10026,7 +10026,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B636" t="inlineStr"/>
@@ -10101,7 +10101,7 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B641" t="inlineStr"/>
@@ -10176,7 +10176,7 @@
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B646" t="inlineStr"/>
@@ -10251,7 +10251,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B651" t="inlineStr"/>
@@ -10326,7 +10326,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B656" t="inlineStr"/>
@@ -10476,7 +10476,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B666" t="inlineStr"/>
@@ -10551,7 +10551,7 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B671" t="inlineStr"/>
@@ -10776,7 +10776,7 @@
     <row r="686">
       <c r="A686" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B686" t="inlineStr"/>
@@ -10851,7 +10851,7 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B691" t="inlineStr"/>
@@ -11001,7 +11001,7 @@
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B701" t="inlineStr"/>
@@ -11226,7 +11226,7 @@
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B716" t="inlineStr"/>
@@ -11301,7 +11301,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B721" t="inlineStr"/>
@@ -11376,7 +11376,7 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B726" t="inlineStr"/>
@@ -11601,7 +11601,7 @@
     <row r="741">
       <c r="A741" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B741" t="inlineStr"/>
@@ -11676,7 +11676,7 @@
     <row r="746">
       <c r="A746" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B746" t="inlineStr"/>
@@ -11751,7 +11751,7 @@
     <row r="751">
       <c r="A751" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums', 'Cultural Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B751" t="inlineStr"/>
@@ -11826,7 +11826,7 @@
     <row r="756">
       <c r="A756" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B756" t="inlineStr"/>
@@ -11901,7 +11901,7 @@
     <row r="761">
       <c r="A761" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B761" t="inlineStr"/>
@@ -12201,7 +12201,7 @@
     <row r="781">
       <c r="A781" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B781" t="inlineStr"/>
@@ -12276,7 +12276,7 @@
     <row r="786">
       <c r="A786" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B786" t="inlineStr"/>
@@ -12501,7 +12501,7 @@
     <row r="801">
       <c r="A801" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B801" t="inlineStr"/>
@@ -12576,7 +12576,7 @@
     <row r="806">
       <c r="A806" t="inlineStr">
         <is>
-          <t>Category: ['Eco-Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B806" t="inlineStr"/>
@@ -12651,7 +12651,7 @@
     <row r="811">
       <c r="A811" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B811" t="inlineStr"/>
@@ -12726,7 +12726,7 @@
     <row r="816">
       <c r="A816" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B816" t="inlineStr"/>
@@ -12801,7 +12801,7 @@
     <row r="821">
       <c r="A821" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B821" t="inlineStr"/>
@@ -12876,7 +12876,7 @@
     <row r="826">
       <c r="A826" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B826" t="inlineStr"/>
@@ -13026,7 +13026,7 @@
     <row r="836">
       <c r="A836" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B836" t="inlineStr"/>
@@ -13251,7 +13251,7 @@
     <row r="851">
       <c r="A851" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B851" t="inlineStr"/>
@@ -13326,7 +13326,7 @@
     <row r="856">
       <c r="A856" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B856" t="inlineStr"/>
@@ -13401,7 +13401,7 @@
     <row r="861">
       <c r="A861" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B861" t="inlineStr"/>
@@ -13701,7 +13701,7 @@
     <row r="881">
       <c r="A881" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B881" t="inlineStr"/>
@@ -13851,7 +13851,7 @@
     <row r="891">
       <c r="A891" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B891" t="inlineStr"/>
@@ -14001,7 +14001,7 @@
     <row r="901">
       <c r="A901" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B901" t="inlineStr"/>
@@ -14151,7 +14151,7 @@
     <row r="911">
       <c r="A911" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B911" t="inlineStr"/>
@@ -14451,7 +14451,7 @@
     <row r="931">
       <c r="A931" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B931" t="inlineStr"/>
@@ -14526,7 +14526,7 @@
     <row r="936">
       <c r="A936" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B936" t="inlineStr"/>
@@ -14601,7 +14601,7 @@
     <row r="941">
       <c r="A941" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B941" t="inlineStr"/>
@@ -14676,7 +14676,7 @@
     <row r="946">
       <c r="A946" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Hiking']</t>
+          <t>Category: ['Hiking', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B946" t="inlineStr"/>
@@ -14751,7 +14751,7 @@
     <row r="951">
       <c r="A951" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B951" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
     <row r="959">
       <c r="A959" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 16168P9</t>
+          <t>PRODUCTCODE: 9866P30</t>
         </is>
       </c>
       <c r="B959" t="inlineStr"/>
@@ -14887,7 +14887,7 @@
     <row r="960">
       <c r="A960" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is a national Park and place of pilgrimage from millions of people around the world. Join your tour guide in an air-conditioned private vehicle in Barcelona for a drive up the mountain. Enjoy the view and hear about Montserrat’s Basilica and Monastery, home of the Black Madonna.</t>
+          <t>Summarized description: Take a tour through beautiful countryside towards Girona. This old city already existed before the Roman Empire and contains a lot of history. In Figueres, Dalí's hometown, you will visit the Dalí Museum.</t>
         </is>
       </c>
       <c r="B960" t="inlineStr"/>
@@ -14902,7 +14902,7 @@
     <row r="961">
       <c r="A961" t="inlineStr">
         <is>
-          <t>Title: Montserrat Monastery Half Day Experience from Barcelona</t>
+          <t>Title: Girona &amp; Dali Museum Small Group Tour with Pick-up from Barcelona</t>
         </is>
       </c>
       <c r="B961" t="inlineStr"/>
@@ -14917,7 +14917,7 @@
     <row r="962">
       <c r="A962" t="inlineStr">
         <is>
-          <t>TotalReviews: 2689</t>
+          <t>TotalReviews: 1729</t>
         </is>
       </c>
       <c r="B962" t="inlineStr"/>
@@ -15007,7 +15007,7 @@
     <row r="968">
       <c r="A968" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Hiking', 'Culinary Tours']</t>
+          <t>Category: ['Hiking', 'Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B968" t="inlineStr"/>
@@ -15157,7 +15157,7 @@
     <row r="978">
       <c r="A978" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B978" t="inlineStr"/>
@@ -15232,7 +15232,7 @@
     <row r="983">
       <c r="A983" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B983" t="inlineStr"/>
@@ -15247,7 +15247,7 @@
     <row r="984">
       <c r="A984" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P42</t>
+          <t>PRODUCTCODE: 3731P216</t>
         </is>
       </c>
       <c r="B984" t="inlineStr"/>
@@ -15262,7 +15262,7 @@
     <row r="985">
       <c r="A985" t="inlineStr">
         <is>
-          <t>Summarized description: Travel through history in Girona before getting immersed in the pristine scenery of Costa Brava. Go on this private tour and enjoy a private pick-up service by your guide, at your accommodation in Barcelona.</t>
+          <t>Summarized description: Montserrat is home to the Benedictine Monastery and the Black Madonna statue. Delight your senses with a tasting of local liquor and pastries at Finca Ca n'Estella winery.</t>
         </is>
       </c>
       <c r="B985" t="inlineStr"/>
@@ -15277,7 +15277,7 @@
     <row r="986">
       <c r="A986" t="inlineStr">
         <is>
-          <t>Title: Private Girona and Costa Brava Tour with Hotel pick-up from Barcelona</t>
+          <t>Title: Montserrat Tour from Barcelona with Lunch &amp; Wine Tasting Option</t>
         </is>
       </c>
       <c r="B986" t="inlineStr"/>
@@ -15292,7 +15292,7 @@
     <row r="987">
       <c r="A987" t="inlineStr">
         <is>
-          <t>TotalReviews: 139</t>
+          <t>TotalReviews: 133</t>
         </is>
       </c>
       <c r="B987" t="inlineStr"/>
@@ -15307,7 +15307,7 @@
     <row r="988">
       <c r="A988" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B988" t="inlineStr"/>
@@ -15382,7 +15382,7 @@
     <row r="993">
       <c r="A993" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B993" t="inlineStr"/>
@@ -15682,7 +15682,7 @@
     <row r="1013">
       <c r="A1013" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1013" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
     <row r="1014">
       <c r="A1014" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6874P161</t>
+          <t>PRODUCTCODE: 6874P159</t>
         </is>
       </c>
       <c r="B1014" t="inlineStr"/>
@@ -15712,7 +15712,7 @@
     <row r="1015">
       <c r="A1015" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the old walls, the Eiffel Bridge and the best Game of Thrones shooting locations. Stroll around the Jewish quarter, one of the best-preserved in the world and visit the Arab baths.</t>
+          <t>Summarized description: Experience Barcelona’s holy mountain, Montserrat, on a half day tour. Learn about the cornerstone of the Catalan culture, history, nature and spirituality. Enjoy an exclusive guided tour in the basilica.</t>
         </is>
       </c>
       <c r="B1015" t="inlineStr"/>
@@ -15727,7 +15727,7 @@
     <row r="1016">
       <c r="A1016" t="inlineStr">
         <is>
-          <t>Title: Girona Guided Tour with High speed Train from Barcelona</t>
+          <t>Title: Montserrat Monastery Visit &amp; Local tasting from Barcelona</t>
         </is>
       </c>
       <c r="B1016" t="inlineStr"/>
@@ -15742,7 +15742,7 @@
     <row r="1017">
       <c r="A1017" t="inlineStr">
         <is>
-          <t>TotalReviews: 52</t>
+          <t>TotalReviews: 58</t>
         </is>
       </c>
       <c r="B1017" t="inlineStr"/>
@@ -15757,7 +15757,7 @@
     <row r="1018">
       <c r="A1018" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1018" t="inlineStr"/>
@@ -15772,7 +15772,7 @@
     <row r="1019">
       <c r="A1019" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 21035P4</t>
+          <t>PRODUCTCODE: 6874P161</t>
         </is>
       </c>
       <c r="B1019" t="inlineStr"/>
@@ -15787,7 +15787,7 @@
     <row r="1020">
       <c r="A1020" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the Costa Brava and medieval Girona on this small-group day trip. Enjoy some hiking in the coastal area and walk through the historic city. Discover the Jewish quarter and medieval cathedral of GironA.</t>
+          <t>Summarized description: Discover the old walls, the Eiffel Bridge and the best Game of Thrones shooting locations. Stroll around the Jewish quarter, one of the best-preserved in the world and visit the Arab baths.</t>
         </is>
       </c>
       <c r="B1020" t="inlineStr"/>
@@ -15802,7 +15802,7 @@
     <row r="1021">
       <c r="A1021" t="inlineStr">
         <is>
-          <t>Title: Costa Brava and Girona Small Group Easy Hike from Barcelona</t>
+          <t>Title: Girona Guided Tour with High speed Train from Barcelona</t>
         </is>
       </c>
       <c r="B1021" t="inlineStr"/>
@@ -15817,7 +15817,7 @@
     <row r="1022">
       <c r="A1022" t="inlineStr">
         <is>
-          <t>TotalReviews: 36</t>
+          <t>TotalReviews: 52</t>
         </is>
       </c>
       <c r="B1022" t="inlineStr"/>
@@ -15832,7 +15832,7 @@
     <row r="1023">
       <c r="A1023" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Hiking']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1023" t="inlineStr"/>
@@ -15847,7 +15847,7 @@
     <row r="1024">
       <c r="A1024" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 14014P2</t>
+          <t>PRODUCTCODE: 14218P6</t>
         </is>
       </c>
       <c r="B1024" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
     <row r="1025">
       <c r="A1025" t="inlineStr">
         <is>
-          <t>Summarized description: Hiking trip to Montserrat. Hike to one of the most famous and iconic peaks of the mountain range. Energy snack, lunch and water are included.</t>
+          <t>Summarized description: 7-hour private tour of Montserrat with lunch included. Enjoy a typical breakfast, visit the Santa María de Mont Serrat Abbey and see the Virgin of MontSerrat. After the experience an optional bonus of some hiking in this amazing mountain is also included.</t>
         </is>
       </c>
       <c r="B1025" t="inlineStr"/>
@@ -15877,7 +15877,7 @@
     <row r="1026">
       <c r="A1026" t="inlineStr">
         <is>
-          <t>Title: Montserrat Land of Shrines - One Day Small Group Hiking Tour from Barcelona</t>
+          <t>Title: Montserrat 7-hour Private Tour from Barcelona with Lunch</t>
         </is>
       </c>
       <c r="B1026" t="inlineStr"/>
@@ -15892,7 +15892,7 @@
     <row r="1027">
       <c r="A1027" t="inlineStr">
         <is>
-          <t>TotalReviews: 36</t>
+          <t>TotalReviews: 46</t>
         </is>
       </c>
       <c r="B1027" t="inlineStr"/>
@@ -15907,7 +15907,7 @@
     <row r="1028">
       <c r="A1028" t="inlineStr">
         <is>
-          <t>Category: ['Hiking']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1028" t="inlineStr"/>
@@ -15922,7 +15922,7 @@
     <row r="1029">
       <c r="A1029" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 14014P1</t>
+          <t>PRODUCTCODE: 14014P2</t>
         </is>
       </c>
       <c r="B1029" t="inlineStr"/>
@@ -15937,7 +15937,7 @@
     <row r="1030">
       <c r="A1030" t="inlineStr">
         <is>
-          <t>Summarized description: 6.5-hour tour to Montserrat from Barcelona. Explore theBasilica ofMontserrat, take the glass-top St. Joan funicular to the middle part of the mountain range. Hike past authentic "hermitages" (retreats)</t>
+          <t>Summarized description: Hiking trip to Montserrat. Hike to one of the most famous and iconic peaks of the mountain range. Energy snack, lunch and water are included.</t>
         </is>
       </c>
       <c r="B1030" t="inlineStr"/>
@@ -15952,7 +15952,7 @@
     <row r="1031">
       <c r="A1031" t="inlineStr">
         <is>
-          <t>Title: Historical Montserrat Half-Day Hiking Tour from Barcelona</t>
+          <t>Title: Montserrat Land of Shrines - One Day Small Group Hiking Tour from Barcelona</t>
         </is>
       </c>
       <c r="B1031" t="inlineStr"/>
@@ -15967,7 +15967,7 @@
     <row r="1032">
       <c r="A1032" t="inlineStr">
         <is>
-          <t>TotalReviews: 20</t>
+          <t>TotalReviews: 36</t>
         </is>
       </c>
       <c r="B1032" t="inlineStr"/>
@@ -15982,7 +15982,7 @@
     <row r="1033">
       <c r="A1033" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Hiking']</t>
+          <t>Category: ['Hiking']</t>
         </is>
       </c>
       <c r="B1033" t="inlineStr"/>
@@ -15997,7 +15997,7 @@
     <row r="1034">
       <c r="A1034" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 3142MONT_P</t>
+          <t>PRODUCTCODE: 9866P50</t>
         </is>
       </c>
       <c r="B1034" t="inlineStr"/>
@@ -16012,7 +16012,7 @@
     <row r="1035">
       <c r="A1035" t="inlineStr">
         <is>
-          <t>Summarized description: Private day trip from Barcelona to Montserrat. Enjoy stunning views of the area, see the famous 12th-century Black Virgin statue. Accompanied by your own private guide.</t>
+          <t>Summarized description: Dive into Catalan traditions by visiting the mythical mountain of Montserrat. Dive into the culture of the cava in a local cellar.</t>
         </is>
       </c>
       <c r="B1035" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
     <row r="1036">
       <c r="A1036" t="inlineStr">
         <is>
-          <t>Title: Private Montserrat Monastery with Wine and Cava Tasting Day Trip from Barcelona</t>
+          <t>Title: Private Montserrat and Cava Winery Tour with Hotel Pick Up from Barcelona</t>
         </is>
       </c>
       <c r="B1036" t="inlineStr"/>
@@ -16042,7 +16042,7 @@
     <row r="1037">
       <c r="A1037" t="inlineStr">
         <is>
-          <t>TotalReviews: 19</t>
+          <t>TotalReviews: 32</t>
         </is>
       </c>
       <c r="B1037" t="inlineStr"/>
@@ -16057,7 +16057,7 @@
     <row r="1038">
       <c r="A1038" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1038" t="inlineStr"/>
@@ -16072,7 +16072,7 @@
     <row r="1039">
       <c r="A1039" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 25359P18</t>
+          <t>PRODUCTCODE: 24380P146</t>
         </is>
       </c>
       <c r="B1039" t="inlineStr"/>
@@ -16087,7 +16087,7 @@
     <row r="1040">
       <c r="A1040" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is a small island off the coast of Catalonia. Visitors can tour a monastery and a family-run cava winery. Enjoy a farm-to-table lunch and see the bottling process firsthand.</t>
+          <t>Summarized description: Discover Montserrat during a private tour with a driver. See the mountain, the symbol of Christianity in Catalonia. Taste delicious local snacks.</t>
         </is>
       </c>
       <c r="B1040" t="inlineStr"/>
@@ -16102,7 +16102,7 @@
     <row r="1041">
       <c r="A1041" t="inlineStr">
         <is>
-          <t>Title: Montserrat and Cava Winery Full-Day Trip from Barcelona</t>
+          <t>Title: Private Day Trip to Montserrat with a Local from Barcelona</t>
         </is>
       </c>
       <c r="B1041" t="inlineStr"/>
@@ -16117,7 +16117,7 @@
     <row r="1042">
       <c r="A1042" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 30</t>
         </is>
       </c>
       <c r="B1042" t="inlineStr"/>
@@ -16132,7 +16132,7 @@
     <row r="1043">
       <c r="A1043" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Culinary Tours']</t>
         </is>
       </c>
       <c r="B1043" t="inlineStr"/>
@@ -16147,7 +16147,7 @@
     <row r="1044">
       <c r="A1044" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2512P39</t>
+          <t>PRODUCTCODE: 3142GAUDI_P</t>
         </is>
       </c>
       <c r="B1044" t="inlineStr"/>
@@ -16162,7 +16162,7 @@
     <row r="1045">
       <c r="A1045" t="inlineStr">
         <is>
-          <t>Summarized description: Experience the beautiful landscape of the Montserrat mountains near Barcelona. Enjoy the breath taking views when you take a ride on the rack railway. Be part of a full guided tour which will take you to the Benedictine Monastery.</t>
+          <t>Summarized description: Montserrat is one of Barcelona's most iconic attractions. The modernist architecture of Antoni Gaudí is part of the Montserrat experience.</t>
         </is>
       </c>
       <c r="B1045" t="inlineStr"/>
@@ -16177,7 +16177,7 @@
     <row r="1046">
       <c r="A1046" t="inlineStr">
         <is>
-          <t>Title:  Easy Montserrat. Half-Day Trip from Barcelona</t>
+          <t>Title: Private Montserrat, Gaudi and Modernism Day Trip from Barcelona</t>
         </is>
       </c>
       <c r="B1046" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
     <row r="1047">
       <c r="A1047" t="inlineStr">
         <is>
-          <t>TotalReviews: 13</t>
+          <t>TotalReviews: 20</t>
         </is>
       </c>
       <c r="B1047" t="inlineStr"/>
@@ -16207,7 +16207,7 @@
     <row r="1048">
       <c r="A1048" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours']</t>
         </is>
       </c>
       <c r="B1048" t="inlineStr"/>
@@ -16222,7 +16222,7 @@
     <row r="1049">
       <c r="A1049" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8648P18</t>
+          <t>PRODUCTCODE: 6899MONTCAVES</t>
         </is>
       </c>
       <c r="B1049" t="inlineStr"/>
@@ -16237,7 +16237,7 @@
     <row r="1050">
       <c r="A1050" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is the most significant mountain in Catalonia. It is well known as the site of the Benedictine abbey, Santa Maria de Montserrat.</t>
+          <t>Summarized description: 8-hour tour from Barcelona to Montserrat Abbey with an expert guide. Learn about the monastery and explore the stalagmites inside the mountain.</t>
         </is>
       </c>
       <c r="B1050" t="inlineStr"/>
@@ -16252,7 +16252,7 @@
     <row r="1051">
       <c r="A1051" t="inlineStr">
         <is>
-          <t>Title: Half Day Tour to Montserrat at your Own Pace from Barcelona</t>
+          <t>Title: Montserrat Abbey and Caves Private Tour from Barcelona</t>
         </is>
       </c>
       <c r="B1051" t="inlineStr"/>
@@ -16267,7 +16267,7 @@
     <row r="1052">
       <c r="A1052" t="inlineStr">
         <is>
-          <t>TotalReviews: 11</t>
+          <t>TotalReviews: 19</t>
         </is>
       </c>
       <c r="B1052" t="inlineStr"/>
@@ -16282,7 +16282,7 @@
     <row r="1053">
       <c r="A1053" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1053" t="inlineStr"/>
@@ -16297,7 +16297,7 @@
     <row r="1054">
       <c r="A1054" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8648P19</t>
+          <t>PRODUCTCODE: 25359P18</t>
         </is>
       </c>
       <c r="B1054" t="inlineStr"/>
@@ -16312,7 +16312,7 @@
     <row r="1055">
       <c r="A1055" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is one of the most interesting places near Barcelona. Visit its Magic Mountain and the Montserrat Museum which is a veritable treasure trove of works of art.</t>
+          <t>Summarized description: Montserrat is a small island off the coast of Catalonia. Visitors can tour a monastery and a family-run cava winery. Enjoy a farm-to-table lunch and see the bottling process firsthand.</t>
         </is>
       </c>
       <c r="B1055" t="inlineStr"/>
@@ -16327,7 +16327,7 @@
     <row r="1056">
       <c r="A1056" t="inlineStr">
         <is>
-          <t>Title: Half Day Tour to Montserrat with Museum Ticket from Barcelona</t>
+          <t>Title: Montserrat and Cava Winery Full-Day Trip from Barcelona</t>
         </is>
       </c>
       <c r="B1056" t="inlineStr"/>
@@ -16342,7 +16342,7 @@
     <row r="1057">
       <c r="A1057" t="inlineStr">
         <is>
-          <t>TotalReviews: 10</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B1057" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
     <row r="1058">
       <c r="A1058" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1058" t="inlineStr"/>
@@ -16372,7 +16372,7 @@
     <row r="1059">
       <c r="A1059" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8648P17</t>
+          <t>PRODUCTCODE: 2512P39</t>
         </is>
       </c>
       <c r="B1059" t="inlineStr"/>
@@ -16387,7 +16387,7 @@
     <row r="1060">
       <c r="A1060" t="inlineStr">
         <is>
-          <t>Summarized description: Girona is one of the oldest and most fascinating cities of Catalonia. You will have a free time to enjoy on your own this visit to Girona.</t>
+          <t>Summarized description: Experience the beautiful landscape of the Montserrat mountains near Barcelona. Enjoy the breath taking views when you take a ride on the rack railway. Be part of a full guided tour which will take you to the Benedictine Monastery.</t>
         </is>
       </c>
       <c r="B1060" t="inlineStr"/>
@@ -16402,7 +16402,7 @@
     <row r="1061">
       <c r="A1061" t="inlineStr">
         <is>
-          <t>Title: Day Trip to Girona with Walking Tour from Barcelona</t>
+          <t>Title:  Easy Montserrat. Half-Day Trip from Barcelona</t>
         </is>
       </c>
       <c r="B1061" t="inlineStr"/>
@@ -16417,7 +16417,7 @@
     <row r="1062">
       <c r="A1062" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 13</t>
         </is>
       </c>
       <c r="B1062" t="inlineStr"/>
@@ -16432,7 +16432,7 @@
     <row r="1063">
       <c r="A1063" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1063" t="inlineStr"/>
@@ -16447,7 +16447,7 @@
     <row r="1064">
       <c r="A1064" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8648P20</t>
+          <t>PRODUCTCODE: 8648P18</t>
         </is>
       </c>
       <c r="B1064" t="inlineStr"/>
@@ -16462,7 +16462,7 @@
     <row r="1065">
       <c r="A1065" t="inlineStr">
         <is>
-          <t>Summarized description: Visit Montserrat is a unique wonder in Catalonia and in the world. Sant Joan Funicular Railway offers a unique experience with the best panoramic bird’s-eye views of the mountain and the Monastery.</t>
+          <t>Summarized description: Montserrat is the most significant mountain in Catalonia. It is well known as the site of the Benedictine abbey, Santa Maria de Montserrat.</t>
         </is>
       </c>
       <c r="B1065" t="inlineStr"/>
@@ -16477,7 +16477,7 @@
     <row r="1066">
       <c r="A1066" t="inlineStr">
         <is>
-          <t>Title: Half Day Tour to Montserrat with Cog-Wheel from Barcelona</t>
+          <t>Title: Half Day Tour to Montserrat at your Own Pace from Barcelona</t>
         </is>
       </c>
       <c r="B1066" t="inlineStr"/>
@@ -16492,7 +16492,7 @@
     <row r="1067">
       <c r="A1067" t="inlineStr">
         <is>
-          <t>TotalReviews: 9</t>
+          <t>TotalReviews: 11</t>
         </is>
       </c>
       <c r="B1067" t="inlineStr"/>
@@ -16507,7 +16507,7 @@
     <row r="1068">
       <c r="A1068" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1068" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
     <row r="1069">
       <c r="A1069" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 16168P25</t>
+          <t>PRODUCTCODE: 8648P16</t>
         </is>
       </c>
       <c r="B1069" t="inlineStr"/>
@@ -16537,7 +16537,7 @@
     <row r="1070">
       <c r="A1070" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is a place of pilgrimage from millions of people around the world. Enjoy the views and 45 minutes guided tour about Montserrat’s Basilica and Monastery.</t>
+          <t>Summarized description: Girona Figueres from Barcelona is an unmissable experience. The Dalí Museum is one of the most fascinating museums in the world.</t>
         </is>
       </c>
       <c r="B1070" t="inlineStr"/>
@@ -16552,7 +16552,7 @@
     <row r="1071">
       <c r="A1071" t="inlineStr">
         <is>
-          <t>Title: Half-Day Private Tour of Montserrat from Barcelona</t>
+          <t>Title: Day trip to Girona and Figueres with Dali Museum included from Barcelona</t>
         </is>
       </c>
       <c r="B1071" t="inlineStr"/>
@@ -16567,7 +16567,7 @@
     <row r="1072">
       <c r="A1072" t="inlineStr">
         <is>
-          <t>TotalReviews: 8</t>
+          <t>TotalReviews: 10</t>
         </is>
       </c>
       <c r="B1072" t="inlineStr"/>
@@ -16582,7 +16582,7 @@
     <row r="1073">
       <c r="A1073" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1073" t="inlineStr"/>
@@ -16597,7 +16597,7 @@
     <row r="1074">
       <c r="A1074" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 9866P49</t>
+          <t>PRODUCTCODE: 24380P453</t>
         </is>
       </c>
       <c r="B1074" t="inlineStr"/>
@@ -16612,7 +16612,7 @@
     <row r="1075">
       <c r="A1075" t="inlineStr">
         <is>
-          <t>Summarized description: Dive in the Catalan culture myths in a classic visit to the Magic Mountain of Montserrat. Spend one morning in the most mysterious and magical site of Catalonia to a unique natural monument.</t>
+          <t>Summarized description: Visit the beautiful medieval town of Girona, a town full of amazing views and fascinating history. Stroll through its narrow streets and explore local hotspots while you enjoy the charming atmosphere of this historical town.</t>
         </is>
       </c>
       <c r="B1075" t="inlineStr"/>
@@ -16627,7 +16627,7 @@
     <row r="1076">
       <c r="A1076" t="inlineStr">
         <is>
-          <t>Title: Half Day Montserrat Private Tour From Barcelona</t>
+          <t>Title: Private Medieval Day Trip to Girona with a Local</t>
         </is>
       </c>
       <c r="B1076" t="inlineStr"/>
@@ -16642,7 +16642,7 @@
     <row r="1077">
       <c r="A1077" t="inlineStr">
         <is>
-          <t>TotalReviews: 6</t>
+          <t>TotalReviews: 10</t>
         </is>
       </c>
       <c r="B1077" t="inlineStr"/>
@@ -16657,7 +16657,7 @@
     <row r="1078">
       <c r="A1078" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1078" t="inlineStr"/>
@@ -16672,7 +16672,7 @@
     <row r="1079">
       <c r="A1079" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 406570P25</t>
+          <t>PRODUCTCODE: 56823P22</t>
         </is>
       </c>
       <c r="B1079" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
     <row r="1080">
       <c r="A1080" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is a multi-peaked mountain range near Barcelona, in Catalonia. It is well known as the site of the Benedictine abbey, Santa Maria de Montserrat. The Benedictine Santa Maria monastery is over 1,000 years old.</t>
+          <t>Summarized description: Many of Game of Thrones key moments have been shot in Girona. Take a tour of the historic town to see some of the most famous sights in Spain.</t>
         </is>
       </c>
       <c r="B1080" t="inlineStr"/>
@@ -16702,7 +16702,7 @@
     <row r="1081">
       <c r="A1081" t="inlineStr">
         <is>
-          <t>Title:  Private Tour from Barcelona to Monserrat</t>
+          <t>Title: Girona Express with Game of Thrones Locations from Barcelona</t>
         </is>
       </c>
       <c r="B1081" t="inlineStr"/>
@@ -16717,7 +16717,7 @@
     <row r="1082">
       <c r="A1082" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 10</t>
         </is>
       </c>
       <c r="B1082" t="inlineStr"/>
@@ -16732,7 +16732,7 @@
     <row r="1083">
       <c r="A1083" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1083" t="inlineStr"/>
@@ -16747,7 +16747,7 @@
     <row r="1084">
       <c r="A1084" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 35099P7</t>
+          <t>PRODUCTCODE: 8648P17</t>
         </is>
       </c>
       <c r="B1084" t="inlineStr"/>
@@ -16762,7 +16762,7 @@
     <row r="1085">
       <c r="A1085" t="inlineStr">
         <is>
-          <t>Summarized description: Hiking Montserrat is a unique experience and a different way to admire the landscape. With this Eco-friendly transfer, by railway from Barcelona, you’ll diminish your ecological footprint with zero CO2 emissions.</t>
+          <t>Summarized description: Girona is one of the oldest and most fascinating cities of Catalonia. You will have a free time to enjoy on your own this visit to Girona.</t>
         </is>
       </c>
       <c r="B1085" t="inlineStr"/>
@@ -16777,7 +16777,7 @@
     <row r="1086">
       <c r="A1086" t="inlineStr">
         <is>
-          <t>Title: Eco-friendly Montserrat Hiking from Barcelona</t>
+          <t>Title: Day Trip to Girona with Walking Tour from Barcelona</t>
         </is>
       </c>
       <c r="B1086" t="inlineStr"/>
@@ -16792,7 +16792,7 @@
     <row r="1087">
       <c r="A1087" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1087" t="inlineStr"/>
@@ -16807,7 +16807,7 @@
     <row r="1088">
       <c r="A1088" t="inlineStr">
         <is>
-          <t>Category: ['Hiking', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1088" t="inlineStr"/>
@@ -16822,7 +16822,7 @@
     <row r="1089">
       <c r="A1089" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 161628P2</t>
+          <t>PRODUCTCODE: 8648P20</t>
         </is>
       </c>
       <c r="B1089" t="inlineStr"/>
@@ -16837,7 +16837,7 @@
     <row r="1090">
       <c r="A1090" t="inlineStr">
         <is>
-          <t>Summarized description: Take a private Day Trip to Montserrat Mountain and enjoy some of the most beautiful sceneries in Catalonia. The tour is completely customizable, so you can choose how long you wish to spend on each location as well as make extra stops if you like.</t>
+          <t>Summarized description: Visit Montserrat is a unique wonder in Catalonia and in the world. Sant Joan Funicular Railway offers a unique experience with the best panoramic bird’s-eye views of the mountain and the Monastery.</t>
         </is>
       </c>
       <c r="B1090" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
     <row r="1091">
       <c r="A1091" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Private Day Trip from Barcelona to Montserrat </t>
+          <t>Title: Half Day Tour to Montserrat with Cog-Wheel from Barcelona</t>
         </is>
       </c>
       <c r="B1091" t="inlineStr"/>
@@ -16867,7 +16867,7 @@
     <row r="1092">
       <c r="A1092" t="inlineStr">
         <is>
-          <t>TotalReviews: 5</t>
+          <t>TotalReviews: 9</t>
         </is>
       </c>
       <c r="B1092" t="inlineStr"/>
@@ -16882,7 +16882,7 @@
     <row r="1093">
       <c r="A1093" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours']</t>
+          <t>Category: ['Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1093" t="inlineStr"/>
@@ -16897,7 +16897,7 @@
     <row r="1094">
       <c r="A1094" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 112780P20</t>
+          <t>PRODUCTCODE: 16168P25</t>
         </is>
       </c>
       <c r="B1094" t="inlineStr"/>
@@ -16912,7 +16912,7 @@
     <row r="1095">
       <c r="A1095" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is a unique mountain formation, which has no analogs in the whole world. Spoil yourself with a luxury Private day trip from Barcelona to Montserrat.</t>
+          <t>Summarized description: Montserrat is a place of pilgrimage from millions of people around the world. Enjoy the views and 45 minutes guided tour about Montserrat’s Basilica and Monastery.</t>
         </is>
       </c>
       <c r="B1095" t="inlineStr"/>
@@ -16927,7 +16927,7 @@
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Title: Montserrat Private Day Trip with Pick Up from Barcelona</t>
+          <t>Title: Half-Day Private Tour of Montserrat from Barcelona</t>
         </is>
       </c>
       <c r="B1096" t="inlineStr"/>
@@ -16942,7 +16942,7 @@
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>TotalReviews: 4</t>
+          <t>TotalReviews: 8</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr"/>
@@ -16957,7 +16957,7 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>Category: ['Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr"/>
@@ -16972,7 +16972,7 @@
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 10123P20</t>
+          <t>PRODUCTCODE: 8444P9</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr"/>
@@ -16987,7 +16987,7 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>Summarized description: The Benedict sanctuary of Montserrat, founded in 1025, is the mystical setting for the Virgin of Mont Serrat, the patron saint of Catalonia. In the afternoon, see the MontSerrat Mountains that rise majestically more than 4,000 feet above sea level.</t>
+          <t>Summarized description: Girona and the Dalí Museum are two of Catalonia's most popular attractions. Gain a better understanding of the works of Salvador Dalí at the whimsical Dalí Theatre-Museum in town Figueres.</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr"/>
@@ -17002,7 +17002,7 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>Title: Barcelona Highlights and Montserrat with Cogwheel Train Guided Day Tour</t>
+          <t>Title: Private tour: Dali Museum and Girona from Barcelona</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr"/>
@@ -17032,7 +17032,7 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr"/>
@@ -17047,7 +17047,7 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 14218P11</t>
+          <t>PRODUCTCODE: 24380P880</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr"/>
@@ -17062,7 +17062,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>Summarized description: Private walking tour in Girona. Discover the Old Town and learn about some of the myths and legends related to the city. Stroll down la Rambla. Will you recognize the construction by Eiffel near the Onyar Houses?</t>
+          <t>Summarized description: Girona is one of the most beautiful cities in the world. The city has a rich history and culture. It is a great place to visit with the help of local guides.</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -17077,7 +17077,7 @@
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Title: Private trip to the medieval city of Girona from Barcelona</t>
+          <t>Title: City Explorer: Girona Private Day Trip</t>
         </is>
       </c>
       <c r="B1106" t="inlineStr"/>
@@ -17092,7 +17092,7 @@
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>TotalReviews: 3</t>
+          <t>TotalReviews: 6</t>
         </is>
       </c>
       <c r="B1107" t="inlineStr"/>
@@ -17107,7 +17107,7 @@
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr"/>
@@ -17122,7 +17122,7 @@
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 419333P3</t>
+          <t>PRODUCTCODE: 161628P6</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr"/>
@@ -17137,7 +17137,7 @@
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>Summarized description: You can visit Montserrat, one of the most beautiful places in the world. It is home to one of Europe's oldest and most beautiful monasteries.</t>
+          <t>Summarized description: Girona is one of the main filming locations for "Game of Thrones" Take a tour with a local guide-driver picking you up from your hotel in Barcelona. Enjoy the scenic route to Girona mountain range.</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr"/>
@@ -17152,7 +17152,7 @@
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>Title: Montserrat Private Tour from Barcelona with Pick-up</t>
+          <t>Title: Private Day Trip From Barcelona to Girona</t>
         </is>
       </c>
       <c r="B1111" t="inlineStr"/>
@@ -17167,7 +17167,7 @@
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr"/>
@@ -17197,7 +17197,7 @@
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90894P56</t>
+          <t>PRODUCTCODE: 239937P35</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr"/>
@@ -17212,7 +17212,7 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>Summarized description: World-famous for its rocky geography, Montserrat beautiful scenery was declared National Park in 1987 to protect its natural and cultural wealth. Famous for its peculiar morphology, its name comes from the Catalan words Mont (mountain) and Serrat (serrated)</t>
+          <t>Summarized description: Stroll through the historic streets of Girona, visit the charming village of Pals, and explore the Costa Brava. Discover the monumental city of Gerona on this amazing tour. Feel transported to the medieval ages while strolling around its Jewish quarter.</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr"/>
@@ -17227,7 +17227,7 @@
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>Title: Enjoy Montserrat Morning Tour - Barcelona</t>
+          <t xml:space="preserve">Title: From Barcelona : Girona and Costa Brava Combo Tour (With Hotel Pickup) </t>
         </is>
       </c>
       <c r="B1116" t="inlineStr"/>
@@ -17242,7 +17242,7 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 5</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr"/>
@@ -17257,7 +17257,7 @@
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr"/>
@@ -17272,7 +17272,7 @@
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 2148SP005LF</t>
+          <t>PRODUCTCODE: 239937P45</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr"/>
@@ -17287,7 +17287,7 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>Summarized description:  Salvador Dali Museum at Figueres and the magical medieval town of Girona. Accompanied by your own private guide, you'll enjoy personalized attention.</t>
+          <t>Summarized description: Explore the beauty of Catalonia in this amazing 1-day tour to Girona and the Costa Brava. Explore 2,000 years of history with your knowledgeable local guide. Step into the Catalonian town of Gerona.</t>
         </is>
       </c>
       <c r="B1120" t="inlineStr"/>
@@ -17302,7 +17302,7 @@
     <row r="1121">
       <c r="A1121" t="inlineStr">
         <is>
-          <t>Title: Private Tour: Salvador Dali Museum at Figueres and Girona Day Trip from Barcelona</t>
+          <t>Title: From Barcelona : Girona and Costa Brava Day Trip (VIP Small Group)</t>
         </is>
       </c>
       <c r="B1121" t="inlineStr"/>
@@ -17317,7 +17317,7 @@
     <row r="1122">
       <c r="A1122" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1122" t="inlineStr"/>
@@ -17332,7 +17332,7 @@
     <row r="1123">
       <c r="A1123" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1123" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
     <row r="1124">
       <c r="A1124" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 17377P27</t>
+          <t>PRODUCTCODE: 172138P5</t>
         </is>
       </c>
       <c r="B1124" t="inlineStr"/>
@@ -17362,7 +17362,7 @@
     <row r="1125">
       <c r="A1125" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Girona and its Medieval beauty, rich Jewish heritage, and architectural and cultural relevance, on this Private Tour from Barcelona. Arrive in less than one hour and a half in a comfortable vehicle.</t>
+          <t>Summarized description: Girona is one of the filming sites of Game of Thrones. Follow in the footsteps of your favorite characters. Sample "King’s Hand" ice cream.</t>
         </is>
       </c>
       <c r="B1125" t="inlineStr"/>
@@ -17377,7 +17377,7 @@
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>Title: Private Girona Tour &amp; Costa Brava Beach + Seaside Lunch</t>
+          <t>Title: Girona Tour</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr"/>
@@ -17392,7 +17392,7 @@
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr"/>
@@ -17407,7 +17407,7 @@
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Entertainment']</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr"/>
@@ -17422,7 +17422,7 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 8647P223</t>
+          <t>PRODUCTCODE: 112780P20</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr"/>
@@ -17437,7 +17437,7 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>Summarized description: This 8-hour tour of Barcelona will cover the best and most important landmarks and main attractions of the city. Visit all locations at your time and pace. In the afternoon, complete your experience on a brief tour of Montserrat.</t>
+          <t>Summarized description: Montserrat is a unique mountain formation, which has no analogs in the whole world. Spoil yourself with a luxury Private day trip from Barcelona to Montserrat.</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr"/>
@@ -17452,7 +17452,7 @@
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>Title: Private Full Day City Tour of Barcelona and Monastery of Montserrat w/ pick up</t>
+          <t>Title: Montserrat Private Day Trip with Pick Up from Barcelona</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr"/>
@@ -17467,7 +17467,7 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr"/>
@@ -17482,7 +17482,7 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr"/>
@@ -17497,7 +17497,7 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 244199P39</t>
+          <t>PRODUCTCODE: 126139P6</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>Summarized description: Catalonia’s most emblematic mountain is just a few kilometers from Barcelona. Board the Railway Sant Joan to see the fascinating flora and fauna of the city. Take a soft walk through Montserrat Natural Park with the best professional guide.</t>
+          <t>Summarized description: Montserrat is one of the most iconic places in Catalonia. Enjoy the comfort of our transportation and the personalized attention of our expert guides. An excursion not to be missed!</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr"/>
@@ -17527,7 +17527,7 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>Title: From Barcelona : Montserrat Monastery &amp; Natural Park Hike Half Day Tour</t>
+          <t>Title: Private Tour from Barcelona to Montserrat (with guide)</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr"/>
@@ -17542,7 +17542,7 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>TotalReviews: 2</t>
+          <t>TotalReviews: 4</t>
         </is>
       </c>
       <c r="B1137" t="inlineStr"/>
@@ -17557,7 +17557,7 @@
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>Category: ['Wildlife Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr"/>
@@ -17572,7 +17572,7 @@
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 100247P5</t>
+          <t>PRODUCTCODE: 10123P20</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr"/>
@@ -17587,7 +17587,7 @@
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>Summarized description: Girona is a medieval town just a short train ride from Barcelona. Best known for its inclusion in Game of Thrones, it is home to the largest gothic nave for a cathedral in the world.</t>
+          <t>Summarized description: The Benedict sanctuary of Montserrat, founded in 1025, is the mystical setting for the Virgin of Mont Serrat, the patron saint of Catalonia. In the afternoon, see the MontSerrat Mountains that rise majestically more than 4,000 feet above sea level.</t>
         </is>
       </c>
       <c r="B1140" t="inlineStr"/>
@@ -17602,7 +17602,7 @@
     <row r="1141">
       <c r="A1141" t="inlineStr">
         <is>
-          <t>Title: Girona Day Trip</t>
+          <t>Title: Barcelona Highlights and Montserrat with Cogwheel Train Guided Day Tour</t>
         </is>
       </c>
       <c r="B1141" t="inlineStr"/>
@@ -17617,7 +17617,7 @@
     <row r="1142">
       <c r="A1142" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1142" t="inlineStr"/>
@@ -17632,7 +17632,7 @@
     <row r="1143">
       <c r="A1143" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1143" t="inlineStr"/>
@@ -17647,7 +17647,7 @@
     <row r="1144">
       <c r="A1144" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6899P7</t>
+          <t>PRODUCTCODE: 10123P21</t>
         </is>
       </c>
       <c r="B1144" t="inlineStr"/>
@@ -17662,7 +17662,7 @@
     <row r="1145">
       <c r="A1145" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is home to the world-famous Magic Mountain. The Salnitre's Caverns are an underground galleries that traverse the mountain. Montserrat Abbey is the historical Sanctuary towering on top of the rocky fingers.</t>
+          <t>Summarized description: Montserrat's strange forms, have given influence to the cavernous tectonics etchings of Gaudi’s architecture. The Royal Basilica provides the mystical backdrop to the famous 12th century Romanesque carving of the Verge Moreneta (the Black Madonna)</t>
         </is>
       </c>
       <c r="B1145" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
     <row r="1146">
       <c r="A1146" t="inlineStr">
         <is>
-          <t>Title: Montserrat Abbey and the Salnitre's Caverns: Small Group Tour from Barcelona</t>
+          <t>Title: Best of Gaudi Tour: Montserrat, Barcelona Artistic and Architecture Guided Day Tour</t>
         </is>
       </c>
       <c r="B1146" t="inlineStr"/>
@@ -17692,7 +17692,7 @@
     <row r="1147">
       <c r="A1147" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 3</t>
         </is>
       </c>
       <c r="B1147" t="inlineStr"/>
@@ -17707,7 +17707,7 @@
     <row r="1148">
       <c r="A1148" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1148" t="inlineStr"/>
@@ -17722,7 +17722,7 @@
     <row r="1149">
       <c r="A1149" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 17377P11</t>
+          <t>PRODUCTCODE: 419333P3</t>
         </is>
       </c>
       <c r="B1149" t="inlineStr"/>
@@ -17737,7 +17737,7 @@
     <row r="1150">
       <c r="A1150" t="inlineStr">
         <is>
-          <t>Summarized description: Explore Montserrat mountain, one of the most spectacular natural parks and spiritual spots in Catalonia. Head to a local restaurant to have a delicious three course meal. Then round out your day with a visit to a neighboring biodynamic winery.</t>
+          <t>Summarized description: You can visit Montserrat, one of the most beautiful places in the world. It is home to one of Europe's oldest and most beautiful monasteries.</t>
         </is>
       </c>
       <c r="B1150" t="inlineStr"/>
@@ -17752,7 +17752,7 @@
     <row r="1151">
       <c r="A1151" t="inlineStr">
         <is>
-          <t>Title: Full Day Guided Tour to Montserrat and Organic Winery from Barcelona</t>
+          <t>Title: Montserrat Private Tour from Barcelona with Pick-up</t>
         </is>
       </c>
       <c r="B1151" t="inlineStr"/>
@@ -17767,7 +17767,7 @@
     <row r="1152">
       <c r="A1152" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1152" t="inlineStr"/>
@@ -17782,7 +17782,7 @@
     <row r="1153">
       <c r="A1153" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1153" t="inlineStr"/>
@@ -17797,7 +17797,7 @@
     <row r="1154">
       <c r="A1154" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5728P15</t>
+          <t>PRODUCTCODE: 90894P56</t>
         </is>
       </c>
       <c r="B1154" t="inlineStr"/>
@@ -17812,7 +17812,7 @@
     <row r="1155">
       <c r="A1155" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is one of the most impressive mountains of Catalonia. Walk between the spectacular flora, impressive mountain formations while having amazing views. Learn everything about popular legends and great miracles of Montserrat.</t>
+          <t>Summarized description: World-famous for its rocky geography, Montserrat beautiful scenery was declared National Park in 1987 to protect its natural and cultural wealth. Famous for its peculiar morphology, its name comes from the Catalan words Mont (mountain) and Serrat (serrated)</t>
         </is>
       </c>
       <c r="B1155" t="inlineStr"/>
@@ -17827,7 +17827,7 @@
     <row r="1156">
       <c r="A1156" t="inlineStr">
         <is>
-          <t>Title: Private Montserrat Monastery and Natural Park Tour from Barcelona</t>
+          <t>Title: Enjoy Montserrat Morning Tour - Barcelona</t>
         </is>
       </c>
       <c r="B1156" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
     <row r="1157">
       <c r="A1157" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1157" t="inlineStr"/>
@@ -17857,7 +17857,7 @@
     <row r="1158">
       <c r="A1158" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Hiking']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1158" t="inlineStr"/>
@@ -17872,7 +17872,7 @@
     <row r="1159">
       <c r="A1159" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6874P131</t>
+          <t>PRODUCTCODE: 2148SP005LF</t>
         </is>
       </c>
       <c r="B1159" t="inlineStr"/>
@@ -17887,7 +17887,7 @@
     <row r="1160">
       <c r="A1160" t="inlineStr">
         <is>
-          <t>Summarized description: Experience Barcelona’s holy mountain, Montserrat, riding the funicular as far as the Natural Park, and then ascending to the top during a 1-hour trek. Enjoy sightseeing Barcelona's highlights on a walking tour through the Historic Center, going through the streets of the Gothic Quarter.</t>
+          <t>Summarized description:  Salvador Dali Museum at Figueres and the magical medieval town of Girona. Accompanied by your own private guide, you'll enjoy personalized attention.</t>
         </is>
       </c>
       <c r="B1160" t="inlineStr"/>
@@ -17902,7 +17902,7 @@
     <row r="1161">
       <c r="A1161" t="inlineStr">
         <is>
-          <t>Title: Barcelona City Tour &amp; Montserrat Hiking with Monastery.</t>
+          <t>Title: Private Tour: Salvador Dali Museum at Figueres and Girona Day Trip from Barcelona</t>
         </is>
       </c>
       <c r="B1161" t="inlineStr"/>
@@ -17917,7 +17917,7 @@
     <row r="1162">
       <c r="A1162" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1162" t="inlineStr"/>
@@ -17932,7 +17932,7 @@
     <row r="1163">
       <c r="A1163" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Historical Tours', 'Hiking']</t>
+          <t>Category: ['City Tours', 'Museums', 'Cultural Tours']</t>
         </is>
       </c>
       <c r="B1163" t="inlineStr"/>
@@ -17947,7 +17947,7 @@
     <row r="1164">
       <c r="A1164" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 394433P2</t>
+          <t>PRODUCTCODE: 8647P223</t>
         </is>
       </c>
       <c r="B1164" t="inlineStr"/>
@@ -17962,7 +17962,7 @@
     <row r="1165">
       <c r="A1165" t="inlineStr">
         <is>
-          <t>Summarized description: We will see the Abbey and the Black Virgin for free and without other tourists. We will visit an audiovisual and the Montserrat Museum, with works by Dalí, Picasso, Miró, etc.</t>
+          <t>Summarized description: This 8-hour tour of Barcelona will cover the best and most important landmarks and main attractions of the city. Visit all locations at your time and pace. In the afternoon, complete your experience on a brief tour of Montserrat.</t>
         </is>
       </c>
       <c r="B1165" t="inlineStr"/>
@@ -17977,7 +17977,7 @@
     <row r="1166">
       <c r="A1166" t="inlineStr">
         <is>
-          <t>Title: Private tour to Montserrat from Barcelona</t>
+          <t>Title: Private Full Day City Tour of Barcelona and Monastery of Montserrat w/ pick up</t>
         </is>
       </c>
       <c r="B1166" t="inlineStr"/>
@@ -17992,7 +17992,7 @@
     <row r="1167">
       <c r="A1167" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1167" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
     <row r="1168">
       <c r="A1168" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1168" t="inlineStr"/>
@@ -18022,7 +18022,7 @@
     <row r="1169">
       <c r="A1169" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24338P54</t>
+          <t>PRODUCTCODE: 74684P2</t>
         </is>
       </c>
       <c r="B1169" t="inlineStr"/>
@@ -18037,7 +18037,7 @@
     <row r="1170">
       <c r="A1170" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat means "serrated mountain," which explains the particular shape of the rock formation. The mountain is home to the monastery dedicated to Our Lady of Montserrat, the favorite saint of the region.</t>
+          <t>Summarized description: Hike around the iconic Natural Park of Montserrat and enjoy the magnificent views from one of its peaks. Visit the ancient monastery that has been receiving pilgrims for almost 1000 years.</t>
         </is>
       </c>
       <c r="B1170" t="inlineStr"/>
@@ -18052,7 +18052,7 @@
     <row r="1171">
       <c r="A1171" t="inlineStr">
         <is>
-          <t>Title: Montserrat Day Trip from Barcelona</t>
+          <t>Title: Visit to the monastery of Montserrat and hike up the mountain</t>
         </is>
       </c>
       <c r="B1171" t="inlineStr"/>
@@ -18067,7 +18067,7 @@
     <row r="1172">
       <c r="A1172" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1172" t="inlineStr"/>
@@ -18082,7 +18082,7 @@
     <row r="1173">
       <c r="A1173" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Hiking', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1173" t="inlineStr"/>
@@ -18097,7 +18097,7 @@
     <row r="1174">
       <c r="A1174" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 207305P237</t>
+          <t>PRODUCTCODE: 244199P39</t>
         </is>
       </c>
       <c r="B1174" t="inlineStr"/>
@@ -18112,7 +18112,7 @@
     <row r="1175">
       <c r="A1175" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is part of the pre-coastal range in the area, and is conveniently close to Barcelona. It is one of the best experiences to immerse yourself into the rich Spanish culture.</t>
+          <t>Summarized description: Catalonia’s most emblematic mountain is just a few kilometers from Barcelona. Board the Railway Sant Joan to see the fascinating flora and fauna of the city. Take a soft walk through Montserrat Natural Park with the best professional guide.</t>
         </is>
       </c>
       <c r="B1175" t="inlineStr"/>
@@ -18127,7 +18127,7 @@
     <row r="1176">
       <c r="A1176" t="inlineStr">
         <is>
-          <t>Title: Private Day Trip to Montserrat from Barcelona with a local</t>
+          <t>Title: From Barcelona : Montserrat Monastery &amp; Natural Park Hike Half Day Tour</t>
         </is>
       </c>
       <c r="B1176" t="inlineStr"/>
@@ -18142,7 +18142,7 @@
     <row r="1177">
       <c r="A1177" t="inlineStr">
         <is>
-          <t>TotalReviews: 1</t>
+          <t>TotalReviews: 2</t>
         </is>
       </c>
       <c r="B1177" t="inlineStr"/>
@@ -18157,7 +18157,7 @@
     <row r="1178">
       <c r="A1178" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['Wildlife Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1178" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
     <row r="1179">
       <c r="A1179" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 172138P22</t>
+          <t>PRODUCTCODE: 100247P5</t>
         </is>
       </c>
       <c r="B1179" t="inlineStr"/>
@@ -18187,7 +18187,7 @@
     <row r="1180">
       <c r="A1180" t="inlineStr">
         <is>
-          <t>Summarized description: The logistics-covered tour gives visitors the opportunity to experience multiple highlights in one trip. Enjoy the mountain views, the cultural heritage on a tour of the Montserrat monastery on top of the mountain. Visit the American / Indian modernist houses built in the late nineteenth and early twentieth centuries.</t>
+          <t>Summarized description: Girona is a medieval town just a short train ride from Barcelona. Best known for its inclusion in Game of Thrones, it is home to the largest gothic nave for a cathedral in the world.</t>
         </is>
       </c>
       <c r="B1180" t="inlineStr"/>
@@ -18202,7 +18202,7 @@
     <row r="1181">
       <c r="A1181" t="inlineStr">
         <is>
-          <t>Title: Montserrat + Sitges Tour</t>
+          <t>Title: Girona Day Trip</t>
         </is>
       </c>
       <c r="B1181" t="inlineStr"/>
@@ -18232,7 +18232,7 @@
     <row r="1183">
       <c r="A1183" t="inlineStr">
         <is>
-          <t>Category: ['City Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1183" t="inlineStr"/>
@@ -18247,7 +18247,7 @@
     <row r="1184">
       <c r="A1184" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11498P133</t>
+          <t>PRODUCTCODE: 6899P7</t>
         </is>
       </c>
       <c r="B1184" t="inlineStr"/>
@@ -18262,7 +18262,7 @@
     <row r="1185">
       <c r="A1185" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the church of Santa Maria de Montserrat where you see ‘La Moreneta’ and hear the children’s choir. Take a hike to an amazing viewpoint in the valley and try fabulous products at the street market.</t>
+          <t>Summarized description: Montserrat is home to the world-famous Magic Mountain. The Salnitre's Caverns are an underground galleries that traverse the mountain. Montserrat Abbey is the historical Sanctuary towering on top of the rocky fingers.</t>
         </is>
       </c>
       <c r="B1185" t="inlineStr"/>
@@ -18277,7 +18277,7 @@
     <row r="1186">
       <c r="A1186" t="inlineStr">
         <is>
-          <t>Title: Full-Day Tour from Barcelona to Montserrat with Private Guide - w/ Cable Car</t>
+          <t>Title: Montserrat Abbey and the Salnitre's Caverns: Small Group Tour from Barcelona</t>
         </is>
       </c>
       <c r="B1186" t="inlineStr"/>
@@ -18292,7 +18292,7 @@
     <row r="1187">
       <c r="A1187" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1187" t="inlineStr"/>
@@ -18307,7 +18307,7 @@
     <row r="1188">
       <c r="A1188" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1188" t="inlineStr"/>
@@ -18322,7 +18322,7 @@
     <row r="1189">
       <c r="A1189" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P17</t>
+          <t>PRODUCTCODE: 21175P33</t>
         </is>
       </c>
       <c r="B1189" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
     <row r="1190">
       <c r="A1190" t="inlineStr">
         <is>
-          <t>Summarized description: Ride the Saint Joan Funicular railway for panoramic views of the Pyrenees. Visit the medieval Benedictine monastery on Montserrat Mountain.</t>
+          <t>Summarized description: Private full-day trip to Figueras and Girona from Barcelona. Meet your knowledgeable guide and driver at your hotel to start discovering Catalan countryside. Explore the Jewish district, which has been incredibly well-preserved.</t>
         </is>
       </c>
       <c r="B1190" t="inlineStr"/>
@@ -18352,7 +18352,7 @@
     <row r="1191">
       <c r="A1191" t="inlineStr">
         <is>
-          <t>Title: Barcelona: Montserrat Tour with Cog Wheel Ticket</t>
+          <t>Title: Figueres and Girona Private Day Trip from Barcelona</t>
         </is>
       </c>
       <c r="B1191" t="inlineStr"/>
@@ -18367,7 +18367,7 @@
     <row r="1192">
       <c r="A1192" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1192" t="inlineStr"/>
@@ -18382,7 +18382,7 @@
     <row r="1193">
       <c r="A1193" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1193" t="inlineStr"/>
@@ -18397,7 +18397,7 @@
     <row r="1194">
       <c r="A1194" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P15</t>
+          <t>PRODUCTCODE: 5728P15</t>
         </is>
       </c>
       <c r="B1194" t="inlineStr"/>
@@ -18412,7 +18412,7 @@
     <row r="1195">
       <c r="A1195" t="inlineStr">
         <is>
-          <t>Summarized description: Learn about the wine making process on a tour of the castle vineyards and treasures room. Taste delicious Spanish wines and tapas at the 10th-century Oller del Mas castle.</t>
+          <t>Summarized description: Montserrat is one of the most impressive mountains of Catalonia. Walk between the spectacular flora, impressive mountain formations while having amazing views. Learn everything about popular legends and great miracles of Montserrat.</t>
         </is>
       </c>
       <c r="B1195" t="inlineStr"/>
@@ -18427,7 +18427,7 @@
     <row r="1196">
       <c r="A1196" t="inlineStr">
         <is>
-          <t>Title: The Marvelous Montserrat Tour,(Tapas and Wine Half-Day Tour) from Barcelona</t>
+          <t>Title: Private Montserrat Monastery and Natural Park Tour from Barcelona</t>
         </is>
       </c>
       <c r="B1196" t="inlineStr"/>
@@ -18442,7 +18442,7 @@
     <row r="1197">
       <c r="A1197" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1197" t="inlineStr"/>
@@ -18457,7 +18457,7 @@
     <row r="1198">
       <c r="A1198" t="inlineStr">
         <is>
-          <t>Category: ['Dining Experiences', 'Wine and Beverage Tastings', 'Cultural Tours']</t>
+          <t>Category: ['Hiking', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1198" t="inlineStr"/>
@@ -18472,7 +18472,7 @@
     <row r="1199">
       <c r="A1199" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 88115P506</t>
+          <t>PRODUCTCODE: 394433P2</t>
         </is>
       </c>
       <c r="B1199" t="inlineStr"/>
@@ -18487,7 +18487,7 @@
     <row r="1200">
       <c r="A1200" t="inlineStr">
         <is>
-          <t>Summarized description: Girona was used as the filming locations for King’s Landing and Braavos in Game of Thrones. Visit the awe-inspiring Cathedral and explore El Call, one of the best preserved Jewish Quarters in the world.</t>
+          <t>Summarized description: We will see the Abbey and the Black Virgin for free and without other tourists. We will visit an audiovisual and the Montserrat Museum, with works by Dalí, Picasso, Miró, etc.</t>
         </is>
       </c>
       <c r="B1200" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
     <row r="1201">
       <c r="A1201" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Girona Guided Day Tour from Barcelona Game of Thrones City </t>
+          <t>Title: Private tour to Montserrat from Barcelona</t>
         </is>
       </c>
       <c r="B1201" t="inlineStr"/>
@@ -18517,7 +18517,7 @@
     <row r="1202">
       <c r="A1202" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1202" t="inlineStr"/>
@@ -18532,7 +18532,7 @@
     <row r="1203">
       <c r="A1203" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1203" t="inlineStr"/>
@@ -18547,7 +18547,7 @@
     <row r="1204">
       <c r="A1204" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 6874P49</t>
+          <t>PRODUCTCODE: 24338P54</t>
         </is>
       </c>
       <c r="B1204" t="inlineStr"/>
@@ -18562,7 +18562,7 @@
     <row r="1205">
       <c r="A1205" t="inlineStr">
         <is>
-          <t>Summarized description: Girona's Old Town is one of the best-preserved in the world. Admire the Baroque façade of Girona Cathedral. Marvel at the fanciful exterior of the Dali’s Museum.</t>
+          <t>Summarized description: Montserrat means "serrated mountain," which explains the particular shape of the rock formation. The mountain is home to the monastery dedicated to Our Lady of Montserrat, the favorite saint of the region.</t>
         </is>
       </c>
       <c r="B1205" t="inlineStr"/>
@@ -18577,7 +18577,7 @@
     <row r="1206">
       <c r="A1206" t="inlineStr">
         <is>
-          <t>Title: Private Girona &amp; Dalí Full Day Tour from Barcelona</t>
+          <t>Title: Montserrat Day Trip from Barcelona</t>
         </is>
       </c>
       <c r="B1206" t="inlineStr"/>
@@ -18592,7 +18592,7 @@
     <row r="1207">
       <c r="A1207" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1207" t="inlineStr"/>
@@ -18607,7 +18607,7 @@
     <row r="1208">
       <c r="A1208" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1208" t="inlineStr"/>
@@ -18622,7 +18622,7 @@
     <row r="1209">
       <c r="A1209" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P49</t>
+          <t>PRODUCTCODE: 248704P2</t>
         </is>
       </c>
       <c r="B1209" t="inlineStr"/>
@@ -18637,7 +18637,7 @@
     <row r="1210">
       <c r="A1210" t="inlineStr">
         <is>
-          <t>Summarized description: Discover the wonders of one of the most fascinating cities in Catalonia from Barcelona. Walkthrough Girona’s winding medieval streets and its Jewish quarter. It has also been the filming location for some scenes in the 6th season of HBO's Game of Thrones.</t>
+          <t>Summarized description: Gaudi caves in Montserrat are one of Spain's most famous tourist attractions. The caves are home to stalactites, stalagmites and columns that inspired Gaudi himself in his main works. The oldest winery in Spain Codorníu is also on the tour.</t>
         </is>
       </c>
       <c r="B1210" t="inlineStr"/>
@@ -18652,7 +18652,7 @@
     <row r="1211">
       <c r="A1211" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: Montserrat &amp; Girona Especial : Game of Thrones Shooting Spot Tour </t>
+          <t>Title: Cuevas, Montserrat and Codorniu: premium full-day tour from Barcelona.</t>
         </is>
       </c>
       <c r="B1211" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
     <row r="1212">
       <c r="A1212" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1212" t="inlineStr"/>
@@ -18682,7 +18682,7 @@
     <row r="1213">
       <c r="A1213" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1213" t="inlineStr"/>
@@ -18697,7 +18697,7 @@
     <row r="1214">
       <c r="A1214" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 161776P3</t>
+          <t>PRODUCTCODE: 207305P237</t>
         </is>
       </c>
       <c r="B1214" t="inlineStr"/>
@@ -18712,7 +18712,7 @@
     <row r="1215">
       <c r="A1215" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is one of the most beautiful and sacred places in Catalonia. Visit the monastery and its striking surroundings before heading to Sitges.</t>
+          <t>Summarized description: Montserrat is part of the pre-coastal range in the area, and is conveniently close to Barcelona. It is one of the best experiences to immerse yourself into the rich Spanish culture.</t>
         </is>
       </c>
       <c r="B1215" t="inlineStr"/>
@@ -18727,7 +18727,7 @@
     <row r="1216">
       <c r="A1216" t="inlineStr">
         <is>
-          <t>Title:  Late morning Full-Day Tour: Montserrat &amp; Sitges</t>
+          <t>Title: Private Day Trip to Montserrat from Barcelona with a local</t>
         </is>
       </c>
       <c r="B1216" t="inlineStr"/>
@@ -18742,7 +18742,7 @@
     <row r="1217">
       <c r="A1217" t="inlineStr">
         <is>
-          <t>TotalReviews: 0</t>
+          <t>TotalReviews: 1</t>
         </is>
       </c>
       <c r="B1217" t="inlineStr"/>
@@ -18772,7 +18772,7 @@
     <row r="1219">
       <c r="A1219" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P18</t>
+          <t>PRODUCTCODE: 137266P2166</t>
         </is>
       </c>
       <c r="B1219" t="inlineStr"/>
@@ -18787,7 +18787,7 @@
     <row r="1220">
       <c r="A1220" t="inlineStr">
         <is>
-          <t>Summarized description: Full-day trip to Girona and Montserrat Abbey from Barcelona. Enjoy the convenience of round-trip transportation from central Barcelona. Marvel at the distinctive shape of the MontSerrat Mountains.</t>
+          <t>Summarized description: Day trip from Barcelona to Girona offers a unique blend of art, history and culture. Travelers can witness the stark contrast between the surreal and the picturesque.</t>
         </is>
       </c>
       <c r="B1220" t="inlineStr"/>
@@ -18802,7 +18802,7 @@
     <row r="1221">
       <c r="A1221" t="inlineStr">
         <is>
-          <t>Title: Premium Tour: Girona and Costa Brava Tour from Barcelona</t>
+          <t>Title: Private Day Trip From Barcelona To Figueres and Girona</t>
         </is>
       </c>
       <c r="B1221" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
     <row r="1223">
       <c r="A1223" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1223" t="inlineStr"/>
@@ -18847,7 +18847,7 @@
     <row r="1224">
       <c r="A1224" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P176</t>
+          <t>PRODUCTCODE: 332541P597</t>
         </is>
       </c>
       <c r="B1224" t="inlineStr"/>
@@ -18862,7 +18862,7 @@
     <row r="1225">
       <c r="A1225" t="inlineStr">
         <is>
-          <t>Summarized description: The best and most immersive way to visit Montserrat. Includes museum and Sant Joan Funicular admission fees. Multiple local tour guides/drivers available throughout your tour.</t>
+          <t>Summarized description: Visit the Girona Cathedral, Arab Baths, and Jewish Quarter. See the wonders of Castell de Pals, Muntanyes de Begur, and Platja Gran de Palamos.</t>
         </is>
       </c>
       <c r="B1225" t="inlineStr"/>
@@ -18877,7 +18877,7 @@
     <row r="1226">
       <c r="A1226" t="inlineStr">
         <is>
-          <t>Title: Barcelona to Montserrat Tour (2-Day Exclusive Package)</t>
+          <t>Title: Girona and Costa Brava Private Tour from Barcelona by Car</t>
         </is>
       </c>
       <c r="B1226" t="inlineStr"/>
@@ -18907,7 +18907,7 @@
     <row r="1228">
       <c r="A1228" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours', 'Museums']</t>
+          <t>Category: ['Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1228" t="inlineStr"/>
@@ -18922,7 +18922,7 @@
     <row r="1229">
       <c r="A1229" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 22869P152</t>
+          <t>PRODUCTCODE: 121995P8</t>
         </is>
       </c>
       <c r="B1229" t="inlineStr"/>
@@ -18937,7 +18937,7 @@
     <row r="1230">
       <c r="A1230" t="inlineStr">
         <is>
-          <t>Summarized description: Girona is an ancient Roman city built on the Via Augusta itself. Sitges is a coastal town where you can walk along its promenade.</t>
+          <t>Summarized description: 8-hour tour includes visits to Montserrat abbey and Sagrada Familia Cathedral in Barcelona. Booking is essential to ensure the safety of your passengers.</t>
         </is>
       </c>
       <c r="B1230" t="inlineStr"/>
@@ -18952,7 +18952,7 @@
     <row r="1231">
       <c r="A1231" t="inlineStr">
         <is>
-          <t>Title: Girona and Sitges from Barcelona with professional guide</t>
+          <t>Title: Barcelona &amp; Montserrat Luxury Private Tour</t>
         </is>
       </c>
       <c r="B1231" t="inlineStr"/>
@@ -18982,7 +18982,7 @@
     <row r="1233">
       <c r="A1233" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1233" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
     <row r="1234">
       <c r="A1234" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 196771P19</t>
+          <t>PRODUCTCODE: 90219P15</t>
         </is>
       </c>
       <c r="B1234" t="inlineStr"/>
@@ -19012,7 +19012,7 @@
     <row r="1235">
       <c r="A1235" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is Catalonia’s most emblematic mountain which is topped by a Benedictine Monastery. Enjoy a train ride through Catalan landscape. Stop at a breathtaking viewpoint. Visit a local farmers market.</t>
+          <t>Summarized description: Learn about the wine making process on a tour of the castle vineyards and treasures room. Taste delicious Spanish wines and tapas at the 10th-century Oller del Mas castle.</t>
         </is>
       </c>
       <c r="B1235" t="inlineStr"/>
@@ -19027,7 +19027,7 @@
     <row r="1236">
       <c r="A1236" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title: From Barcelona :Magical Montserrat Private Day Tour </t>
+          <t>Title: The Marvelous Montserrat Tour,(Tapas and Wine Half-Day Tour) from Barcelona</t>
         </is>
       </c>
       <c r="B1236" t="inlineStr"/>
@@ -19057,7 +19057,7 @@
     <row r="1238">
       <c r="A1238" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Dining Experiences', 'Cultural Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1238" t="inlineStr"/>
@@ -19072,7 +19072,7 @@
     <row r="1239">
       <c r="A1239" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 90219P44</t>
+          <t>PRODUCTCODE: 88115P506</t>
         </is>
       </c>
       <c r="B1239" t="inlineStr"/>
@@ -19087,7 +19087,7 @@
     <row r="1240">
       <c r="A1240" t="inlineStr">
         <is>
-          <t>Summarized description: Cast your eyes over the streets of Barcelona from the top of Montjuic Hill. Walk, climb or be carried 4,000 feet to the breathtaking views from Monserrat Mountain. Find your inner calm at the famous Monastery of Montserrat.</t>
+          <t>Summarized description: Girona was used as the filming locations for King’s Landing and Braavos in Game of Thrones. Visit the awe-inspiring Cathedral and explore El Call, one of the best preserved Jewish Quarters in the world.</t>
         </is>
       </c>
       <c r="B1240" t="inlineStr"/>
@@ -19102,7 +19102,7 @@
     <row r="1241">
       <c r="A1241" t="inlineStr">
         <is>
-          <t>Title: Premium Private Barcelona &amp; Montserrat Tour with Pick-up &amp; Drop-off</t>
+          <t xml:space="preserve">Title: Girona Guided Day Tour from Barcelona Game of Thrones City </t>
         </is>
       </c>
       <c r="B1241" t="inlineStr"/>
@@ -19132,7 +19132,7 @@
     <row r="1243">
       <c r="A1243" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Scenic Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1243" t="inlineStr"/>
@@ -19147,7 +19147,7 @@
     <row r="1244">
       <c r="A1244" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 139289P184</t>
+          <t>PRODUCTCODE: 264683P64</t>
         </is>
       </c>
       <c r="B1244" t="inlineStr"/>
@@ -19162,7 +19162,7 @@
     <row r="1245">
       <c r="A1245" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is named for its cliff-shaped silhouette that resembles a serrated blade. It is a unique place with a monastery on top of the mountain. The Benedictine monastery has been the patron saint of Catalonia.</t>
+          <t>Summarized description: Montserrat is the most emblematic mountain of Catalonia. It is crowned by the Benedictine Monastery. The monastery was founded in the 10th century and is still in operation.</t>
         </is>
       </c>
       <c r="B1245" t="inlineStr"/>
@@ -19177,7 +19177,7 @@
     <row r="1246">
       <c r="A1246" t="inlineStr">
         <is>
-          <t>Title: Montserrat: Guided Tour from Barcelona</t>
+          <t>Title: Montserrat Trekking Tour: Visit Monastery and Natural Park</t>
         </is>
       </c>
       <c r="B1246" t="inlineStr"/>
@@ -19207,7 +19207,7 @@
     <row r="1248">
       <c r="A1248" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1248" t="inlineStr"/>
@@ -19222,7 +19222,7 @@
     <row r="1249">
       <c r="A1249" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 350808P2696</t>
+          <t>PRODUCTCODE: 6874P49</t>
         </is>
       </c>
       <c r="B1249" t="inlineStr"/>
@@ -19237,7 +19237,7 @@
     <row r="1250">
       <c r="A1250" t="inlineStr">
         <is>
-          <t>Summarized description: Private Excursion tailored exclusively for you! Embark on a serene journey through the picturesque landscapes of Spain. Discover the awe-inspiring allure of Passeig de Gracia and capture iconic moments at landmarks.</t>
+          <t>Summarized description: Girona's Old Town is one of the best-preserved in the world. Admire the Baroque façade of Girona Cathedral. Marvel at the fanciful exterior of the Dali’s Museum.</t>
         </is>
       </c>
       <c r="B1250" t="inlineStr"/>
@@ -19252,7 +19252,7 @@
     <row r="1251">
       <c r="A1251" t="inlineStr">
         <is>
-          <t>Title: Private Tour of Montserrat from Barcelona</t>
+          <t>Title: Private Girona &amp; Dalí Full Day Tour from Barcelona</t>
         </is>
       </c>
       <c r="B1251" t="inlineStr"/>
@@ -19282,7 +19282,7 @@
     <row r="1253">
       <c r="A1253" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours', 'Scenic Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1253" t="inlineStr"/>
@@ -19297,7 +19297,7 @@
     <row r="1254">
       <c r="A1254" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 244199P34</t>
+          <t>PRODUCTCODE: 18282P10</t>
         </is>
       </c>
       <c r="B1254" t="inlineStr"/>
@@ -19312,7 +19312,7 @@
     <row r="1255">
       <c r="A1255" t="inlineStr">
         <is>
-          <t>Summarized description: Take a trip to the picturesque Monastery, and see one of Europe's oldest children's chores, the Black Madonna. Explore the Holy Cave of Montserrat, and meet a guide who will tell you about rooted cultural myths.</t>
+          <t>Summarized description: Enjoy a private, ten-hour tour of Girona with an English-speaking guide. Travel in luxury by an air-conditioned, Mercedes van. Visit surrounding medieval towns of Pals and Peratallada.</t>
         </is>
       </c>
       <c r="B1255" t="inlineStr"/>
@@ -19327,7 +19327,7 @@
     <row r="1256">
       <c r="A1256" t="inlineStr">
         <is>
-          <t>Title: Montserrat : Morning or Afternoon Half-Day Trip with Pickup From Barcelona</t>
+          <t>Title: Girona City and County Guided Private Day Trip From Barcelona</t>
         </is>
       </c>
       <c r="B1256" t="inlineStr"/>
@@ -19357,7 +19357,7 @@
     <row r="1258">
       <c r="A1258" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Museums', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1258" t="inlineStr"/>
@@ -19372,7 +19372,7 @@
     <row r="1259">
       <c r="A1259" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 11498P225</t>
+          <t>PRODUCTCODE: 239937P49</t>
         </is>
       </c>
       <c r="B1259" t="inlineStr"/>
@@ -19387,7 +19387,7 @@
     <row r="1260">
       <c r="A1260" t="inlineStr">
         <is>
-          <t>Summarized description: One-day Montserrat Tour with a multi-course lunch and gourmet wine tasting should definitely be among your options. Get a marvelous countryside trip from Barcelona and revel in stunning views of Catalan wineries and historical landmarks dating back to 11th century.</t>
+          <t>Summarized description: Discover the wonders of one of the most fascinating cities in Catalonia from Barcelona. Walkthrough Girona’s winding medieval streets and its Jewish quarter. It has also been the filming location for some scenes in the 6th season of HBO's Game of Thrones.</t>
         </is>
       </c>
       <c r="B1260" t="inlineStr"/>
@@ -19402,7 +19402,7 @@
     <row r="1261">
       <c r="A1261" t="inlineStr">
         <is>
-          <t>Title: Full-Day Montserrat Tour from Barcelona with Wine &amp; Catalan Meal</t>
+          <t xml:space="preserve">Title: Montserrat &amp; Girona Especial : Game of Thrones Shooting Spot Tour </t>
         </is>
       </c>
       <c r="B1261" t="inlineStr"/>
@@ -19432,7 +19432,7 @@
     <row r="1263">
       <c r="A1263" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1263" t="inlineStr"/>
@@ -19447,7 +19447,7 @@
     <row r="1264">
       <c r="A1264" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 137266P2168</t>
+          <t>PRODUCTCODE: 196771P19</t>
         </is>
       </c>
       <c r="B1264" t="inlineStr"/>
@@ -19462,7 +19462,7 @@
     <row r="1265">
       <c r="A1265" t="inlineStr">
         <is>
-          <t>Summarized description: A day trip from Barcelona to Montserrat and Freixenet offers a unique blend of natural beauty and cultural experiences. Exploring theMontserrat Monastery adds a touch of religious and historical significance to the trip.</t>
+          <t>Summarized description: Montserrat is Catalonia’s most emblematic mountain which is topped by a Benedictine Monastery. Enjoy a train ride through Catalan landscape. Stop at a breathtaking viewpoint. Visit a local farmers market.</t>
         </is>
       </c>
       <c r="B1265" t="inlineStr"/>
@@ -19477,7 +19477,7 @@
     <row r="1266">
       <c r="A1266" t="inlineStr">
         <is>
-          <t>Title: Private Day Trip From Barcelona To Montserrat &amp; Freixenet Winery</t>
+          <t xml:space="preserve">Title: From Barcelona :Magical Montserrat Private Day Tour </t>
         </is>
       </c>
       <c r="B1266" t="inlineStr"/>
@@ -19507,7 +19507,7 @@
     <row r="1268">
       <c r="A1268" t="inlineStr">
         <is>
-          <t>Category: ['Cultural Tours']</t>
+          <t>Category: ['Culinary Tours', 'Cultural Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1268" t="inlineStr"/>
@@ -19522,7 +19522,7 @@
     <row r="1269">
       <c r="A1269" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 419333P17</t>
+          <t>PRODUCTCODE: 90219P44</t>
         </is>
       </c>
       <c r="B1269" t="inlineStr"/>
@@ -19537,7 +19537,7 @@
     <row r="1270">
       <c r="A1270" t="inlineStr">
         <is>
-          <t>Summarized description: Montserrat is one of the most beautiful places in the world. It is home to the famous Montserrat Abbey, built in the 12th century. It's also the site of the world's oldest choir.</t>
+          <t>Summarized description: Cast your eyes over the streets of Barcelona from the top of Montjuic Hill. Walk, climb or be carried 4,000 feet to the breathtaking views from Monserrat Mountain. Find your inner calm at the famous Monastery of Montserrat.</t>
         </is>
       </c>
       <c r="B1270" t="inlineStr"/>
@@ -19552,7 +19552,7 @@
     <row r="1271">
       <c r="A1271" t="inlineStr">
         <is>
-          <t>Title: Private Tour from Barcelona to Monserrat</t>
+          <t>Title: Premium Private Barcelona &amp; Montserrat Tour with Pick-up &amp; Drop-off</t>
         </is>
       </c>
       <c r="B1271" t="inlineStr"/>
@@ -19582,7 +19582,7 @@
     <row r="1273">
       <c r="A1273" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours']</t>
+          <t>Category: ['City Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1273" t="inlineStr"/>
@@ -19597,7 +19597,7 @@
     <row r="1274">
       <c r="A1274" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P7</t>
+          <t>PRODUCTCODE: 139289P184</t>
         </is>
       </c>
       <c r="B1274" t="inlineStr"/>
@@ -19612,7 +19612,7 @@
     <row r="1275">
       <c r="A1275" t="inlineStr">
         <is>
-          <t>Summarized description: Take in the mountain views, visit the famous monastery and head to a local farmhouse for a delicious dinner. Enjoy a fully-immersive experience with a guided visit to the Monastery of Montserrat.</t>
+          <t>Summarized description: Montserrat is named for its cliff-shaped silhouette that resembles a serrated blade. It is a unique place with a monastery on top of the mountain. The Benedictine monastery has been the patron saint of Catalonia.</t>
         </is>
       </c>
       <c r="B1275" t="inlineStr"/>
@@ -19627,7 +19627,7 @@
     <row r="1276">
       <c r="A1276" t="inlineStr">
         <is>
-          <t>Title: Barcelona Premium Tour : Montserrat Visit with Lunch</t>
+          <t>Title: Montserrat: Guided Tour from Barcelona</t>
         </is>
       </c>
       <c r="B1276" t="inlineStr"/>
@@ -19657,7 +19657,7 @@
     <row r="1278">
       <c r="A1278" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1278" t="inlineStr"/>
@@ -19672,7 +19672,7 @@
     <row r="1279">
       <c r="A1279" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239137P5</t>
+          <t>PRODUCTCODE: 350808P2696</t>
         </is>
       </c>
       <c r="B1279" t="inlineStr"/>
@@ -19687,7 +19687,7 @@
     <row r="1280">
       <c r="A1280" t="inlineStr">
         <is>
-          <t>Summarized description: Escape Barcelona's city life and enjoy a private day trip to Montserrat. Visit the local farmers ' market, find out about the monastery stories and enjoy the magical mountain atmosphere.</t>
+          <t>Summarized description: Private Excursion tailored exclusively for you! Embark on a serene journey through the picturesque landscapes of Spain. Discover the awe-inspiring allure of Passeig de Gracia and capture iconic moments at landmarks.</t>
         </is>
       </c>
       <c r="B1280" t="inlineStr"/>
@@ -19702,7 +19702,7 @@
     <row r="1281">
       <c r="A1281" t="inlineStr">
         <is>
-          <t>Title: From Barcelona :Magical Montserrat Private Day Tour</t>
+          <t>Title: Private Tour of Montserrat from Barcelona</t>
         </is>
       </c>
       <c r="B1281" t="inlineStr"/>
@@ -19732,7 +19732,7 @@
     <row r="1283">
       <c r="A1283" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1283" t="inlineStr"/>
@@ -19747,7 +19747,7 @@
     <row r="1284">
       <c r="A1284" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 239937P88</t>
+          <t>PRODUCTCODE: 244199P34</t>
         </is>
       </c>
       <c r="B1284" t="inlineStr"/>
@@ -19762,7 +19762,7 @@
     <row r="1285">
       <c r="A1285" t="inlineStr">
         <is>
-          <t>Summarized description: Visit the basilica where the Virgin Santa Maria of Montserrat, Patron Saint of Catalonia, is located. Enjoy astonishing views of the natural park near Barcelona. Admire the famous 'Black Madonna' in the monastery basilica.</t>
+          <t>Summarized description: Take a trip to the picturesque Monastery, and see one of Europe's oldest children's chores, the Black Madonna. Explore the Holy Cave of Montserrat, and meet a guide who will tell you about rooted cultural myths.</t>
         </is>
       </c>
       <c r="B1285" t="inlineStr"/>
@@ -19777,7 +19777,7 @@
     <row r="1286">
       <c r="A1286" t="inlineStr">
         <is>
-          <t xml:space="preserve">Title:  Montserrat Mountains Half - Day Private Tour - From Barcelona </t>
+          <t>Title: Montserrat : Morning or Afternoon Half-Day Trip with Pickup From Barcelona</t>
         </is>
       </c>
       <c r="B1286" t="inlineStr"/>
@@ -19807,7 +19807,7 @@
     <row r="1288">
       <c r="A1288" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Cultural Tours']</t>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1288" t="inlineStr"/>
@@ -19822,7 +19822,7 @@
     <row r="1289">
       <c r="A1289" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 5716P6</t>
+          <t>PRODUCTCODE: 406570P36</t>
         </is>
       </c>
       <c r="B1289" t="inlineStr"/>
@@ -19837,7 +19837,7 @@
     <row r="1290">
       <c r="A1290" t="inlineStr">
         <is>
-          <t>Summarized description: Tour the Montserrat Monastery and a boutique winery. Tour the gorgeous vineyards and head to the wine cellar to learn about wine production. Taste three exquisite wines and a local tapas lunch.</t>
+          <t>Summarized description: Montserrat is a multi-peaked mountain range near Barcelona, in Catalonia. It is well known as the site of the Benedictine abbey, Santa Maria de Montserrat. The Benedictine Santa Maria monastery is over 1,000 years old.</t>
         </is>
       </c>
       <c r="B1290" t="inlineStr"/>
@@ -19852,7 +19852,7 @@
     <row r="1291">
       <c r="A1291" t="inlineStr">
         <is>
-          <t>Title: Montserrat Half-Day Tour with Tapas and Gourmet Wines from Barcelona - Group</t>
+          <t>Title: Private Morning tour Montserrat Monastery from Barcelona</t>
         </is>
       </c>
       <c r="B1291" t="inlineStr"/>
@@ -19882,7 +19882,7 @@
     <row r="1293">
       <c r="A1293" t="inlineStr">
         <is>
-          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1293" t="inlineStr"/>
@@ -19897,7 +19897,7 @@
     <row r="1294">
       <c r="A1294" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 145071P100</t>
+          <t>PRODUCTCODE: 11498P225</t>
         </is>
       </c>
       <c r="B1294" t="inlineStr"/>
@@ -19912,7 +19912,7 @@
     <row r="1295">
       <c r="A1295" t="inlineStr">
         <is>
-          <t>Summarized description: Transport by comfortable air-conditioned minivan. Illuminating commentary from your expert guide. Cordoniu winery's vast cellars and wine tasting. Montserrat Monastery's basilica.</t>
+          <t>Summarized description: One-day Montserrat Tour with a multi-course lunch and gourmet wine tasting should definitely be among your options. Get a marvelous countryside trip from Barcelona and revel in stunning views of Catalan wineries and historical landmarks dating back to 11th century.</t>
         </is>
       </c>
       <c r="B1295" t="inlineStr"/>
@@ -19927,7 +19927,7 @@
     <row r="1296">
       <c r="A1296" t="inlineStr">
         <is>
-          <t>Title: Montserrat and Cava Trail Day Trip from Barcelona</t>
+          <t>Title: Full-Day Montserrat Tour from Barcelona with Wine &amp; Catalan Meal</t>
         </is>
       </c>
       <c r="B1296" t="inlineStr"/>
@@ -19957,7 +19957,7 @@
     <row r="1298">
       <c r="A1298" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Culinary Tours', 'Historical Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1298" t="inlineStr"/>
@@ -19972,7 +19972,7 @@
     <row r="1299">
       <c r="A1299" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 207305P229</t>
+          <t>PRODUCTCODE: 137266P2168</t>
         </is>
       </c>
       <c r="B1299" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
     <row r="1300">
       <c r="A1300" t="inlineStr">
         <is>
-          <t>Summarized description: Girona is one of the best places in Spain to immerse yourself into the rich Spanish culture. The ancient town of Girona has a stunning cathedral, Benedectine monastery, Arab baths, and a Jewish museum.</t>
+          <t>Summarized description: A day trip from Barcelona to Montserrat and Freixenet offers a unique blend of natural beauty and cultural experiences. Exploring theMontserrat Monastery adds a touch of religious and historical significance to the trip.</t>
         </is>
       </c>
       <c r="B1300" t="inlineStr"/>
@@ -20002,7 +20002,7 @@
     <row r="1301">
       <c r="A1301" t="inlineStr">
         <is>
-          <t>Title: Private Day Trip to Girona from Barcelona with a local</t>
+          <t>Title: Private Day Trip From Barcelona To Montserrat &amp; Freixenet Winery</t>
         </is>
       </c>
       <c r="B1301" t="inlineStr"/>
@@ -20032,7 +20032,7 @@
     <row r="1303">
       <c r="A1303" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Cultural Tours']</t>
         </is>
       </c>
       <c r="B1303" t="inlineStr"/>
@@ -20047,7 +20047,7 @@
     <row r="1304">
       <c r="A1304" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 73299P16</t>
+          <t>PRODUCTCODE: 419333P17</t>
         </is>
       </c>
       <c r="B1304" t="inlineStr"/>
@@ -20062,7 +20062,7 @@
     <row r="1305">
       <c r="A1305" t="inlineStr">
         <is>
-          <t>Summarized description: Discover hidden streets, dark legends and the amazing secrets Girona has to offer. Enjoy traditional Catalan and Spanish tapas on a terrace under the trees. Is there a better way to call it a day?</t>
+          <t>Summarized description: Montserrat is one of the most beautiful places in the world. It is home to the famous Montserrat Abbey, built in the 12th century. It's also the site of the world's oldest choir.</t>
         </is>
       </c>
       <c r="B1305" t="inlineStr"/>
@@ -20077,7 +20077,7 @@
     <row r="1306">
       <c r="A1306" t="inlineStr">
         <is>
-          <t>Title: Girona Walking Tour and Tapas Dinner</t>
+          <t>Title: Private Tour from Barcelona to Monserrat</t>
         </is>
       </c>
       <c r="B1306" t="inlineStr"/>
@@ -20107,7 +20107,7 @@
     <row r="1308">
       <c r="A1308" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Culinary Tours', 'Cultural Tours']</t>
+          <t>Category: ['Historical Tours']</t>
         </is>
       </c>
       <c r="B1308" t="inlineStr"/>
@@ -20122,7 +20122,7 @@
     <row r="1309">
       <c r="A1309" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 32771P7</t>
+          <t>PRODUCTCODE: 239937P7</t>
         </is>
       </c>
       <c r="B1309" t="inlineStr"/>
@@ -20137,7 +20137,7 @@
     <row r="1310">
       <c r="A1310" t="inlineStr">
         <is>
-          <t>Summarized description: Private tour includes a visit around Girona and the winery of Perelada. You will be able to customize your own route with your personal guide. There you will have the chance to admire a privileged landscape.</t>
+          <t>Summarized description: Take in the mountain views, visit the famous monastery and head to a local farmhouse for a delicious dinner. Enjoy a fully-immersive experience with a guided visit to the Monastery of Montserrat.</t>
         </is>
       </c>
       <c r="B1310" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
     <row r="1311">
       <c r="A1311" t="inlineStr">
         <is>
-          <t>Title: Girona and Wineries of Perelada Private Tour from Barcelona</t>
+          <t>Title: Barcelona Premium Tour : Montserrat Visit with Lunch</t>
         </is>
       </c>
       <c r="B1311" t="inlineStr"/>
@@ -20182,7 +20182,7 @@
     <row r="1313">
       <c r="A1313" t="inlineStr">
         <is>
-          <t>Category: ['City Tours', 'Wine and Beverage Tastings']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours', 'Scenic Tours']</t>
         </is>
       </c>
       <c r="B1313" t="inlineStr"/>
@@ -20197,7 +20197,7 @@
     <row r="1314">
       <c r="A1314" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 227336P4</t>
+          <t>PRODUCTCODE: 26586P9</t>
         </is>
       </c>
       <c r="B1314" t="inlineStr"/>
@@ -20212,7 +20212,7 @@
     <row r="1315">
       <c r="A1315" t="inlineStr">
         <is>
-          <t>Summarized description: Girona is a picturesque and charming old town in north of Catalonia. Walk through the narrow cobbled-stone streets to the medieval city walls. After your tour in Girona you will drive with your guide and driver through countryside.</t>
+          <t>Summarized description: Girona and Costa Brava are some of Spain's most unique small towns. Discover the area's history and traditions from a driver and guide. Roundtrip transportation from Barcelona is provided.</t>
         </is>
       </c>
       <c r="B1315" t="inlineStr"/>
@@ -20227,7 +20227,7 @@
     <row r="1316">
       <c r="A1316" t="inlineStr">
         <is>
-          <t>Title: Girona &amp; Costa Brava Tour</t>
+          <t>Title: Girona and Costa Brava Day Tour with Driver Guide</t>
         </is>
       </c>
       <c r="B1316" t="inlineStr"/>
@@ -20272,7 +20272,7 @@
     <row r="1319">
       <c r="A1319" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 24780P22</t>
+          <t>PRODUCTCODE: 196771P78</t>
         </is>
       </c>
       <c r="B1319" t="inlineStr"/>
@@ -20287,7 +20287,7 @@
     <row r="1320">
       <c r="A1320" t="inlineStr">
         <is>
-          <t>Summarized description: Discover Girona, its Cathedral and narrow medieval streets, as well as Figueres, birthplace of the painter Salvador Dalí. Enjoy a private visit from a comfortable and luxurious high-end Mercedes vehicle.</t>
+          <t>Summarized description: Discover the beauty of Catalonia on a 1-day tour to Girona and the Costa Brava. Visit the impressive Arab Baths and take a dip in the inviting Mediterranean waters.</t>
         </is>
       </c>
       <c r="B1320" t="inlineStr"/>
@@ -20302,7 +20302,7 @@
     <row r="1321">
       <c r="A1321" t="inlineStr">
         <is>
-          <t>Title: Full Day in Girona and Figueres from Barcelona</t>
+          <t>Title: Girona and Costa Brava Exclusive : From Barcelona (Small Group)</t>
         </is>
       </c>
       <c r="B1321" t="inlineStr"/>
@@ -20332,7 +20332,7 @@
     <row r="1323">
       <c r="A1323" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Cultural Tours', 'Eco-Tours']</t>
         </is>
       </c>
       <c r="B1323" t="inlineStr"/>
@@ -20347,7 +20347,7 @@
     <row r="1324">
       <c r="A1324" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 26586P15</t>
+          <t>PRODUCTCODE: 239137P5</t>
         </is>
       </c>
       <c r="B1324" t="inlineStr"/>
@@ -20362,7 +20362,7 @@
     <row r="1325">
       <c r="A1325" t="inlineStr">
         <is>
-          <t>Summarized description: Spin through Barcelona by air-conditioned minivan with a private driver-guide. Admire Art Nouveau buildings such as La Pedrera and Casa Batlló and the Gothic Quarter. Visit the Benedictine Santa Maria de Montserrat Abbey.</t>
+          <t>Summarized description: Escape Barcelona's city life and enjoy a private day trip to Montserrat. Visit the local farmers ' market, find out about the monastery stories and enjoy the magical mountain atmosphere.</t>
         </is>
       </c>
       <c r="B1325" t="inlineStr"/>
@@ -20377,7 +20377,7 @@
     <row r="1326">
       <c r="A1326" t="inlineStr">
         <is>
-          <t>Title: Barcelona And Montserrat Full Day Tour</t>
+          <t>Title: From Barcelona :Magical Montserrat Private Day Tour</t>
         </is>
       </c>
       <c r="B1326" t="inlineStr"/>
@@ -20407,7 +20407,7 @@
     <row r="1328">
       <c r="A1328" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'City Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1328" t="inlineStr"/>
@@ -20422,7 +20422,7 @@
     <row r="1329">
       <c r="A1329" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 424606P4</t>
+          <t>PRODUCTCODE: 239937P88</t>
         </is>
       </c>
       <c r="B1329" t="inlineStr"/>
@@ -20437,7 +20437,7 @@
     <row r="1330">
       <c r="A1330" t="inlineStr">
         <is>
-          <t>Summarized description: The Catalan people say the magical mountain of Montserrat and they say this for some reasons. This is an experience about spirituality, religiosity, nature, music, history, friendship!</t>
+          <t>Summarized description: Visit the basilica where the Virgin Santa Maria of Montserrat, Patron Saint of Catalonia, is located. Enjoy astonishing views of the natural park near Barcelona. Admire the famous 'Black Madonna' in the monastery basilica.</t>
         </is>
       </c>
       <c r="B1330" t="inlineStr"/>
@@ -20452,7 +20452,7 @@
     <row r="1331">
       <c r="A1331" t="inlineStr">
         <is>
-          <t>Title: Guided Montserrat Mountain Tour from Barcelona by Train</t>
+          <t xml:space="preserve">Title:  Montserrat Mountains Half - Day Private Tour - From Barcelona </t>
         </is>
       </c>
       <c r="B1331" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
     <row r="1333">
       <c r="A1333" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Scenic Tours', 'Cultural Tours']</t>
+          <t>Category: ['Cultural Tours', 'Historical Tours']</t>
         </is>
       </c>
       <c r="B1333" t="inlineStr"/>
@@ -20497,7 +20497,7 @@
     <row r="1334">
       <c r="A1334" t="inlineStr">
         <is>
-          <t>PRODUCTCODE: 255730P230</t>
+          <t>PRODUCTCODE: 5716P6</t>
         </is>
       </c>
       <c r="B1334" t="inlineStr"/>
@@ -20512,7 +20512,7 @@
     <row r="1335">
       <c r="A1335" t="inlineStr">
         <is>
-          <t>Summarized description: The Santa Maria Montserrat Monastery was built in the 11th century on the site of a Hermitage established in 888 A.D. With its imposing sand-coloured facade, it looks like it was dramatically carved out of the mountain - as though the monastery and mountain were one. Visit the museum bringing together the work of some of the most famous Spanish painters including El Greco, Picasso, and Dalí.</t>
+          <t>Summarized description: Tour the Montserrat Monastery and a boutique winery. Tour the gorgeous vineyards and head to the wine cellar to learn about wine production. Taste three exquisite wines and a local tapas lunch.</t>
         </is>
       </c>
       <c r="B1335" t="inlineStr"/>
@@ -20527,7 +20527,7 @@
     <row r="1336">
       <c r="A1336" t="inlineStr">
         <is>
-          <t>Title: Visit Montserrat: Private Day Trip from Barcelona</t>
+          <t>Title: Montserrat Half-Day Tour with Tapas and Gourmet Wines from Barcelona - Group</t>
         </is>
       </c>
       <c r="B1336" t="inlineStr"/>
@@ -20557,7 +20557,7 @@
     <row r="1338">
       <c r="A1338" t="inlineStr">
         <is>
-          <t>Category: ['Historical Tours', 'Museums']</t>
+          <t>Category: ['Culinary Tours', 'Wine and Beverage Tastings']</t>
         </is>
       </c>
       <c r="B1338" t="inlineStr"/>
@@ -20572,7 +20572,7 @@
     <row r="1339">
       <c r="A1339" t="inlineStr">
         <is>
-          <t>*****</t>
+          <t>PRODUCTCODE: 145071P100</t>
         </is>
       </c>
       <c r="B1339" t="inlineStr"/>
@@ -20584,6 +20584,681 @@
       <c r="H1339" t="inlineStr"/>
       <c r="I1339" t="inlineStr"/>
     </row>
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
+        <is>
+          <t>Summarized description: Transport by comfortable air-conditioned minivan. Illuminating commentary from your expert guide. Cordoniu winery's vast cellars and wine tasting. Montserrat Monastery's basilica.</t>
+        </is>
+      </c>
+      <c r="B1340" t="inlineStr"/>
+      <c r="C1340" t="inlineStr"/>
+      <c r="D1340" t="inlineStr"/>
+      <c r="E1340" t="inlineStr"/>
+      <c r="F1340" t="inlineStr"/>
+      <c r="G1340" t="inlineStr"/>
+      <c r="H1340" t="inlineStr"/>
+      <c r="I1340" t="inlineStr"/>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t>Title: Montserrat and Cava Trail Day Trip from Barcelona</t>
+        </is>
+      </c>
+      <c r="B1341" t="inlineStr"/>
+      <c r="C1341" t="inlineStr"/>
+      <c r="D1341" t="inlineStr"/>
+      <c r="E1341" t="inlineStr"/>
+      <c r="F1341" t="inlineStr"/>
+      <c r="G1341" t="inlineStr"/>
+      <c r="H1341" t="inlineStr"/>
+      <c r="I1341" t="inlineStr"/>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1342" t="inlineStr"/>
+      <c r="C1342" t="inlineStr"/>
+      <c r="D1342" t="inlineStr"/>
+      <c r="E1342" t="inlineStr"/>
+      <c r="F1342" t="inlineStr"/>
+      <c r="G1342" t="inlineStr"/>
+      <c r="H1342" t="inlineStr"/>
+      <c r="I1342" t="inlineStr"/>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1343" t="inlineStr"/>
+      <c r="C1343" t="inlineStr"/>
+      <c r="D1343" t="inlineStr"/>
+      <c r="E1343" t="inlineStr"/>
+      <c r="F1343" t="inlineStr"/>
+      <c r="G1343" t="inlineStr"/>
+      <c r="H1343" t="inlineStr"/>
+      <c r="I1343" t="inlineStr"/>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 207305P229</t>
+        </is>
+      </c>
+      <c r="B1344" t="inlineStr"/>
+      <c r="C1344" t="inlineStr"/>
+      <c r="D1344" t="inlineStr"/>
+      <c r="E1344" t="inlineStr"/>
+      <c r="F1344" t="inlineStr"/>
+      <c r="G1344" t="inlineStr"/>
+      <c r="H1344" t="inlineStr"/>
+      <c r="I1344" t="inlineStr"/>
+    </row>
+    <row r="1345">
+      <c r="A1345" t="inlineStr">
+        <is>
+          <t>Summarized description: Girona is one of the best places in Spain to immerse yourself into the rich Spanish culture. The ancient town of Girona has a stunning cathedral, Benedectine monastery, Arab baths, and a Jewish museum.</t>
+        </is>
+      </c>
+      <c r="B1345" t="inlineStr"/>
+      <c r="C1345" t="inlineStr"/>
+      <c r="D1345" t="inlineStr"/>
+      <c r="E1345" t="inlineStr"/>
+      <c r="F1345" t="inlineStr"/>
+      <c r="G1345" t="inlineStr"/>
+      <c r="H1345" t="inlineStr"/>
+      <c r="I1345" t="inlineStr"/>
+    </row>
+    <row r="1346">
+      <c r="A1346" t="inlineStr">
+        <is>
+          <t>Title: Private Day Trip to Girona from Barcelona with a local</t>
+        </is>
+      </c>
+      <c r="B1346" t="inlineStr"/>
+      <c r="C1346" t="inlineStr"/>
+      <c r="D1346" t="inlineStr"/>
+      <c r="E1346" t="inlineStr"/>
+      <c r="F1346" t="inlineStr"/>
+      <c r="G1346" t="inlineStr"/>
+      <c r="H1346" t="inlineStr"/>
+      <c r="I1346" t="inlineStr"/>
+    </row>
+    <row r="1347">
+      <c r="A1347" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1347" t="inlineStr"/>
+      <c r="C1347" t="inlineStr"/>
+      <c r="D1347" t="inlineStr"/>
+      <c r="E1347" t="inlineStr"/>
+      <c r="F1347" t="inlineStr"/>
+      <c r="G1347" t="inlineStr"/>
+      <c r="H1347" t="inlineStr"/>
+      <c r="I1347" t="inlineStr"/>
+    </row>
+    <row r="1348">
+      <c r="A1348" t="inlineStr">
+        <is>
+          <t>Category: ['Museums', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1348" t="inlineStr"/>
+      <c r="C1348" t="inlineStr"/>
+      <c r="D1348" t="inlineStr"/>
+      <c r="E1348" t="inlineStr"/>
+      <c r="F1348" t="inlineStr"/>
+      <c r="G1348" t="inlineStr"/>
+      <c r="H1348" t="inlineStr"/>
+      <c r="I1348" t="inlineStr"/>
+    </row>
+    <row r="1349">
+      <c r="A1349" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 32771P7</t>
+        </is>
+      </c>
+      <c r="B1349" t="inlineStr"/>
+      <c r="C1349" t="inlineStr"/>
+      <c r="D1349" t="inlineStr"/>
+      <c r="E1349" t="inlineStr"/>
+      <c r="F1349" t="inlineStr"/>
+      <c r="G1349" t="inlineStr"/>
+      <c r="H1349" t="inlineStr"/>
+      <c r="I1349" t="inlineStr"/>
+    </row>
+    <row r="1350">
+      <c r="A1350" t="inlineStr">
+        <is>
+          <t>Summarized description: Private tour includes a visit around Girona and the winery of Perelada. You will be able to customize your own route with your personal guide. There you will have the chance to admire a privileged landscape.</t>
+        </is>
+      </c>
+      <c r="B1350" t="inlineStr"/>
+      <c r="C1350" t="inlineStr"/>
+      <c r="D1350" t="inlineStr"/>
+      <c r="E1350" t="inlineStr"/>
+      <c r="F1350" t="inlineStr"/>
+      <c r="G1350" t="inlineStr"/>
+      <c r="H1350" t="inlineStr"/>
+      <c r="I1350" t="inlineStr"/>
+    </row>
+    <row r="1351">
+      <c r="A1351" t="inlineStr">
+        <is>
+          <t>Title: Girona and Wineries of Perelada Private Tour from Barcelona</t>
+        </is>
+      </c>
+      <c r="B1351" t="inlineStr"/>
+      <c r="C1351" t="inlineStr"/>
+      <c r="D1351" t="inlineStr"/>
+      <c r="E1351" t="inlineStr"/>
+      <c r="F1351" t="inlineStr"/>
+      <c r="G1351" t="inlineStr"/>
+      <c r="H1351" t="inlineStr"/>
+      <c r="I1351" t="inlineStr"/>
+    </row>
+    <row r="1352">
+      <c r="A1352" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1352" t="inlineStr"/>
+      <c r="C1352" t="inlineStr"/>
+      <c r="D1352" t="inlineStr"/>
+      <c r="E1352" t="inlineStr"/>
+      <c r="F1352" t="inlineStr"/>
+      <c r="G1352" t="inlineStr"/>
+      <c r="H1352" t="inlineStr"/>
+      <c r="I1352" t="inlineStr"/>
+    </row>
+    <row r="1353">
+      <c r="A1353" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Wine and Beverage Tastings']</t>
+        </is>
+      </c>
+      <c r="B1353" t="inlineStr"/>
+      <c r="C1353" t="inlineStr"/>
+      <c r="D1353" t="inlineStr"/>
+      <c r="E1353" t="inlineStr"/>
+      <c r="F1353" t="inlineStr"/>
+      <c r="G1353" t="inlineStr"/>
+      <c r="H1353" t="inlineStr"/>
+      <c r="I1353" t="inlineStr"/>
+    </row>
+    <row r="1354">
+      <c r="A1354" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 227336P4</t>
+        </is>
+      </c>
+      <c r="B1354" t="inlineStr"/>
+      <c r="C1354" t="inlineStr"/>
+      <c r="D1354" t="inlineStr"/>
+      <c r="E1354" t="inlineStr"/>
+      <c r="F1354" t="inlineStr"/>
+      <c r="G1354" t="inlineStr"/>
+      <c r="H1354" t="inlineStr"/>
+      <c r="I1354" t="inlineStr"/>
+    </row>
+    <row r="1355">
+      <c r="A1355" t="inlineStr">
+        <is>
+          <t>Summarized description: Girona is a picturesque and charming old town in north of Catalonia. Walk through the narrow cobbled-stone streets to the medieval city walls. After your tour in Girona you will drive with your guide and driver through countryside.</t>
+        </is>
+      </c>
+      <c r="B1355" t="inlineStr"/>
+      <c r="C1355" t="inlineStr"/>
+      <c r="D1355" t="inlineStr"/>
+      <c r="E1355" t="inlineStr"/>
+      <c r="F1355" t="inlineStr"/>
+      <c r="G1355" t="inlineStr"/>
+      <c r="H1355" t="inlineStr"/>
+      <c r="I1355" t="inlineStr"/>
+    </row>
+    <row r="1356">
+      <c r="A1356" t="inlineStr">
+        <is>
+          <t>Title: Girona &amp; Costa Brava Tour</t>
+        </is>
+      </c>
+      <c r="B1356" t="inlineStr"/>
+      <c r="C1356" t="inlineStr"/>
+      <c r="D1356" t="inlineStr"/>
+      <c r="E1356" t="inlineStr"/>
+      <c r="F1356" t="inlineStr"/>
+      <c r="G1356" t="inlineStr"/>
+      <c r="H1356" t="inlineStr"/>
+      <c r="I1356" t="inlineStr"/>
+    </row>
+    <row r="1357">
+      <c r="A1357" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1357" t="inlineStr"/>
+      <c r="C1357" t="inlineStr"/>
+      <c r="D1357" t="inlineStr"/>
+      <c r="E1357" t="inlineStr"/>
+      <c r="F1357" t="inlineStr"/>
+      <c r="G1357" t="inlineStr"/>
+      <c r="H1357" t="inlineStr"/>
+      <c r="I1357" t="inlineStr"/>
+    </row>
+    <row r="1358">
+      <c r="A1358" t="inlineStr">
+        <is>
+          <t>Category: ['Historical Tours', 'Scenic Tours']</t>
+        </is>
+      </c>
+      <c r="B1358" t="inlineStr"/>
+      <c r="C1358" t="inlineStr"/>
+      <c r="D1358" t="inlineStr"/>
+      <c r="E1358" t="inlineStr"/>
+      <c r="F1358" t="inlineStr"/>
+      <c r="G1358" t="inlineStr"/>
+      <c r="H1358" t="inlineStr"/>
+      <c r="I1358" t="inlineStr"/>
+    </row>
+    <row r="1359">
+      <c r="A1359" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 303267P2</t>
+        </is>
+      </c>
+      <c r="B1359" t="inlineStr"/>
+      <c r="C1359" t="inlineStr"/>
+      <c r="D1359" t="inlineStr"/>
+      <c r="E1359" t="inlineStr"/>
+      <c r="F1359" t="inlineStr"/>
+      <c r="G1359" t="inlineStr"/>
+      <c r="H1359" t="inlineStr"/>
+      <c r="I1359" t="inlineStr"/>
+    </row>
+    <row r="1360">
+      <c r="A1360" t="inlineStr">
+        <is>
+          <t>Summarized description: We will travel to Montserrat to see and taste some of the best wines in the world. We will also visit the famous Black Madonna, where we will hear the story of how she came to be.</t>
+        </is>
+      </c>
+      <c r="B1360" t="inlineStr"/>
+      <c r="C1360" t="inlineStr"/>
+      <c r="D1360" t="inlineStr"/>
+      <c r="E1360" t="inlineStr"/>
+      <c r="F1360" t="inlineStr"/>
+      <c r="G1360" t="inlineStr"/>
+      <c r="H1360" t="inlineStr"/>
+      <c r="I1360" t="inlineStr"/>
+    </row>
+    <row r="1361">
+      <c r="A1361" t="inlineStr">
+        <is>
+          <t>Title: Full-day tour to Montserrat mountain and a visit to a winery from Barcelona</t>
+        </is>
+      </c>
+      <c r="B1361" t="inlineStr"/>
+      <c r="C1361" t="inlineStr"/>
+      <c r="D1361" t="inlineStr"/>
+      <c r="E1361" t="inlineStr"/>
+      <c r="F1361" t="inlineStr"/>
+      <c r="G1361" t="inlineStr"/>
+      <c r="H1361" t="inlineStr"/>
+      <c r="I1361" t="inlineStr"/>
+    </row>
+    <row r="1362">
+      <c r="A1362" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1362" t="inlineStr"/>
+      <c r="C1362" t="inlineStr"/>
+      <c r="D1362" t="inlineStr"/>
+      <c r="E1362" t="inlineStr"/>
+      <c r="F1362" t="inlineStr"/>
+      <c r="G1362" t="inlineStr"/>
+      <c r="H1362" t="inlineStr"/>
+      <c r="I1362" t="inlineStr"/>
+    </row>
+    <row r="1363">
+      <c r="A1363" t="inlineStr">
+        <is>
+          <t>Category: ['Wine and Beverage Tastings', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1363" t="inlineStr"/>
+      <c r="C1363" t="inlineStr"/>
+      <c r="D1363" t="inlineStr"/>
+      <c r="E1363" t="inlineStr"/>
+      <c r="F1363" t="inlineStr"/>
+      <c r="G1363" t="inlineStr"/>
+      <c r="H1363" t="inlineStr"/>
+      <c r="I1363" t="inlineStr"/>
+    </row>
+    <row r="1364">
+      <c r="A1364" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 26586P15</t>
+        </is>
+      </c>
+      <c r="B1364" t="inlineStr"/>
+      <c r="C1364" t="inlineStr"/>
+      <c r="D1364" t="inlineStr"/>
+      <c r="E1364" t="inlineStr"/>
+      <c r="F1364" t="inlineStr"/>
+      <c r="G1364" t="inlineStr"/>
+      <c r="H1364" t="inlineStr"/>
+      <c r="I1364" t="inlineStr"/>
+    </row>
+    <row r="1365">
+      <c r="A1365" t="inlineStr">
+        <is>
+          <t>Summarized description: Spin through Barcelona by air-conditioned minivan with a private driver-guide. Admire Art Nouveau buildings such as La Pedrera and Casa Batlló and the Gothic Quarter. Visit the Benedictine Santa Maria de Montserrat Abbey.</t>
+        </is>
+      </c>
+      <c r="B1365" t="inlineStr"/>
+      <c r="C1365" t="inlineStr"/>
+      <c r="D1365" t="inlineStr"/>
+      <c r="E1365" t="inlineStr"/>
+      <c r="F1365" t="inlineStr"/>
+      <c r="G1365" t="inlineStr"/>
+      <c r="H1365" t="inlineStr"/>
+      <c r="I1365" t="inlineStr"/>
+    </row>
+    <row r="1366">
+      <c r="A1366" t="inlineStr">
+        <is>
+          <t>Title: Barcelona And Montserrat Full Day Tour</t>
+        </is>
+      </c>
+      <c r="B1366" t="inlineStr"/>
+      <c r="C1366" t="inlineStr"/>
+      <c r="D1366" t="inlineStr"/>
+      <c r="E1366" t="inlineStr"/>
+      <c r="F1366" t="inlineStr"/>
+      <c r="G1366" t="inlineStr"/>
+      <c r="H1366" t="inlineStr"/>
+      <c r="I1366" t="inlineStr"/>
+    </row>
+    <row r="1367">
+      <c r="A1367" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1367" t="inlineStr"/>
+      <c r="C1367" t="inlineStr"/>
+      <c r="D1367" t="inlineStr"/>
+      <c r="E1367" t="inlineStr"/>
+      <c r="F1367" t="inlineStr"/>
+      <c r="G1367" t="inlineStr"/>
+      <c r="H1367" t="inlineStr"/>
+      <c r="I1367" t="inlineStr"/>
+    </row>
+    <row r="1368">
+      <c r="A1368" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1368" t="inlineStr"/>
+      <c r="C1368" t="inlineStr"/>
+      <c r="D1368" t="inlineStr"/>
+      <c r="E1368" t="inlineStr"/>
+      <c r="F1368" t="inlineStr"/>
+      <c r="G1368" t="inlineStr"/>
+      <c r="H1368" t="inlineStr"/>
+      <c r="I1368" t="inlineStr"/>
+    </row>
+    <row r="1369">
+      <c r="A1369" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 320547P140</t>
+        </is>
+      </c>
+      <c r="B1369" t="inlineStr"/>
+      <c r="C1369" t="inlineStr"/>
+      <c r="D1369" t="inlineStr"/>
+      <c r="E1369" t="inlineStr"/>
+      <c r="F1369" t="inlineStr"/>
+      <c r="G1369" t="inlineStr"/>
+      <c r="H1369" t="inlineStr"/>
+      <c r="I1369" t="inlineStr"/>
+    </row>
+    <row r="1370">
+      <c r="A1370" t="inlineStr">
+        <is>
+          <t>Summarized description: We take you for a private sightseeing tour exclusively for you and your family. Montserrat is an impressive mountain range with an important mountaintop monastery around 30km as the crow flies.</t>
+        </is>
+      </c>
+      <c r="B1370" t="inlineStr"/>
+      <c r="C1370" t="inlineStr"/>
+      <c r="D1370" t="inlineStr"/>
+      <c r="E1370" t="inlineStr"/>
+      <c r="F1370" t="inlineStr"/>
+      <c r="G1370" t="inlineStr"/>
+      <c r="H1370" t="inlineStr"/>
+      <c r="I1370" t="inlineStr"/>
+    </row>
+    <row r="1371">
+      <c r="A1371" t="inlineStr">
+        <is>
+          <t>Title: Private 9 Hour Barcelona Sightseeing &amp; Montserrat Tour</t>
+        </is>
+      </c>
+      <c r="B1371" t="inlineStr"/>
+      <c r="C1371" t="inlineStr"/>
+      <c r="D1371" t="inlineStr"/>
+      <c r="E1371" t="inlineStr"/>
+      <c r="F1371" t="inlineStr"/>
+      <c r="G1371" t="inlineStr"/>
+      <c r="H1371" t="inlineStr"/>
+      <c r="I1371" t="inlineStr"/>
+    </row>
+    <row r="1372">
+      <c r="A1372" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1372" t="inlineStr"/>
+      <c r="C1372" t="inlineStr"/>
+      <c r="D1372" t="inlineStr"/>
+      <c r="E1372" t="inlineStr"/>
+      <c r="F1372" t="inlineStr"/>
+      <c r="G1372" t="inlineStr"/>
+      <c r="H1372" t="inlineStr"/>
+      <c r="I1372" t="inlineStr"/>
+    </row>
+    <row r="1373">
+      <c r="A1373" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Cultural Tours']</t>
+        </is>
+      </c>
+      <c r="B1373" t="inlineStr"/>
+      <c r="C1373" t="inlineStr"/>
+      <c r="D1373" t="inlineStr"/>
+      <c r="E1373" t="inlineStr"/>
+      <c r="F1373" t="inlineStr"/>
+      <c r="G1373" t="inlineStr"/>
+      <c r="H1373" t="inlineStr"/>
+      <c r="I1373" t="inlineStr"/>
+    </row>
+    <row r="1374">
+      <c r="A1374" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 255730P230</t>
+        </is>
+      </c>
+      <c r="B1374" t="inlineStr"/>
+      <c r="C1374" t="inlineStr"/>
+      <c r="D1374" t="inlineStr"/>
+      <c r="E1374" t="inlineStr"/>
+      <c r="F1374" t="inlineStr"/>
+      <c r="G1374" t="inlineStr"/>
+      <c r="H1374" t="inlineStr"/>
+      <c r="I1374" t="inlineStr"/>
+    </row>
+    <row r="1375">
+      <c r="A1375" t="inlineStr">
+        <is>
+          <t>Summarized description: The Santa Maria Montserrat Monastery was built in the 11th century on the site of a Hermitage established in 888 A.D. With its imposing sand-coloured facade, it looks like it was dramatically carved out of the mountain - as though the monastery and mountain were one. Visit the museum bringing together the work of some of the most famous Spanish painters including El Greco, Picasso, and Dalí.</t>
+        </is>
+      </c>
+      <c r="B1375" t="inlineStr"/>
+      <c r="C1375" t="inlineStr"/>
+      <c r="D1375" t="inlineStr"/>
+      <c r="E1375" t="inlineStr"/>
+      <c r="F1375" t="inlineStr"/>
+      <c r="G1375" t="inlineStr"/>
+      <c r="H1375" t="inlineStr"/>
+      <c r="I1375" t="inlineStr"/>
+    </row>
+    <row r="1376">
+      <c r="A1376" t="inlineStr">
+        <is>
+          <t>Title: Visit Montserrat: Private Day Trip from Barcelona</t>
+        </is>
+      </c>
+      <c r="B1376" t="inlineStr"/>
+      <c r="C1376" t="inlineStr"/>
+      <c r="D1376" t="inlineStr"/>
+      <c r="E1376" t="inlineStr"/>
+      <c r="F1376" t="inlineStr"/>
+      <c r="G1376" t="inlineStr"/>
+      <c r="H1376" t="inlineStr"/>
+      <c r="I1376" t="inlineStr"/>
+    </row>
+    <row r="1377">
+      <c r="A1377" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1377" t="inlineStr"/>
+      <c r="C1377" t="inlineStr"/>
+      <c r="D1377" t="inlineStr"/>
+      <c r="E1377" t="inlineStr"/>
+      <c r="F1377" t="inlineStr"/>
+      <c r="G1377" t="inlineStr"/>
+      <c r="H1377" t="inlineStr"/>
+      <c r="I1377" t="inlineStr"/>
+    </row>
+    <row r="1378">
+      <c r="A1378" t="inlineStr">
+        <is>
+          <t>Category: ['Museums', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1378" t="inlineStr"/>
+      <c r="C1378" t="inlineStr"/>
+      <c r="D1378" t="inlineStr"/>
+      <c r="E1378" t="inlineStr"/>
+      <c r="F1378" t="inlineStr"/>
+      <c r="G1378" t="inlineStr"/>
+      <c r="H1378" t="inlineStr"/>
+      <c r="I1378" t="inlineStr"/>
+    </row>
+    <row r="1379">
+      <c r="A1379" t="inlineStr">
+        <is>
+          <t>PRODUCTCODE: 126139P11</t>
+        </is>
+      </c>
+      <c r="B1379" t="inlineStr"/>
+      <c r="C1379" t="inlineStr"/>
+      <c r="D1379" t="inlineStr"/>
+      <c r="E1379" t="inlineStr"/>
+      <c r="F1379" t="inlineStr"/>
+      <c r="G1379" t="inlineStr"/>
+      <c r="H1379" t="inlineStr"/>
+      <c r="I1379" t="inlineStr"/>
+    </row>
+    <row r="1380">
+      <c r="A1380" t="inlineStr">
+        <is>
+          <t>Summarized description: Explore the winding alleys and picturesque squares of this charming Catalan town. Discover hidden gems that only locals know about, like hidden courtyards and quaint cobblestone streets.</t>
+        </is>
+      </c>
+      <c r="B1380" t="inlineStr"/>
+      <c r="C1380" t="inlineStr"/>
+      <c r="D1380" t="inlineStr"/>
+      <c r="E1380" t="inlineStr"/>
+      <c r="F1380" t="inlineStr"/>
+      <c r="G1380" t="inlineStr"/>
+      <c r="H1380" t="inlineStr"/>
+      <c r="I1380" t="inlineStr"/>
+    </row>
+    <row r="1381">
+      <c r="A1381" t="inlineStr">
+        <is>
+          <t>Title: Private Tour From Barcelona to Girona</t>
+        </is>
+      </c>
+      <c r="B1381" t="inlineStr"/>
+      <c r="C1381" t="inlineStr"/>
+      <c r="D1381" t="inlineStr"/>
+      <c r="E1381" t="inlineStr"/>
+      <c r="F1381" t="inlineStr"/>
+      <c r="G1381" t="inlineStr"/>
+      <c r="H1381" t="inlineStr"/>
+      <c r="I1381" t="inlineStr"/>
+    </row>
+    <row r="1382">
+      <c r="A1382" t="inlineStr">
+        <is>
+          <t>TotalReviews: 0</t>
+        </is>
+      </c>
+      <c r="B1382" t="inlineStr"/>
+      <c r="C1382" t="inlineStr"/>
+      <c r="D1382" t="inlineStr"/>
+      <c r="E1382" t="inlineStr"/>
+      <c r="F1382" t="inlineStr"/>
+      <c r="G1382" t="inlineStr"/>
+      <c r="H1382" t="inlineStr"/>
+      <c r="I1382" t="inlineStr"/>
+    </row>
+    <row r="1383">
+      <c r="A1383" t="inlineStr">
+        <is>
+          <t>Category: ['City Tours', 'Cultural Tours', 'Historical Tours']</t>
+        </is>
+      </c>
+      <c r="B1383" t="inlineStr"/>
+      <c r="C1383" t="inlineStr"/>
+      <c r="D1383" t="inlineStr"/>
+      <c r="E1383" t="inlineStr"/>
+      <c r="F1383" t="inlineStr"/>
+      <c r="G1383" t="inlineStr"/>
+      <c r="H1383" t="inlineStr"/>
+      <c r="I1383" t="inlineStr"/>
+    </row>
+    <row r="1384">
+      <c r="A1384" t="inlineStr">
+        <is>
+          <t>*****</t>
+        </is>
+      </c>
+      <c r="B1384" t="inlineStr"/>
+      <c r="C1384" t="inlineStr"/>
+      <c r="D1384" t="inlineStr"/>
+      <c r="E1384" t="inlineStr"/>
+      <c r="F1384" t="inlineStr"/>
+      <c r="G1384" t="inlineStr"/>
+      <c r="H1384" t="inlineStr"/>
+      <c r="I1384" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
